--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-302_性能・拡張性要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-302_性能・拡張性要件定義(サンプル＆ガイド).xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'別紙１（エンティティ一覧）'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'別紙２(システム機能一覧)'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -2522,16 +2522,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -3258,6 +3248,9 @@
   <si>
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -3839,7 +3832,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4073,9 +4066,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4190,6 +4180,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4592,6 +4603,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6676,7 +6693,7 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A2" s="113"/>
+      <c r="A2" s="112"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
@@ -6698,118 +6715,120 @@
     <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
     <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
     <row r="22" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F22" s="114"/>
-      <c r="H22" s="114"/>
+      <c r="F22" s="113"/>
+      <c r="H22" s="113"/>
     </row>
     <row r="23" spans="6:19" ht="17.25" customHeight="1">
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="J23" s="115"/>
-      <c r="R23" s="115" t="s">
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="J23" s="114"/>
+      <c r="R23" s="114" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
     </row>
     <row r="25" spans="6:19" ht="18" customHeight="1">
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="J25" s="116"/>
-      <c r="R25" s="116" t="s">
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="J25" s="115"/>
+      <c r="R25" s="115" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="26" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
     </row>
     <row r="27" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
     </row>
     <row r="28" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F28" s="117"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
     </row>
     <row r="29" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F29" s="114"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="114"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="113"/>
     </row>
     <row r="30" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F30" s="114"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="114"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="113"/>
     </row>
     <row r="31" spans="6:19" ht="21" customHeight="1">
-      <c r="F31" s="114"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="114"/>
-      <c r="J31" s="119"/>
-      <c r="R31" s="120" t="s">
-        <v>248</v>
-      </c>
+      <c r="F31" s="113"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="113"/>
+      <c r="J31" s="118"/>
+      <c r="R31" s="119"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="121"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="122"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="124"/>
+      <c r="F32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="123"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="34" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="35" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="36" spans="2:19" ht="13.5" customHeight="1">
-      <c r="O36" s="121"/>
-      <c r="P36" s="121"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="124"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="123"/>
+      <c r="S36" s="123"/>
     </row>
     <row r="37" spans="2:19" ht="13.5" customHeight="1">
-      <c r="O37" s="125"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="124"/>
-      <c r="S37" s="126"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="124"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="125"/>
     </row>
     <row r="38" spans="2:19" ht="13.5" customHeight="1">
-      <c r="O38" s="125"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="125"/>
+      <c r="O38" s="124"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="124"/>
+      <c r="R38" s="123"/>
+      <c r="S38" s="124"/>
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="E39" s="127" t="s">
+      <c r="O39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="124"/>
+      <c r="R39" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="125" t="s">
-        <v>251</v>
-      </c>
-      <c r="S39" s="124"/>
-    </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
+      <c r="S39" s="123"/>
+    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -7284,7 +7303,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7325,522 +7344,522 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1" thickBot="1">
-      <c r="B12" s="129" t="s">
+    <row r="12" spans="1:34" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B12" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="157" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="160" t="s">
+      <c r="C12" s="163" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="158"/>
-      <c r="O12" s="158"/>
-      <c r="P12" s="158"/>
-      <c r="Q12" s="158"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="158"/>
-      <c r="T12" s="158"/>
-      <c r="U12" s="158"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="159"/>
-      <c r="AB12" s="156" t="s">
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="165"/>
+      <c r="AB12" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="AC12" s="156"/>
-      <c r="AD12" s="156"/>
-      <c r="AE12" s="156"/>
-      <c r="AF12" s="156"/>
-      <c r="AG12" s="156"/>
-      <c r="AH12" s="156"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B13" s="174">
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+    </row>
+    <row r="13" spans="1:34" ht="28.5" customHeight="1" thickTop="1">
+      <c r="B13" s="180">
         <v>1</v>
       </c>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="174" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="177" t="s">
         <v>252</v>
       </c>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="168" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="171" t="s">
+      <c r="N13" s="178"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="178"/>
+      <c r="AA13" s="179"/>
+      <c r="AB13" s="168" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC13" s="169"/>
+      <c r="AD13" s="169"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="169"/>
+      <c r="AH13" s="170"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1">
+      <c r="B14" s="181"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="159" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="N13" s="172"/>
-      <c r="O13" s="172"/>
-      <c r="P13" s="172"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="172"/>
-      <c r="Z13" s="172"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="162" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="163"/>
-      <c r="AG13" s="163"/>
-      <c r="AH13" s="164"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="175"/>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="153" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="153" t="s">
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="161"/>
+      <c r="AB14" s="171"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="172"/>
+      <c r="AF14" s="172"/>
+      <c r="AG14" s="172"/>
+      <c r="AH14" s="173"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1">
+      <c r="B15" s="182">
+        <v>2</v>
+      </c>
+      <c r="C15" s="190" t="s">
         <v>254</v>
       </c>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="165"/>
-      <c r="AC14" s="166"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="166"/>
-      <c r="AF14" s="166"/>
-      <c r="AG14" s="166"/>
-      <c r="AH14" s="167"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="176">
-        <v>2</v>
-      </c>
-      <c r="C15" s="184" t="s">
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="159" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="160"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="161"/>
+      <c r="AB15" s="167"/>
+      <c r="AC15" s="167"/>
+      <c r="AD15" s="167"/>
+      <c r="AE15" s="167"/>
+      <c r="AF15" s="167"/>
+      <c r="AG15" s="167"/>
+      <c r="AH15" s="167"/>
+    </row>
+    <row r="16" spans="1:34" ht="32.1" customHeight="1">
+      <c r="B16" s="181"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="159" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="161"/>
+      <c r="AB16" s="159"/>
+      <c r="AC16" s="160"/>
+      <c r="AD16" s="160"/>
+      <c r="AE16" s="160"/>
+      <c r="AF16" s="160"/>
+      <c r="AG16" s="160"/>
+      <c r="AH16" s="161"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1">
+      <c r="B17" s="182">
+        <v>3</v>
+      </c>
+      <c r="C17" s="190" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="153" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="154"/>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="161"/>
-      <c r="AC15" s="161"/>
-      <c r="AD15" s="161"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="161"/>
-      <c r="AG15" s="161"/>
-      <c r="AH15" s="161"/>
-    </row>
-    <row r="16" spans="1:34" ht="32.1" customHeight="1">
-      <c r="B16" s="175"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="153" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="154"/>
-      <c r="Z16" s="154"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="153"/>
-      <c r="AC16" s="154"/>
-      <c r="AD16" s="154"/>
-      <c r="AE16" s="154"/>
-      <c r="AF16" s="154"/>
-      <c r="AG16" s="154"/>
-      <c r="AH16" s="155"/>
-    </row>
-    <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="176">
-        <v>3</v>
-      </c>
-      <c r="C17" s="184" t="s">
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="159" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="160"/>
+      <c r="O17" s="160"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="160"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="160"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="161"/>
+      <c r="AB17" s="159"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="160"/>
+      <c r="AH17" s="161"/>
+    </row>
+    <row r="18" spans="1:34" ht="24" customHeight="1">
+      <c r="B18" s="183"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="159" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="160"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="160"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="161"/>
+      <c r="AB18" s="159"/>
+      <c r="AC18" s="160"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="160"/>
+      <c r="AF18" s="160"/>
+      <c r="AG18" s="160"/>
+      <c r="AH18" s="161"/>
+    </row>
+    <row r="19" spans="1:34" ht="24" customHeight="1">
+      <c r="B19" s="183"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="159" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="159" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="160"/>
+      <c r="S19" s="160"/>
+      <c r="T19" s="160"/>
+      <c r="U19" s="160"/>
+      <c r="V19" s="160"/>
+      <c r="W19" s="160"/>
+      <c r="X19" s="160"/>
+      <c r="Y19" s="160"/>
+      <c r="Z19" s="160"/>
+      <c r="AA19" s="161"/>
+      <c r="AB19" s="159"/>
+      <c r="AC19" s="160"/>
+      <c r="AD19" s="160"/>
+      <c r="AE19" s="160"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="161"/>
+    </row>
+    <row r="20" spans="1:34" ht="24" customHeight="1">
+      <c r="B20" s="183"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="159" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="160"/>
+      <c r="X20" s="160"/>
+      <c r="Y20" s="160"/>
+      <c r="Z20" s="160"/>
+      <c r="AA20" s="161"/>
+      <c r="AB20" s="159"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="160"/>
+      <c r="AE20" s="160"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="161"/>
+    </row>
+    <row r="21" spans="1:34" ht="24" customHeight="1">
+      <c r="B21" s="181"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="159" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="159" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="160"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="160"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="160"/>
+      <c r="S21" s="160"/>
+      <c r="T21" s="160"/>
+      <c r="U21" s="160"/>
+      <c r="V21" s="160"/>
+      <c r="W21" s="160"/>
+      <c r="X21" s="160"/>
+      <c r="Y21" s="160"/>
+      <c r="Z21" s="160"/>
+      <c r="AA21" s="161"/>
+      <c r="AB21" s="159"/>
+      <c r="AC21" s="160"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="160"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="160"/>
+      <c r="AH21" s="161"/>
+    </row>
+    <row r="22" spans="1:34" ht="24" customHeight="1">
+      <c r="B22" s="182">
+        <v>4</v>
+      </c>
+      <c r="C22" s="190" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="153" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="153" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="T17" s="154"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="154"/>
-      <c r="Z17" s="154"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="154"/>
-      <c r="AG17" s="154"/>
-      <c r="AH17" s="155"/>
-    </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
-      <c r="B18" s="177"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="153" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
-      <c r="AG18" s="154"/>
-      <c r="AH18" s="155"/>
-    </row>
-    <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="177"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="153" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
-      <c r="W19" s="154"/>
-      <c r="X19" s="154"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="154"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="153"/>
-      <c r="AC19" s="154"/>
-      <c r="AD19" s="154"/>
-      <c r="AE19" s="154"/>
-      <c r="AF19" s="154"/>
-      <c r="AG19" s="154"/>
-      <c r="AH19" s="155"/>
-    </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="177"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="153" t="s">
-        <v>141</v>
-      </c>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="154"/>
-      <c r="X20" s="154"/>
-      <c r="Y20" s="154"/>
-      <c r="Z20" s="154"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="153"/>
-      <c r="AC20" s="154"/>
-      <c r="AD20" s="154"/>
-      <c r="AE20" s="154"/>
-      <c r="AF20" s="154"/>
-      <c r="AG20" s="154"/>
-      <c r="AH20" s="155"/>
-    </row>
-    <row r="21" spans="1:34" ht="24" customHeight="1">
-      <c r="B21" s="175"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="189"/>
-      <c r="G21" s="153" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="153" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="154"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="154"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="154"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="154"/>
-      <c r="AD21" s="154"/>
-      <c r="AE21" s="154"/>
-      <c r="AF21" s="154"/>
-      <c r="AG21" s="154"/>
-      <c r="AH21" s="155"/>
-    </row>
-    <row r="22" spans="1:34" ht="24" customHeight="1">
-      <c r="B22" s="176">
-        <v>4</v>
-      </c>
-      <c r="C22" s="184" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="153" t="s">
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="153" t="s">
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="154"/>
-      <c r="X22" s="154"/>
-      <c r="Y22" s="154"/>
-      <c r="Z22" s="154"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="153"/>
-      <c r="AC22" s="154"/>
-      <c r="AD22" s="154"/>
-      <c r="AE22" s="154"/>
-      <c r="AF22" s="154"/>
-      <c r="AG22" s="154"/>
-      <c r="AH22" s="155"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="160"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="160"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="160"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="160"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="159"/>
+      <c r="AC22" s="160"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="160"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="160"/>
+      <c r="AH22" s="161"/>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="189"/>
-      <c r="G23" s="153" t="s">
+      <c r="B23" s="181"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="153" t="s">
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
-      <c r="T23" s="154"/>
-      <c r="U23" s="154"/>
-      <c r="V23" s="154"/>
-      <c r="W23" s="154"/>
-      <c r="X23" s="154"/>
-      <c r="Y23" s="154"/>
-      <c r="Z23" s="154"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="153"/>
-      <c r="AC23" s="154"/>
-      <c r="AD23" s="154"/>
-      <c r="AE23" s="154"/>
-      <c r="AF23" s="154"/>
-      <c r="AG23" s="154"/>
-      <c r="AH23" s="155"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="160"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="160"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="160"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="160"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="159"/>
+      <c r="AC23" s="160"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="160"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="161"/>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="134"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="135" t="s">
-        <v>271</v>
-      </c>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
+      <c r="B24" s="133"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
@@ -7958,12 +7977,12 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:59" ht="24" customHeight="1">
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
@@ -8016,12 +8035,12 @@
       <c r="BG6" s="17"/>
     </row>
     <row r="7" spans="1:59" ht="24" customHeight="1">
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="32"/>
@@ -8138,24 +8157,24 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="133"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="133"/>
-      <c r="AA10" s="133"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="133"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
       <c r="AF10" s="33"/>
       <c r="AG10" s="46"/>
     </row>
@@ -8168,34 +8187,34 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="205" t="s">
+      <c r="K11" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="207"/>
-      <c r="O11" s="193" t="s">
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="194"/>
-      <c r="Q11" s="194"/>
-      <c r="R11" s="194"/>
-      <c r="S11" s="194"/>
-      <c r="T11" s="194"/>
-      <c r="U11" s="194"/>
-      <c r="V11" s="194"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="193" t="s">
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="200"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="201"/>
+      <c r="X11" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="194"/>
-      <c r="AA11" s="194"/>
-      <c r="AB11" s="194"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="195"/>
+      <c r="Y11" s="200"/>
+      <c r="Z11" s="200"/>
+      <c r="AA11" s="200"/>
+      <c r="AB11" s="200"/>
+      <c r="AC11" s="200"/>
+      <c r="AD11" s="200"/>
+      <c r="AE11" s="200"/>
+      <c r="AF11" s="201"/>
       <c r="AG11" s="69"/>
     </row>
     <row r="12" spans="1:59" ht="24" customHeight="1">
@@ -8207,40 +8226,40 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="193" t="s">
+      <c r="K12" s="214"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="216"/>
+      <c r="O12" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="194"/>
-      <c r="Q12" s="195"/>
-      <c r="R12" s="193" t="s">
+      <c r="P12" s="200"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="194"/>
-      <c r="T12" s="195"/>
-      <c r="U12" s="193" t="s">
+      <c r="S12" s="200"/>
+      <c r="T12" s="201"/>
+      <c r="U12" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="V12" s="194"/>
-      <c r="W12" s="195"/>
-      <c r="X12" s="193" t="s">
+      <c r="V12" s="200"/>
+      <c r="W12" s="201"/>
+      <c r="X12" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="194"/>
-      <c r="Z12" s="195"/>
-      <c r="AA12" s="193" t="s">
+      <c r="Y12" s="200"/>
+      <c r="Z12" s="201"/>
+      <c r="AA12" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="193" t="s">
+      <c r="AB12" s="200"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="AE12" s="194"/>
-      <c r="AF12" s="195"/>
+      <c r="AE12" s="200"/>
+      <c r="AF12" s="201"/>
       <c r="AG12" s="69"/>
     </row>
     <row r="13" spans="1:59" ht="24" customHeight="1">
@@ -8252,42 +8271,42 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="131" t="s">
         <v>107</v>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="190" t="s">
+      <c r="O13" s="196" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="192"/>
-      <c r="R13" s="190" t="s">
+      <c r="P13" s="197"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="196" t="s">
         <v>180</v>
       </c>
-      <c r="S13" s="191"/>
-      <c r="T13" s="192"/>
-      <c r="U13" s="190" t="s">
+      <c r="S13" s="197"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="196" t="s">
         <v>183</v>
       </c>
-      <c r="V13" s="191"/>
-      <c r="W13" s="192"/>
-      <c r="X13" s="190" t="s">
+      <c r="V13" s="197"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="192"/>
-      <c r="AA13" s="190" t="s">
+      <c r="Y13" s="197"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="196" t="s">
         <v>189</v>
       </c>
-      <c r="AB13" s="191"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="190" t="s">
+      <c r="AB13" s="197"/>
+      <c r="AC13" s="198"/>
+      <c r="AD13" s="196" t="s">
         <v>192</v>
       </c>
-      <c r="AE13" s="191"/>
-      <c r="AF13" s="192"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="198"/>
       <c r="AG13" s="69"/>
     </row>
     <row r="14" spans="1:59" ht="24" customHeight="1">
@@ -8299,42 +8318,42 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="132" t="s">
+      <c r="K14" s="131" t="s">
         <v>174</v>
       </c>
       <c r="L14" s="60"/>
       <c r="M14" s="31"/>
       <c r="N14" s="61"/>
-      <c r="O14" s="196" t="s">
+      <c r="O14" s="202" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="197"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="190" t="s">
+      <c r="P14" s="203"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="S14" s="191"/>
-      <c r="T14" s="192"/>
-      <c r="U14" s="196" t="s">
+      <c r="S14" s="197"/>
+      <c r="T14" s="198"/>
+      <c r="U14" s="202" t="s">
         <v>184</v>
       </c>
-      <c r="V14" s="197"/>
-      <c r="W14" s="198"/>
-      <c r="X14" s="196" t="s">
+      <c r="V14" s="203"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="202" t="s">
         <v>187</v>
       </c>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="198"/>
-      <c r="AA14" s="196" t="s">
+      <c r="Y14" s="203"/>
+      <c r="Z14" s="204"/>
+      <c r="AA14" s="202" t="s">
         <v>190</v>
       </c>
-      <c r="AB14" s="197"/>
-      <c r="AC14" s="198"/>
-      <c r="AD14" s="190" t="s">
+      <c r="AB14" s="203"/>
+      <c r="AC14" s="204"/>
+      <c r="AD14" s="196" t="s">
         <v>193</v>
       </c>
-      <c r="AE14" s="191"/>
-      <c r="AF14" s="192"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="198"/>
       <c r="AG14" s="69"/>
     </row>
     <row r="15" spans="1:59" ht="24" customHeight="1">
@@ -8346,42 +8365,42 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="132" t="s">
+      <c r="K15" s="131" t="s">
         <v>175</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="196" t="s">
+      <c r="O15" s="202" t="s">
         <v>179</v>
       </c>
-      <c r="P15" s="197"/>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="190" t="s">
+      <c r="P15" s="203"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="196" t="s">
         <v>182</v>
       </c>
-      <c r="S15" s="191"/>
-      <c r="T15" s="192"/>
-      <c r="U15" s="190" t="s">
+      <c r="S15" s="197"/>
+      <c r="T15" s="198"/>
+      <c r="U15" s="196" t="s">
         <v>185</v>
       </c>
-      <c r="V15" s="191"/>
-      <c r="W15" s="192"/>
-      <c r="X15" s="190" t="s">
+      <c r="V15" s="197"/>
+      <c r="W15" s="198"/>
+      <c r="X15" s="196" t="s">
         <v>188</v>
       </c>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="192"/>
-      <c r="AA15" s="190" t="s">
+      <c r="Y15" s="197"/>
+      <c r="Z15" s="198"/>
+      <c r="AA15" s="196" t="s">
         <v>191</v>
       </c>
-      <c r="AB15" s="191"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="190" t="s">
+      <c r="AB15" s="197"/>
+      <c r="AC15" s="198"/>
+      <c r="AD15" s="196" t="s">
         <v>201</v>
       </c>
-      <c r="AE15" s="191"/>
-      <c r="AF15" s="192"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="198"/>
       <c r="AG15" s="47"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
@@ -8419,42 +8438,42 @@
       <c r="H16" s="19"/>
       <c r="I16" s="47"/>
       <c r="J16" s="44"/>
-      <c r="K16" s="132" t="s">
+      <c r="K16" s="131" t="s">
         <v>173</v>
       </c>
       <c r="L16" s="60"/>
       <c r="M16" s="31"/>
       <c r="N16" s="61"/>
-      <c r="O16" s="196" t="s">
+      <c r="O16" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="196" t="s">
+      <c r="P16" s="203"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="197"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="196" t="s">
+      <c r="S16" s="203"/>
+      <c r="T16" s="204"/>
+      <c r="U16" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="197"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="196" t="s">
+      <c r="V16" s="203"/>
+      <c r="W16" s="204"/>
+      <c r="X16" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="198"/>
-      <c r="AA16" s="196" t="s">
+      <c r="Y16" s="203"/>
+      <c r="Z16" s="204"/>
+      <c r="AA16" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="196" t="s">
+      <c r="AB16" s="203"/>
+      <c r="AC16" s="204"/>
+      <c r="AD16" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="198"/>
+      <c r="AE16" s="203"/>
+      <c r="AF16" s="204"/>
       <c r="AG16" s="47"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="17"/>
@@ -8492,29 +8511,29 @@
       <c r="H17" s="19"/>
       <c r="I17" s="47"/>
       <c r="J17" s="44"/>
-      <c r="K17" s="185" t="s">
+      <c r="K17" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="185"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="185"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="191"/>
+      <c r="R17" s="191"/>
+      <c r="S17" s="191"/>
+      <c r="T17" s="191"/>
+      <c r="U17" s="191"/>
+      <c r="V17" s="191"/>
+      <c r="W17" s="191"/>
+      <c r="X17" s="191"/>
+      <c r="Y17" s="191"/>
+      <c r="Z17" s="191"/>
+      <c r="AA17" s="191"/>
+      <c r="AB17" s="191"/>
+      <c r="AC17" s="191"/>
+      <c r="AD17" s="191"/>
+      <c r="AE17" s="191"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="47"/>
       <c r="AH17" s="17"/>
@@ -8588,22 +8607,22 @@
       <c r="H19" s="20"/>
       <c r="I19" s="69"/>
       <c r="J19" s="54"/>
-      <c r="K19" s="205" t="s">
+      <c r="K19" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="207"/>
-      <c r="O19" s="193" t="s">
+      <c r="L19" s="212"/>
+      <c r="M19" s="212"/>
+      <c r="N19" s="213"/>
+      <c r="O19" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="193" t="s">
+      <c r="P19" s="200"/>
+      <c r="Q19" s="201"/>
+      <c r="R19" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="S19" s="194"/>
-      <c r="T19" s="195"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="201"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
@@ -8627,20 +8646,20 @@
       <c r="H20" s="20"/>
       <c r="I20" s="69"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="193" t="s">
+      <c r="K20" s="214"/>
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="216"/>
+      <c r="O20" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="194"/>
-      <c r="Q20" s="195"/>
-      <c r="R20" s="193" t="s">
+      <c r="P20" s="200"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="194"/>
-      <c r="T20" s="195"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="201"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
@@ -8664,22 +8683,22 @@
       <c r="H21" s="20"/>
       <c r="I21" s="69"/>
       <c r="J21" s="54"/>
-      <c r="K21" s="132" t="s">
+      <c r="K21" s="131" t="s">
         <v>107</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="190" t="s">
+      <c r="O21" s="196" t="s">
         <v>195</v>
       </c>
-      <c r="P21" s="191"/>
-      <c r="Q21" s="192"/>
-      <c r="R21" s="190" t="s">
+      <c r="P21" s="197"/>
+      <c r="Q21" s="198"/>
+      <c r="R21" s="196" t="s">
         <v>196</v>
       </c>
-      <c r="S21" s="191"/>
-      <c r="T21" s="192"/>
+      <c r="S21" s="197"/>
+      <c r="T21" s="198"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
@@ -8703,22 +8722,22 @@
       <c r="H22" s="20"/>
       <c r="I22" s="69"/>
       <c r="J22" s="54"/>
-      <c r="K22" s="132" t="s">
+      <c r="K22" s="131" t="s">
         <v>174</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="190" t="s">
+      <c r="O22" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="192"/>
-      <c r="R22" s="190" t="s">
+      <c r="P22" s="197"/>
+      <c r="Q22" s="198"/>
+      <c r="R22" s="196" t="s">
         <v>199</v>
       </c>
-      <c r="S22" s="191"/>
-      <c r="T22" s="192"/>
+      <c r="S22" s="197"/>
+      <c r="T22" s="198"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
@@ -8742,22 +8761,22 @@
       <c r="H23" s="20"/>
       <c r="I23" s="69"/>
       <c r="J23" s="54"/>
-      <c r="K23" s="132" t="s">
+      <c r="K23" s="131" t="s">
         <v>175</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="190" t="s">
+      <c r="O23" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="192"/>
-      <c r="R23" s="190" t="s">
+      <c r="P23" s="197"/>
+      <c r="Q23" s="198"/>
+      <c r="R23" s="196" t="s">
         <v>200</v>
       </c>
-      <c r="S23" s="191"/>
-      <c r="T23" s="192"/>
+      <c r="S23" s="197"/>
+      <c r="T23" s="198"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
@@ -8781,22 +8800,22 @@
       <c r="H24" s="20"/>
       <c r="I24" s="69"/>
       <c r="J24" s="54"/>
-      <c r="K24" s="132" t="s">
+      <c r="K24" s="131" t="s">
         <v>173</v>
       </c>
       <c r="L24" s="60"/>
       <c r="M24" s="31"/>
       <c r="N24" s="61"/>
-      <c r="O24" s="196" t="s">
+      <c r="O24" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="197"/>
-      <c r="Q24" s="198"/>
-      <c r="R24" s="196" t="s">
+      <c r="P24" s="203"/>
+      <c r="Q24" s="204"/>
+      <c r="R24" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="S24" s="197"/>
-      <c r="T24" s="198"/>
+      <c r="S24" s="203"/>
+      <c r="T24" s="204"/>
       <c r="U24" s="104"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
@@ -8813,36 +8832,36 @@
     </row>
     <row r="25" spans="2:59" ht="24" customHeight="1">
       <c r="C25" s="53"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="49"/>
       <c r="J25" s="53"/>
-      <c r="K25" s="185" t="s">
+      <c r="K25" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="L25" s="185"/>
-      <c r="M25" s="185"/>
-      <c r="N25" s="185"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="169"/>
-      <c r="V25" s="169"/>
-      <c r="W25" s="169"/>
-      <c r="X25" s="169"/>
-      <c r="Y25" s="169"/>
-      <c r="Z25" s="169"/>
-      <c r="AA25" s="169"/>
-      <c r="AB25" s="169"/>
-      <c r="AC25" s="169"/>
-      <c r="AD25" s="169"/>
-      <c r="AE25" s="169"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="191"/>
+      <c r="R25" s="191"/>
+      <c r="S25" s="191"/>
+      <c r="T25" s="191"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
+      <c r="X25" s="175"/>
+      <c r="Y25" s="175"/>
+      <c r="Z25" s="175"/>
+      <c r="AA25" s="175"/>
+      <c r="AB25" s="175"/>
+      <c r="AC25" s="175"/>
+      <c r="AD25" s="175"/>
+      <c r="AE25" s="175"/>
       <c r="AF25" s="48"/>
       <c r="AG25" s="49"/>
     </row>
@@ -8850,9 +8869,9 @@
       <c r="C26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
@@ -8979,18 +8998,18 @@
       <c r="BG28" s="36"/>
     </row>
     <row r="29" spans="2:59" ht="24" customHeight="1">
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
       <c r="I29" s="58"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
       <c r="O29" s="34"/>
@@ -9040,12 +9059,12 @@
       <c r="BG29" s="36"/>
     </row>
     <row r="30" spans="2:59" ht="24" customHeight="1">
-      <c r="C30" s="132" t="s">
+      <c r="C30" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="38"/>
@@ -9103,7 +9122,7 @@
       <c r="BG30" s="36"/>
     </row>
     <row r="31" spans="2:59" ht="24" customHeight="1">
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="131" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="56"/>
@@ -9175,32 +9194,32 @@
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="199" t="s">
+      <c r="J32" s="205" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="200"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="200"/>
-      <c r="N32" s="200"/>
-      <c r="O32" s="200"/>
-      <c r="P32" s="200"/>
-      <c r="Q32" s="200"/>
-      <c r="R32" s="200"/>
-      <c r="S32" s="200"/>
-      <c r="T32" s="200"/>
-      <c r="U32" s="200"/>
-      <c r="V32" s="200"/>
-      <c r="W32" s="200"/>
-      <c r="X32" s="200"/>
-      <c r="Y32" s="200"/>
-      <c r="Z32" s="200"/>
-      <c r="AA32" s="200"/>
-      <c r="AB32" s="200"/>
-      <c r="AC32" s="200"/>
-      <c r="AD32" s="200"/>
-      <c r="AE32" s="200"/>
-      <c r="AF32" s="200"/>
-      <c r="AG32" s="201"/>
+      <c r="K32" s="206"/>
+      <c r="L32" s="206"/>
+      <c r="M32" s="206"/>
+      <c r="N32" s="206"/>
+      <c r="O32" s="206"/>
+      <c r="P32" s="206"/>
+      <c r="Q32" s="206"/>
+      <c r="R32" s="206"/>
+      <c r="S32" s="206"/>
+      <c r="T32" s="206"/>
+      <c r="U32" s="206"/>
+      <c r="V32" s="206"/>
+      <c r="W32" s="206"/>
+      <c r="X32" s="206"/>
+      <c r="Y32" s="206"/>
+      <c r="Z32" s="206"/>
+      <c r="AA32" s="206"/>
+      <c r="AB32" s="206"/>
+      <c r="AC32" s="206"/>
+      <c r="AD32" s="206"/>
+      <c r="AE32" s="206"/>
+      <c r="AF32" s="206"/>
+      <c r="AG32" s="207"/>
       <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
@@ -9229,37 +9248,37 @@
       <c r="BG32" s="36"/>
     </row>
     <row r="33" spans="1:59" ht="24" customHeight="1">
-      <c r="C33" s="130"/>
+      <c r="C33" s="129"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="203"/>
-      <c r="M33" s="203"/>
-      <c r="N33" s="203"/>
-      <c r="O33" s="203"/>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="203"/>
-      <c r="R33" s="203"/>
-      <c r="S33" s="203"/>
-      <c r="T33" s="203"/>
-      <c r="U33" s="203"/>
-      <c r="V33" s="203"/>
-      <c r="W33" s="203"/>
-      <c r="X33" s="203"/>
-      <c r="Y33" s="203"/>
-      <c r="Z33" s="203"/>
-      <c r="AA33" s="203"/>
-      <c r="AB33" s="203"/>
-      <c r="AC33" s="203"/>
-      <c r="AD33" s="203"/>
-      <c r="AE33" s="203"/>
-      <c r="AF33" s="203"/>
-      <c r="AG33" s="204"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="209"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="209"/>
+      <c r="P33" s="209"/>
+      <c r="Q33" s="209"/>
+      <c r="R33" s="209"/>
+      <c r="S33" s="209"/>
+      <c r="T33" s="209"/>
+      <c r="U33" s="209"/>
+      <c r="V33" s="209"/>
+      <c r="W33" s="209"/>
+      <c r="X33" s="209"/>
+      <c r="Y33" s="209"/>
+      <c r="Z33" s="209"/>
+      <c r="AA33" s="209"/>
+      <c r="AB33" s="209"/>
+      <c r="AC33" s="209"/>
+      <c r="AD33" s="209"/>
+      <c r="AE33" s="209"/>
+      <c r="AF33" s="209"/>
+      <c r="AG33" s="210"/>
       <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
@@ -9357,34 +9376,34 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="205" t="s">
+      <c r="K35" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="206"/>
-      <c r="M35" s="206"/>
-      <c r="N35" s="207"/>
-      <c r="O35" s="193" t="s">
+      <c r="L35" s="212"/>
+      <c r="M35" s="212"/>
+      <c r="N35" s="213"/>
+      <c r="O35" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="P35" s="194"/>
-      <c r="Q35" s="194"/>
-      <c r="R35" s="194"/>
-      <c r="S35" s="194"/>
-      <c r="T35" s="194"/>
-      <c r="U35" s="194"/>
-      <c r="V35" s="194"/>
-      <c r="W35" s="195"/>
-      <c r="X35" s="193" t="s">
+      <c r="P35" s="200"/>
+      <c r="Q35" s="200"/>
+      <c r="R35" s="200"/>
+      <c r="S35" s="200"/>
+      <c r="T35" s="200"/>
+      <c r="U35" s="200"/>
+      <c r="V35" s="200"/>
+      <c r="W35" s="201"/>
+      <c r="X35" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="Y35" s="194"/>
-      <c r="Z35" s="194"/>
-      <c r="AA35" s="194"/>
-      <c r="AB35" s="194"/>
-      <c r="AC35" s="194"/>
-      <c r="AD35" s="194"/>
-      <c r="AE35" s="194"/>
-      <c r="AF35" s="195"/>
+      <c r="Y35" s="200"/>
+      <c r="Z35" s="200"/>
+      <c r="AA35" s="200"/>
+      <c r="AB35" s="200"/>
+      <c r="AC35" s="200"/>
+      <c r="AD35" s="200"/>
+      <c r="AE35" s="200"/>
+      <c r="AF35" s="201"/>
       <c r="AG35" s="69"/>
     </row>
     <row r="36" spans="1:59" ht="24" customHeight="1">
@@ -9396,40 +9415,40 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="82"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="209"/>
-      <c r="M36" s="209"/>
-      <c r="N36" s="210"/>
-      <c r="O36" s="193" t="s">
+      <c r="K36" s="214"/>
+      <c r="L36" s="215"/>
+      <c r="M36" s="215"/>
+      <c r="N36" s="216"/>
+      <c r="O36" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="P36" s="194"/>
-      <c r="Q36" s="195"/>
-      <c r="R36" s="193" t="s">
+      <c r="P36" s="200"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="S36" s="194"/>
-      <c r="T36" s="195"/>
-      <c r="U36" s="193" t="s">
+      <c r="S36" s="200"/>
+      <c r="T36" s="201"/>
+      <c r="U36" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="V36" s="194"/>
-      <c r="W36" s="195"/>
-      <c r="X36" s="193" t="s">
+      <c r="V36" s="200"/>
+      <c r="W36" s="201"/>
+      <c r="X36" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="Y36" s="194"/>
-      <c r="Z36" s="195"/>
-      <c r="AA36" s="193" t="s">
+      <c r="Y36" s="200"/>
+      <c r="Z36" s="201"/>
+      <c r="AA36" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="AB36" s="194"/>
-      <c r="AC36" s="195"/>
-      <c r="AD36" s="193" t="s">
+      <c r="AB36" s="200"/>
+      <c r="AC36" s="201"/>
+      <c r="AD36" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="AE36" s="194"/>
-      <c r="AF36" s="195"/>
+      <c r="AE36" s="200"/>
+      <c r="AF36" s="201"/>
       <c r="AG36" s="69"/>
     </row>
     <row r="37" spans="1:59" ht="24" customHeight="1">
@@ -9441,42 +9460,42 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="82"/>
-      <c r="K37" s="132" t="s">
+      <c r="K37" s="131" t="s">
         <v>107</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="190" t="s">
+      <c r="O37" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="P37" s="191"/>
-      <c r="Q37" s="192"/>
-      <c r="R37" s="190" t="s">
+      <c r="P37" s="197"/>
+      <c r="Q37" s="198"/>
+      <c r="R37" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="S37" s="191"/>
-      <c r="T37" s="192"/>
-      <c r="U37" s="190" t="s">
+      <c r="S37" s="197"/>
+      <c r="T37" s="198"/>
+      <c r="U37" s="196" t="s">
         <v>212</v>
       </c>
-      <c r="V37" s="191"/>
-      <c r="W37" s="192"/>
-      <c r="X37" s="190" t="s">
+      <c r="V37" s="197"/>
+      <c r="W37" s="198"/>
+      <c r="X37" s="196" t="s">
         <v>213</v>
       </c>
-      <c r="Y37" s="191"/>
-      <c r="Z37" s="192"/>
-      <c r="AA37" s="190" t="s">
+      <c r="Y37" s="197"/>
+      <c r="Z37" s="198"/>
+      <c r="AA37" s="196" t="s">
         <v>216</v>
       </c>
-      <c r="AB37" s="191"/>
-      <c r="AC37" s="192"/>
-      <c r="AD37" s="190" t="s">
+      <c r="AB37" s="197"/>
+      <c r="AC37" s="198"/>
+      <c r="AD37" s="196" t="s">
         <v>222</v>
       </c>
-      <c r="AE37" s="191"/>
-      <c r="AF37" s="192"/>
+      <c r="AE37" s="197"/>
+      <c r="AF37" s="198"/>
       <c r="AG37" s="69"/>
     </row>
     <row r="38" spans="1:59" ht="24" customHeight="1">
@@ -9488,42 +9507,42 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="82"/>
-      <c r="K38" s="132" t="s">
+      <c r="K38" s="131" t="s">
         <v>174</v>
       </c>
       <c r="L38" s="60"/>
       <c r="M38" s="31"/>
       <c r="N38" s="61"/>
-      <c r="O38" s="196" t="s">
+      <c r="O38" s="202" t="s">
         <v>207</v>
       </c>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="198"/>
-      <c r="R38" s="190" t="s">
+      <c r="P38" s="203"/>
+      <c r="Q38" s="204"/>
+      <c r="R38" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="S38" s="191"/>
-      <c r="T38" s="192"/>
-      <c r="U38" s="196" t="s">
+      <c r="S38" s="197"/>
+      <c r="T38" s="198"/>
+      <c r="U38" s="202" t="s">
         <v>209</v>
       </c>
-      <c r="V38" s="197"/>
-      <c r="W38" s="198"/>
-      <c r="X38" s="196" t="s">
+      <c r="V38" s="203"/>
+      <c r="W38" s="204"/>
+      <c r="X38" s="202" t="s">
         <v>214</v>
       </c>
-      <c r="Y38" s="197"/>
-      <c r="Z38" s="198"/>
-      <c r="AA38" s="196" t="s">
+      <c r="Y38" s="203"/>
+      <c r="Z38" s="204"/>
+      <c r="AA38" s="202" t="s">
         <v>217</v>
       </c>
-      <c r="AB38" s="197"/>
-      <c r="AC38" s="198"/>
-      <c r="AD38" s="190" t="s">
+      <c r="AB38" s="203"/>
+      <c r="AC38" s="204"/>
+      <c r="AD38" s="196" t="s">
         <v>221</v>
       </c>
-      <c r="AE38" s="191"/>
-      <c r="AF38" s="192"/>
+      <c r="AE38" s="197"/>
+      <c r="AF38" s="198"/>
       <c r="AG38" s="69"/>
     </row>
     <row r="39" spans="1:59" ht="24" customHeight="1">
@@ -9535,42 +9554,42 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="82"/>
-      <c r="K39" s="132" t="s">
+      <c r="K39" s="131" t="s">
         <v>175</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="196" t="s">
+      <c r="O39" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="P39" s="197"/>
-      <c r="Q39" s="198"/>
-      <c r="R39" s="190" t="s">
+      <c r="P39" s="203"/>
+      <c r="Q39" s="204"/>
+      <c r="R39" s="196" t="s">
         <v>205</v>
       </c>
-      <c r="S39" s="191"/>
-      <c r="T39" s="192"/>
-      <c r="U39" s="190" t="s">
+      <c r="S39" s="197"/>
+      <c r="T39" s="198"/>
+      <c r="U39" s="196" t="s">
         <v>206</v>
       </c>
-      <c r="V39" s="191"/>
-      <c r="W39" s="192"/>
-      <c r="X39" s="190" t="s">
+      <c r="V39" s="197"/>
+      <c r="W39" s="198"/>
+      <c r="X39" s="196" t="s">
         <v>215</v>
       </c>
-      <c r="Y39" s="191"/>
-      <c r="Z39" s="192"/>
-      <c r="AA39" s="190" t="s">
+      <c r="Y39" s="197"/>
+      <c r="Z39" s="198"/>
+      <c r="AA39" s="196" t="s">
         <v>218</v>
       </c>
-      <c r="AB39" s="191"/>
-      <c r="AC39" s="192"/>
-      <c r="AD39" s="190" t="s">
+      <c r="AB39" s="197"/>
+      <c r="AC39" s="198"/>
+      <c r="AD39" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="AE39" s="191"/>
-      <c r="AF39" s="192"/>
+      <c r="AE39" s="197"/>
+      <c r="AF39" s="198"/>
       <c r="AG39" s="47"/>
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
@@ -9608,42 +9627,42 @@
       <c r="H40" s="19"/>
       <c r="I40" s="47"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="132" t="s">
+      <c r="K40" s="131" t="s">
         <v>173</v>
       </c>
       <c r="L40" s="60"/>
       <c r="M40" s="31"/>
       <c r="N40" s="61"/>
-      <c r="O40" s="196" t="s">
+      <c r="O40" s="202" t="s">
         <v>75</v>
       </c>
-      <c r="P40" s="197"/>
-      <c r="Q40" s="198"/>
-      <c r="R40" s="196" t="s">
+      <c r="P40" s="203"/>
+      <c r="Q40" s="204"/>
+      <c r="R40" s="202" t="s">
         <v>84</v>
       </c>
-      <c r="S40" s="197"/>
-      <c r="T40" s="198"/>
-      <c r="U40" s="196" t="s">
+      <c r="S40" s="203"/>
+      <c r="T40" s="204"/>
+      <c r="U40" s="202" t="s">
         <v>203</v>
       </c>
-      <c r="V40" s="197"/>
-      <c r="W40" s="198"/>
-      <c r="X40" s="196" t="s">
+      <c r="V40" s="203"/>
+      <c r="W40" s="204"/>
+      <c r="X40" s="202" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" s="197"/>
-      <c r="Z40" s="198"/>
-      <c r="AA40" s="196" t="s">
+      <c r="Y40" s="203"/>
+      <c r="Z40" s="204"/>
+      <c r="AA40" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="AB40" s="197"/>
-      <c r="AC40" s="198"/>
-      <c r="AD40" s="196" t="s">
+      <c r="AB40" s="203"/>
+      <c r="AC40" s="204"/>
+      <c r="AD40" s="202" t="s">
         <v>219</v>
       </c>
-      <c r="AE40" s="197"/>
-      <c r="AF40" s="198"/>
+      <c r="AE40" s="203"/>
+      <c r="AF40" s="204"/>
       <c r="AG40" s="47"/>
       <c r="AH40" s="17"/>
       <c r="AI40" s="17"/>
@@ -9681,29 +9700,29 @@
       <c r="H41" s="19"/>
       <c r="I41" s="47"/>
       <c r="J41" s="44"/>
-      <c r="K41" s="185" t="s">
+      <c r="K41" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="L41" s="185"/>
-      <c r="M41" s="185"/>
-      <c r="N41" s="185"/>
-      <c r="O41" s="185"/>
-      <c r="P41" s="185"/>
-      <c r="Q41" s="185"/>
-      <c r="R41" s="185"/>
-      <c r="S41" s="185"/>
-      <c r="T41" s="185"/>
-      <c r="U41" s="185"/>
-      <c r="V41" s="185"/>
-      <c r="W41" s="185"/>
-      <c r="X41" s="185"/>
-      <c r="Y41" s="185"/>
-      <c r="Z41" s="185"/>
-      <c r="AA41" s="185"/>
-      <c r="AB41" s="185"/>
-      <c r="AC41" s="185"/>
-      <c r="AD41" s="185"/>
-      <c r="AE41" s="185"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="191"/>
+      <c r="Q41" s="191"/>
+      <c r="R41" s="191"/>
+      <c r="S41" s="191"/>
+      <c r="T41" s="191"/>
+      <c r="U41" s="191"/>
+      <c r="V41" s="191"/>
+      <c r="W41" s="191"/>
+      <c r="X41" s="191"/>
+      <c r="Y41" s="191"/>
+      <c r="Z41" s="191"/>
+      <c r="AA41" s="191"/>
+      <c r="AB41" s="191"/>
+      <c r="AC41" s="191"/>
+      <c r="AD41" s="191"/>
+      <c r="AE41" s="191"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="47"/>
       <c r="AH41" s="17"/>
@@ -9736,14 +9755,14 @@
     <row r="42" spans="1:59" ht="24" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="130"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="130"/>
+      <c r="J42" s="129"/>
       <c r="K42" s="105" t="s">
         <v>238</v>
       </c>
@@ -9828,22 +9847,22 @@
       <c r="H44" s="20"/>
       <c r="I44" s="69"/>
       <c r="J44" s="54"/>
-      <c r="K44" s="205" t="s">
+      <c r="K44" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="L44" s="206"/>
-      <c r="M44" s="206"/>
-      <c r="N44" s="207"/>
-      <c r="O44" s="193" t="s">
+      <c r="L44" s="212"/>
+      <c r="M44" s="212"/>
+      <c r="N44" s="213"/>
+      <c r="O44" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="P44" s="194"/>
-      <c r="Q44" s="195"/>
-      <c r="R44" s="193" t="s">
+      <c r="P44" s="200"/>
+      <c r="Q44" s="201"/>
+      <c r="R44" s="199" t="s">
         <v>194</v>
       </c>
-      <c r="S44" s="194"/>
-      <c r="T44" s="195"/>
+      <c r="S44" s="200"/>
+      <c r="T44" s="201"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
@@ -9867,20 +9886,20 @@
       <c r="H45" s="20"/>
       <c r="I45" s="69"/>
       <c r="J45" s="54"/>
-      <c r="K45" s="208"/>
-      <c r="L45" s="209"/>
-      <c r="M45" s="209"/>
-      <c r="N45" s="210"/>
-      <c r="O45" s="193" t="s">
+      <c r="K45" s="214"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="215"/>
+      <c r="N45" s="216"/>
+      <c r="O45" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="P45" s="194"/>
-      <c r="Q45" s="195"/>
-      <c r="R45" s="193" t="s">
+      <c r="P45" s="200"/>
+      <c r="Q45" s="201"/>
+      <c r="R45" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="S45" s="194"/>
-      <c r="T45" s="195"/>
+      <c r="S45" s="200"/>
+      <c r="T45" s="201"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
@@ -9904,22 +9923,22 @@
       <c r="H46" s="20"/>
       <c r="I46" s="69"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="132" t="s">
+      <c r="K46" s="131" t="s">
         <v>107</v>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="190" t="s">
+      <c r="O46" s="196" t="s">
         <v>225</v>
       </c>
-      <c r="P46" s="191"/>
-      <c r="Q46" s="192"/>
-      <c r="R46" s="190" t="s">
+      <c r="P46" s="197"/>
+      <c r="Q46" s="198"/>
+      <c r="R46" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="S46" s="191"/>
-      <c r="T46" s="192"/>
+      <c r="S46" s="197"/>
+      <c r="T46" s="198"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
@@ -9943,22 +9962,22 @@
       <c r="H47" s="20"/>
       <c r="I47" s="69"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="132" t="s">
+      <c r="K47" s="131" t="s">
         <v>174</v>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="190" t="s">
+      <c r="O47" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="P47" s="191"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="190" t="s">
+      <c r="P47" s="197"/>
+      <c r="Q47" s="198"/>
+      <c r="R47" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="S47" s="191"/>
-      <c r="T47" s="192"/>
+      <c r="S47" s="197"/>
+      <c r="T47" s="198"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
@@ -9982,22 +10001,22 @@
       <c r="H48" s="20"/>
       <c r="I48" s="69"/>
       <c r="J48" s="54"/>
-      <c r="K48" s="132" t="s">
+      <c r="K48" s="131" t="s">
         <v>175</v>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="190" t="s">
+      <c r="O48" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="P48" s="191"/>
-      <c r="Q48" s="192"/>
-      <c r="R48" s="190" t="s">
+      <c r="P48" s="197"/>
+      <c r="Q48" s="198"/>
+      <c r="R48" s="196" t="s">
         <v>229</v>
       </c>
-      <c r="S48" s="191"/>
-      <c r="T48" s="192"/>
+      <c r="S48" s="197"/>
+      <c r="T48" s="198"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
@@ -10021,22 +10040,22 @@
       <c r="H49" s="20"/>
       <c r="I49" s="69"/>
       <c r="J49" s="54"/>
-      <c r="K49" s="132" t="s">
+      <c r="K49" s="131" t="s">
         <v>173</v>
       </c>
       <c r="L49" s="60"/>
       <c r="M49" s="31"/>
       <c r="N49" s="61"/>
-      <c r="O49" s="196" t="s">
+      <c r="O49" s="202" t="s">
         <v>223</v>
       </c>
-      <c r="P49" s="197"/>
-      <c r="Q49" s="198"/>
-      <c r="R49" s="196" t="s">
+      <c r="P49" s="203"/>
+      <c r="Q49" s="204"/>
+      <c r="R49" s="202" t="s">
         <v>224</v>
       </c>
-      <c r="S49" s="197"/>
-      <c r="T49" s="198"/>
+      <c r="S49" s="203"/>
+      <c r="T49" s="204"/>
       <c r="U49" s="104"/>
       <c r="V49" s="20"/>
       <c r="W49" s="20"/>
@@ -10060,29 +10079,29 @@
       <c r="H50" s="20"/>
       <c r="I50" s="69"/>
       <c r="J50" s="54"/>
-      <c r="K50" s="185" t="s">
+      <c r="K50" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="185"/>
-      <c r="M50" s="185"/>
-      <c r="N50" s="185"/>
-      <c r="O50" s="185"/>
-      <c r="P50" s="185"/>
-      <c r="Q50" s="185"/>
-      <c r="R50" s="185"/>
-      <c r="S50" s="185"/>
-      <c r="T50" s="185"/>
-      <c r="U50" s="169"/>
-      <c r="V50" s="169"/>
-      <c r="W50" s="169"/>
-      <c r="X50" s="169"/>
-      <c r="Y50" s="169"/>
-      <c r="Z50" s="169"/>
-      <c r="AA50" s="169"/>
-      <c r="AB50" s="169"/>
-      <c r="AC50" s="169"/>
-      <c r="AD50" s="169"/>
-      <c r="AE50" s="169"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="191"/>
+      <c r="N50" s="191"/>
+      <c r="O50" s="191"/>
+      <c r="P50" s="191"/>
+      <c r="Q50" s="191"/>
+      <c r="R50" s="191"/>
+      <c r="S50" s="191"/>
+      <c r="T50" s="191"/>
+      <c r="U50" s="175"/>
+      <c r="V50" s="175"/>
+      <c r="W50" s="175"/>
+      <c r="X50" s="175"/>
+      <c r="Y50" s="175"/>
+      <c r="Z50" s="175"/>
+      <c r="AA50" s="175"/>
+      <c r="AB50" s="175"/>
+      <c r="AC50" s="175"/>
+      <c r="AD50" s="175"/>
+      <c r="AE50" s="175"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="69"/>
     </row>
@@ -10133,9 +10152,9 @@
       <c r="C52" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="32"/>
@@ -10333,7 +10352,7 @@
     </row>
     <row r="56" spans="1:59" ht="24" customHeight="1">
       <c r="C56" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
@@ -10396,7 +10415,7 @@
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
@@ -10459,7 +10478,7 @@
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="19"/>
@@ -10501,8 +10520,8 @@
       <c r="B59" s="16"/>
       <c r="C59" s="55"/>
       <c r="D59" s="45"/>
-      <c r="F59" s="111" t="s">
-        <v>261</v>
+      <c r="F59" s="110" t="s">
+        <v>260</v>
       </c>
       <c r="G59" s="45"/>
       <c r="H59" s="20"/>
@@ -10543,8 +10562,8 @@
       <c r="B60" s="16"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
-      <c r="F60" s="111" t="s">
-        <v>262</v>
+      <c r="F60" s="110" t="s">
+        <v>261</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
@@ -10586,8 +10605,8 @@
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
-      <c r="F61" s="111" t="s">
-        <v>263</v>
+      <c r="F61" s="110" t="s">
+        <v>262</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -10673,38 +10692,38 @@
       <c r="B63" s="16"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="136" t="s">
+      <c r="E63" s="135" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="137"/>
-      <c r="G63" s="136" t="s">
+      <c r="F63" s="136"/>
+      <c r="G63" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="137"/>
-      <c r="I63" s="136" t="s">
+      <c r="H63" s="136"/>
+      <c r="I63" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="J63" s="138"/>
-      <c r="K63" s="138"/>
-      <c r="L63" s="139"/>
-      <c r="M63" s="139"/>
-      <c r="N63" s="139"/>
-      <c r="O63" s="139"/>
-      <c r="P63" s="139"/>
-      <c r="Q63" s="139"/>
-      <c r="R63" s="139"/>
-      <c r="S63" s="139"/>
-      <c r="T63" s="139"/>
-      <c r="U63" s="139"/>
-      <c r="V63" s="139"/>
-      <c r="W63" s="140"/>
-      <c r="X63" s="140"/>
-      <c r="Y63" s="140"/>
-      <c r="Z63" s="140"/>
-      <c r="AA63" s="140"/>
-      <c r="AB63" s="140"/>
-      <c r="AC63" s="140"/>
-      <c r="AD63" s="141"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="138"/>
+      <c r="M63" s="138"/>
+      <c r="N63" s="138"/>
+      <c r="O63" s="138"/>
+      <c r="P63" s="138"/>
+      <c r="Q63" s="138"/>
+      <c r="R63" s="138"/>
+      <c r="S63" s="138"/>
+      <c r="T63" s="138"/>
+      <c r="U63" s="138"/>
+      <c r="V63" s="138"/>
+      <c r="W63" s="139"/>
+      <c r="X63" s="139"/>
+      <c r="Y63" s="139"/>
+      <c r="Z63" s="139"/>
+      <c r="AA63" s="139"/>
+      <c r="AB63" s="139"/>
+      <c r="AC63" s="139"/>
+      <c r="AD63" s="140"/>
       <c r="AE63" s="16"/>
       <c r="AF63" s="16"/>
       <c r="AG63" s="16"/>
@@ -10723,16 +10742,16 @@
       <c r="E64" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="142"/>
-      <c r="G64" s="143" t="s">
+      <c r="F64" s="141"/>
+      <c r="G64" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="142"/>
+      <c r="H64" s="141"/>
       <c r="I64" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="J64" s="144"/>
-      <c r="K64" s="144"/>
+      <c r="J64" s="143"/>
+      <c r="K64" s="143"/>
       <c r="L64" s="33"/>
       <c r="M64" s="33"/>
       <c r="N64" s="33"/>
@@ -10767,19 +10786,19 @@
       <c r="B65" s="16"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="132" t="s">
+      <c r="E65" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="145"/>
+      <c r="F65" s="144"/>
       <c r="G65" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="146"/>
+      <c r="H65" s="145"/>
       <c r="I65" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
+      <c r="J65" s="143"/>
+      <c r="K65" s="143"/>
       <c r="L65" s="59"/>
       <c r="M65" s="59"/>
       <c r="N65" s="59"/>
@@ -10817,16 +10836,16 @@
       <c r="E66" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="142"/>
-      <c r="G66" s="143" t="s">
+      <c r="F66" s="141"/>
+      <c r="G66" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="142"/>
+      <c r="H66" s="141"/>
       <c r="I66" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J66" s="144"/>
-      <c r="K66" s="144"/>
+      <c r="J66" s="143"/>
+      <c r="K66" s="143"/>
       <c r="L66" s="59"/>
       <c r="M66" s="59"/>
       <c r="N66" s="59"/>
@@ -10861,10 +10880,10 @@
       <c r="B67" s="16"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="148"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="147"/>
       <c r="I67" s="44" t="s">
         <v>32</v>
       </c>
@@ -10888,7 +10907,7 @@
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
       <c r="AC67" s="16"/>
-      <c r="AD67" s="149"/>
+      <c r="AD67" s="148"/>
       <c r="AE67" s="16"/>
       <c r="AF67" s="16"/>
       <c r="AG67" s="16"/>
@@ -10906,7 +10925,7 @@
       <c r="D68" s="17"/>
       <c r="E68" s="104"/>
       <c r="F68" s="47"/>
-      <c r="G68" s="150"/>
+      <c r="G68" s="149"/>
       <c r="H68" s="69"/>
       <c r="I68" s="44" t="s">
         <v>33</v>
@@ -10931,7 +10950,7 @@
       <c r="AA68" s="16"/>
       <c r="AB68" s="16"/>
       <c r="AC68" s="16"/>
-      <c r="AD68" s="149"/>
+      <c r="AD68" s="148"/>
       <c r="AE68" s="16"/>
       <c r="AF68" s="16"/>
       <c r="AG68" s="16"/>
@@ -10947,11 +10966,11 @@
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="151"/>
+      <c r="E69" s="150"/>
       <c r="F69" s="103"/>
-      <c r="G69" s="152"/>
+      <c r="G69" s="151"/>
       <c r="H69" s="49"/>
-      <c r="I69" s="130" t="s">
+      <c r="I69" s="129" t="s">
         <v>90</v>
       </c>
       <c r="J69" s="48"/>
@@ -11036,7 +11055,7 @@
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -11079,7 +11098,7 @@
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -11341,7 +11360,7 @@
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -11384,7 +11403,7 @@
       <c r="C79" s="17"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -11427,7 +11446,7 @@
       <c r="C80" s="17"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="20"/>
@@ -11469,8 +11488,8 @@
       <c r="B81" s="16"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="112" t="s">
-        <v>267</v>
+      <c r="E81" s="111" t="s">
+        <v>266</v>
       </c>
       <c r="F81" s="19"/>
       <c r="H81" s="19"/>
@@ -11981,7 +12000,7 @@
         <v>138</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
@@ -12022,8 +12041,8 @@
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="112" t="s">
-        <v>269</v>
+      <c r="E94" s="111" t="s">
+        <v>268</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="20"/>
@@ -12418,7 +12437,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -12434,910 +12453,915 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="12" customHeight="1">
-      <c r="X3" s="211" t="s">
+      <c r="X3" s="217" t="s">
         <v>232</v>
       </c>
-      <c r="Y3" s="211"/>
-      <c r="Z3" s="211"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="211" t="s">
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="217"/>
+      <c r="AB3" s="217" t="s">
         <v>234</v>
       </c>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="211"/>
-      <c r="AE3" s="211"/>
+      <c r="AC3" s="217"/>
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="217"/>
     </row>
     <row r="4" spans="1:38" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="160" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="234" t="s">
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156" t="s">
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="218" t="s">
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="162"/>
+      <c r="U4" s="162"/>
+      <c r="V4" s="162"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="Y4" s="219"/>
-      <c r="Z4" s="218" t="s">
+      <c r="Y4" s="225"/>
+      <c r="Z4" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="219"/>
-      <c r="AB4" s="218" t="s">
+      <c r="AA4" s="225"/>
+      <c r="AB4" s="224" t="s">
         <v>244</v>
       </c>
-      <c r="AC4" s="219"/>
-      <c r="AD4" s="218" t="s">
+      <c r="AC4" s="225"/>
+      <c r="AD4" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="AE4" s="219"/>
-      <c r="AF4" s="160" t="s">
+      <c r="AE4" s="225"/>
+      <c r="AF4" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="159"/>
+      <c r="AG4" s="164"/>
+      <c r="AH4" s="165"/>
       <c r="AI4" s="109"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="109"/>
     </row>
     <row r="5" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B5" s="235" t="s">
+      <c r="B5" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="224" t="s">
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
-      <c r="H5" s="225"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="236" t="s">
+      <c r="F5" s="231"/>
+      <c r="G5" s="231"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="242" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="236"/>
-      <c r="L5" s="236"/>
-      <c r="M5" s="236"/>
-      <c r="N5" s="175" t="s">
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
-      <c r="W5" s="175"/>
-      <c r="X5" s="220">
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="226">
         <v>2</v>
       </c>
-      <c r="Y5" s="221"/>
-      <c r="Z5" s="227">
+      <c r="Y5" s="227"/>
+      <c r="Z5" s="233">
         <v>1500000</v>
       </c>
-      <c r="AA5" s="228"/>
-      <c r="AB5" s="220">
+      <c r="AA5" s="234"/>
+      <c r="AB5" s="226">
         <v>3</v>
       </c>
-      <c r="AC5" s="221"/>
-      <c r="AD5" s="227">
+      <c r="AC5" s="227"/>
+      <c r="AD5" s="233">
         <v>2250000</v>
       </c>
-      <c r="AE5" s="228"/>
+      <c r="AE5" s="234"/>
       <c r="AF5" s="92"/>
       <c r="AG5" s="93"/>
-      <c r="AH5" s="93"/>
-      <c r="AI5" s="100"/>
+      <c r="AH5" s="294"/>
+      <c r="AI5" s="158"/>
       <c r="AJ5" s="101"/>
       <c r="AK5" s="101"/>
       <c r="AL5" s="101"/>
     </row>
     <row r="6" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B6" s="231" t="s">
+      <c r="B6" s="237" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="237" t="s">
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="243" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="232" t="s">
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="244"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="232"/>
-      <c r="L6" s="232"/>
-      <c r="M6" s="232"/>
-      <c r="N6" s="233" t="s">
+      <c r="K6" s="238"/>
+      <c r="L6" s="238"/>
+      <c r="M6" s="238"/>
+      <c r="N6" s="239" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="233"/>
-      <c r="P6" s="233"/>
-      <c r="Q6" s="233"/>
-      <c r="R6" s="233"/>
-      <c r="S6" s="233"/>
-      <c r="T6" s="233"/>
-      <c r="U6" s="233"/>
-      <c r="V6" s="233"/>
-      <c r="W6" s="233"/>
-      <c r="X6" s="222">
+      <c r="O6" s="239"/>
+      <c r="P6" s="239"/>
+      <c r="Q6" s="239"/>
+      <c r="R6" s="239"/>
+      <c r="S6" s="239"/>
+      <c r="T6" s="239"/>
+      <c r="U6" s="239"/>
+      <c r="V6" s="239"/>
+      <c r="W6" s="239"/>
+      <c r="X6" s="228">
         <v>1</v>
       </c>
-      <c r="Y6" s="223"/>
-      <c r="Z6" s="229">
+      <c r="Y6" s="229"/>
+      <c r="Z6" s="235">
         <v>500000</v>
       </c>
-      <c r="AA6" s="230"/>
-      <c r="AB6" s="222">
+      <c r="AA6" s="236"/>
+      <c r="AB6" s="228">
         <v>1</v>
       </c>
-      <c r="AC6" s="223"/>
-      <c r="AD6" s="229">
+      <c r="AC6" s="229"/>
+      <c r="AD6" s="235">
         <v>500000</v>
       </c>
-      <c r="AE6" s="230"/>
-      <c r="AF6" s="89"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="100"/>
+      <c r="AE6" s="236"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="153"/>
+      <c r="AH6" s="154"/>
+      <c r="AI6" s="158"/>
       <c r="AJ6" s="101"/>
       <c r="AK6" s="101"/>
       <c r="AL6" s="101"/>
     </row>
     <row r="7" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B7" s="231" t="s">
+      <c r="B7" s="237" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="237" t="s">
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="243" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="232" t="s">
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="232"/>
-      <c r="L7" s="232"/>
-      <c r="M7" s="232"/>
-      <c r="N7" s="233" t="s">
+      <c r="K7" s="238"/>
+      <c r="L7" s="238"/>
+      <c r="M7" s="238"/>
+      <c r="N7" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="O7" s="233"/>
-      <c r="P7" s="233"/>
-      <c r="Q7" s="233"/>
-      <c r="R7" s="233"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="233"/>
-      <c r="W7" s="233"/>
-      <c r="X7" s="222">
+      <c r="O7" s="239"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="239"/>
+      <c r="U7" s="239"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="228">
         <v>50</v>
       </c>
-      <c r="Y7" s="223"/>
-      <c r="Z7" s="212">
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="218">
         <v>30000</v>
       </c>
-      <c r="AA7" s="213"/>
-      <c r="AB7" s="222">
+      <c r="AA7" s="219"/>
+      <c r="AB7" s="228">
         <v>80</v>
       </c>
-      <c r="AC7" s="223"/>
-      <c r="AD7" s="212">
+      <c r="AC7" s="229"/>
+      <c r="AD7" s="218">
         <v>76800</v>
       </c>
-      <c r="AE7" s="213"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="100"/>
+      <c r="AE7" s="219"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="153"/>
+      <c r="AH7" s="154"/>
+      <c r="AI7" s="158"/>
       <c r="AJ7" s="101"/>
       <c r="AK7" s="101"/>
       <c r="AL7" s="101"/>
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="237" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="237" t="s">
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="232" t="s">
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="245"/>
+      <c r="J8" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="232"/>
-      <c r="L8" s="232"/>
-      <c r="M8" s="232"/>
-      <c r="N8" s="233" t="s">
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
+      <c r="M8" s="238"/>
+      <c r="N8" s="239" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="233"/>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="233"/>
-      <c r="R8" s="233"/>
-      <c r="S8" s="233"/>
-      <c r="T8" s="233"/>
-      <c r="U8" s="233"/>
-      <c r="V8" s="233"/>
-      <c r="W8" s="233"/>
-      <c r="X8" s="222">
+      <c r="O8" s="239"/>
+      <c r="P8" s="239"/>
+      <c r="Q8" s="239"/>
+      <c r="R8" s="239"/>
+      <c r="S8" s="239"/>
+      <c r="T8" s="239"/>
+      <c r="U8" s="239"/>
+      <c r="V8" s="239"/>
+      <c r="W8" s="239"/>
+      <c r="X8" s="228">
         <v>150</v>
       </c>
-      <c r="Y8" s="223"/>
-      <c r="Z8" s="212">
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="218">
         <v>2500000</v>
       </c>
-      <c r="AA8" s="213"/>
-      <c r="AB8" s="222">
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="228">
         <v>342</v>
       </c>
-      <c r="AC8" s="223"/>
-      <c r="AD8" s="212">
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="218">
         <v>6750000</v>
       </c>
-      <c r="AE8" s="213"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="100"/>
+      <c r="AE8" s="219"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="153"/>
+      <c r="AH8" s="154"/>
+      <c r="AI8" s="158"/>
       <c r="AJ8" s="101"/>
       <c r="AK8" s="101"/>
       <c r="AL8" s="101"/>
     </row>
     <row r="9" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B9" s="231" t="s">
+      <c r="B9" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="237" t="s">
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="232" t="s">
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="232"/>
-      <c r="L9" s="232"/>
-      <c r="M9" s="232"/>
-      <c r="N9" s="233" t="s">
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="239" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="233"/>
-      <c r="P9" s="233"/>
-      <c r="Q9" s="233"/>
-      <c r="R9" s="233"/>
-      <c r="S9" s="233"/>
-      <c r="T9" s="233"/>
-      <c r="U9" s="233"/>
-      <c r="V9" s="233"/>
-      <c r="W9" s="233"/>
-      <c r="X9" s="214" t="s">
+      <c r="O9" s="239"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="239"/>
+      <c r="R9" s="239"/>
+      <c r="S9" s="239"/>
+      <c r="T9" s="239"/>
+      <c r="U9" s="239"/>
+      <c r="V9" s="239"/>
+      <c r="W9" s="239"/>
+      <c r="X9" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="215"/>
-      <c r="Z9" s="214" t="s">
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="215"/>
-      <c r="AB9" s="214" t="s">
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="215"/>
-      <c r="AD9" s="214" t="s">
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="220" t="s">
         <v>233</v>
       </c>
-      <c r="AE9" s="215"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="100"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="152"/>
+      <c r="AG9" s="153"/>
+      <c r="AH9" s="154"/>
+      <c r="AI9" s="158"/>
       <c r="AJ9" s="101"/>
       <c r="AK9" s="101"/>
       <c r="AL9" s="101"/>
     </row>
     <row r="10" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B10" s="231"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="237"/>
-      <c r="F10" s="238"/>
-      <c r="G10" s="238"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="232"/>
-      <c r="L10" s="232"/>
-      <c r="M10" s="232"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="233"/>
-      <c r="R10" s="233"/>
-      <c r="S10" s="233"/>
-      <c r="T10" s="233"/>
-      <c r="U10" s="233"/>
-      <c r="V10" s="233"/>
-      <c r="W10" s="233"/>
-      <c r="X10" s="214"/>
-      <c r="Y10" s="215"/>
-      <c r="Z10" s="214"/>
-      <c r="AA10" s="215"/>
-      <c r="AB10" s="214"/>
-      <c r="AC10" s="215"/>
-      <c r="AD10" s="214"/>
-      <c r="AE10" s="215"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="100"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="245"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="239"/>
+      <c r="P10" s="239"/>
+      <c r="Q10" s="239"/>
+      <c r="R10" s="239"/>
+      <c r="S10" s="239"/>
+      <c r="T10" s="239"/>
+      <c r="U10" s="239"/>
+      <c r="V10" s="239"/>
+      <c r="W10" s="239"/>
+      <c r="X10" s="220"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="220"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="220"/>
+      <c r="AE10" s="221"/>
+      <c r="AF10" s="152"/>
+      <c r="AG10" s="153"/>
+      <c r="AH10" s="154"/>
+      <c r="AI10" s="158"/>
       <c r="AJ10" s="101"/>
       <c r="AK10" s="101"/>
       <c r="AL10" s="101"/>
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B11" s="231"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="232"/>
-      <c r="M11" s="232"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="233"/>
-      <c r="P11" s="233"/>
-      <c r="Q11" s="233"/>
-      <c r="R11" s="233"/>
-      <c r="S11" s="233"/>
-      <c r="T11" s="233"/>
-      <c r="U11" s="233"/>
-      <c r="V11" s="233"/>
-      <c r="W11" s="233"/>
-      <c r="X11" s="214"/>
-      <c r="Y11" s="215"/>
-      <c r="Z11" s="214"/>
-      <c r="AA11" s="215"/>
-      <c r="AB11" s="214"/>
-      <c r="AC11" s="215"/>
-      <c r="AD11" s="214"/>
-      <c r="AE11" s="215"/>
-      <c r="AF11" s="89"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="100"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="245"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="239"/>
+      <c r="O11" s="239"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="239"/>
+      <c r="R11" s="239"/>
+      <c r="S11" s="239"/>
+      <c r="T11" s="239"/>
+      <c r="U11" s="239"/>
+      <c r="V11" s="239"/>
+      <c r="W11" s="239"/>
+      <c r="X11" s="220"/>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="220"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="220"/>
+      <c r="AC11" s="221"/>
+      <c r="AD11" s="220"/>
+      <c r="AE11" s="221"/>
+      <c r="AF11" s="152"/>
+      <c r="AG11" s="153"/>
+      <c r="AH11" s="154"/>
+      <c r="AI11" s="158"/>
       <c r="AJ11" s="101"/>
       <c r="AK11" s="101"/>
       <c r="AL11" s="101"/>
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B12" s="231"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="238"/>
-      <c r="G12" s="238"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="232"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="233"/>
-      <c r="O12" s="233"/>
-      <c r="P12" s="233"/>
-      <c r="Q12" s="233"/>
-      <c r="R12" s="233"/>
-      <c r="S12" s="233"/>
-      <c r="T12" s="233"/>
-      <c r="U12" s="233"/>
-      <c r="V12" s="233"/>
-      <c r="W12" s="233"/>
-      <c r="X12" s="214"/>
-      <c r="Y12" s="215"/>
-      <c r="Z12" s="214"/>
-      <c r="AA12" s="215"/>
-      <c r="AB12" s="214"/>
-      <c r="AC12" s="215"/>
-      <c r="AD12" s="214"/>
-      <c r="AE12" s="215"/>
-      <c r="AF12" s="89"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="100"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="243"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="245"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="239"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="239"/>
+      <c r="R12" s="239"/>
+      <c r="S12" s="239"/>
+      <c r="T12" s="239"/>
+      <c r="U12" s="239"/>
+      <c r="V12" s="239"/>
+      <c r="W12" s="239"/>
+      <c r="X12" s="220"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="220"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="220"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="220"/>
+      <c r="AE12" s="221"/>
+      <c r="AF12" s="152"/>
+      <c r="AG12" s="153"/>
+      <c r="AH12" s="154"/>
+      <c r="AI12" s="158"/>
       <c r="AJ12" s="101"/>
       <c r="AK12" s="101"/>
       <c r="AL12" s="101"/>
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B13" s="231"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="232"/>
-      <c r="L13" s="232"/>
-      <c r="M13" s="232"/>
-      <c r="N13" s="233"/>
-      <c r="O13" s="233"/>
-      <c r="P13" s="233"/>
-      <c r="Q13" s="233"/>
-      <c r="R13" s="233"/>
-      <c r="S13" s="233"/>
-      <c r="T13" s="233"/>
-      <c r="U13" s="233"/>
-      <c r="V13" s="233"/>
-      <c r="W13" s="233"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="215"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="215"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="215"/>
-      <c r="AD13" s="214"/>
-      <c r="AE13" s="215"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="100"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="244"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="245"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="239"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="239"/>
+      <c r="R13" s="239"/>
+      <c r="S13" s="239"/>
+      <c r="T13" s="239"/>
+      <c r="U13" s="239"/>
+      <c r="V13" s="239"/>
+      <c r="W13" s="239"/>
+      <c r="X13" s="220"/>
+      <c r="Y13" s="221"/>
+      <c r="Z13" s="220"/>
+      <c r="AA13" s="221"/>
+      <c r="AB13" s="220"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="220"/>
+      <c r="AE13" s="221"/>
+      <c r="AF13" s="152"/>
+      <c r="AG13" s="153"/>
+      <c r="AH13" s="154"/>
+      <c r="AI13" s="158"/>
       <c r="AJ13" s="101"/>
       <c r="AK13" s="101"/>
       <c r="AL13" s="101"/>
     </row>
     <row r="14" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B14" s="231"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="238"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="232"/>
-      <c r="M14" s="232"/>
-      <c r="N14" s="233"/>
-      <c r="O14" s="233"/>
-      <c r="P14" s="233"/>
-      <c r="Q14" s="233"/>
-      <c r="R14" s="233"/>
-      <c r="S14" s="233"/>
-      <c r="T14" s="233"/>
-      <c r="U14" s="233"/>
-      <c r="V14" s="233"/>
-      <c r="W14" s="233"/>
-      <c r="X14" s="214"/>
-      <c r="Y14" s="215"/>
-      <c r="Z14" s="214"/>
-      <c r="AA14" s="215"/>
-      <c r="AB14" s="214"/>
-      <c r="AC14" s="215"/>
-      <c r="AD14" s="214"/>
-      <c r="AE14" s="215"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="100"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="245"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="239"/>
+      <c r="O14" s="239"/>
+      <c r="P14" s="239"/>
+      <c r="Q14" s="239"/>
+      <c r="R14" s="239"/>
+      <c r="S14" s="239"/>
+      <c r="T14" s="239"/>
+      <c r="U14" s="239"/>
+      <c r="V14" s="239"/>
+      <c r="W14" s="239"/>
+      <c r="X14" s="220"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="220"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="220"/>
+      <c r="AC14" s="221"/>
+      <c r="AD14" s="220"/>
+      <c r="AE14" s="221"/>
+      <c r="AF14" s="152"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="154"/>
+      <c r="AI14" s="158"/>
       <c r="AJ14" s="101"/>
       <c r="AK14" s="101"/>
       <c r="AL14" s="101"/>
     </row>
     <row r="15" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B15" s="231"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="232"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="238"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="232"/>
-      <c r="K15" s="232"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="232"/>
-      <c r="N15" s="233"/>
-      <c r="O15" s="233"/>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="233"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="233"/>
-      <c r="U15" s="233"/>
-      <c r="V15" s="233"/>
-      <c r="W15" s="233"/>
-      <c r="X15" s="214"/>
-      <c r="Y15" s="215"/>
-      <c r="Z15" s="214"/>
-      <c r="AA15" s="215"/>
-      <c r="AB15" s="214"/>
-      <c r="AC15" s="215"/>
-      <c r="AD15" s="214"/>
-      <c r="AE15" s="215"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="100"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="239"/>
+      <c r="O15" s="239"/>
+      <c r="P15" s="239"/>
+      <c r="Q15" s="239"/>
+      <c r="R15" s="239"/>
+      <c r="S15" s="239"/>
+      <c r="T15" s="239"/>
+      <c r="U15" s="239"/>
+      <c r="V15" s="239"/>
+      <c r="W15" s="239"/>
+      <c r="X15" s="220"/>
+      <c r="Y15" s="221"/>
+      <c r="Z15" s="220"/>
+      <c r="AA15" s="221"/>
+      <c r="AB15" s="220"/>
+      <c r="AC15" s="221"/>
+      <c r="AD15" s="220"/>
+      <c r="AE15" s="221"/>
+      <c r="AF15" s="152"/>
+      <c r="AG15" s="153"/>
+      <c r="AH15" s="154"/>
+      <c r="AI15" s="158"/>
       <c r="AJ15" s="101"/>
       <c r="AK15" s="101"/>
       <c r="AL15" s="101"/>
     </row>
     <row r="16" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B16" s="231"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="232"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="239"/>
-      <c r="J16" s="232"/>
-      <c r="K16" s="232"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="232"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="233"/>
-      <c r="P16" s="233"/>
-      <c r="Q16" s="233"/>
-      <c r="R16" s="233"/>
-      <c r="S16" s="233"/>
-      <c r="T16" s="233"/>
-      <c r="U16" s="233"/>
-      <c r="V16" s="233"/>
-      <c r="W16" s="233"/>
-      <c r="X16" s="214"/>
-      <c r="Y16" s="215"/>
-      <c r="Z16" s="214"/>
-      <c r="AA16" s="215"/>
-      <c r="AB16" s="214"/>
-      <c r="AC16" s="215"/>
-      <c r="AD16" s="214"/>
-      <c r="AE16" s="215"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="100"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="243"/>
+      <c r="F16" s="244"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="239"/>
+      <c r="O16" s="239"/>
+      <c r="P16" s="239"/>
+      <c r="Q16" s="239"/>
+      <c r="R16" s="239"/>
+      <c r="S16" s="239"/>
+      <c r="T16" s="239"/>
+      <c r="U16" s="239"/>
+      <c r="V16" s="239"/>
+      <c r="W16" s="239"/>
+      <c r="X16" s="220"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="220"/>
+      <c r="AA16" s="221"/>
+      <c r="AB16" s="220"/>
+      <c r="AC16" s="221"/>
+      <c r="AD16" s="220"/>
+      <c r="AE16" s="221"/>
+      <c r="AF16" s="152"/>
+      <c r="AG16" s="153"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="158"/>
       <c r="AJ16" s="101"/>
       <c r="AK16" s="101"/>
       <c r="AL16" s="101"/>
     </row>
     <row r="17" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B17" s="231"/>
-      <c r="C17" s="232"/>
-      <c r="D17" s="232"/>
-      <c r="E17" s="237"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="239"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="232"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="233"/>
-      <c r="O17" s="233"/>
-      <c r="P17" s="233"/>
-      <c r="Q17" s="233"/>
-      <c r="R17" s="233"/>
-      <c r="S17" s="233"/>
-      <c r="T17" s="233"/>
-      <c r="U17" s="233"/>
-      <c r="V17" s="233"/>
-      <c r="W17" s="233"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="215"/>
-      <c r="Z17" s="214"/>
-      <c r="AA17" s="215"/>
-      <c r="AB17" s="214"/>
-      <c r="AC17" s="215"/>
-      <c r="AD17" s="214"/>
-      <c r="AE17" s="215"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="100"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="243"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="239"/>
+      <c r="O17" s="239"/>
+      <c r="P17" s="239"/>
+      <c r="Q17" s="239"/>
+      <c r="R17" s="239"/>
+      <c r="S17" s="239"/>
+      <c r="T17" s="239"/>
+      <c r="U17" s="239"/>
+      <c r="V17" s="239"/>
+      <c r="W17" s="239"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="220"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="220"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="220"/>
+      <c r="AE17" s="221"/>
+      <c r="AF17" s="152"/>
+      <c r="AG17" s="153"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="158"/>
       <c r="AJ17" s="101"/>
       <c r="AK17" s="101"/>
       <c r="AL17" s="101"/>
     </row>
     <row r="18" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B18" s="231"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="237"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="238"/>
-      <c r="H18" s="238"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="232"/>
-      <c r="K18" s="232"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="232"/>
-      <c r="N18" s="233"/>
-      <c r="O18" s="233"/>
-      <c r="P18" s="233"/>
-      <c r="Q18" s="233"/>
-      <c r="R18" s="233"/>
-      <c r="S18" s="233"/>
-      <c r="T18" s="233"/>
-      <c r="U18" s="233"/>
-      <c r="V18" s="233"/>
-      <c r="W18" s="233"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="215"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="215"/>
-      <c r="AB18" s="214"/>
-      <c r="AC18" s="215"/>
-      <c r="AD18" s="214"/>
-      <c r="AE18" s="215"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="100"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="239"/>
+      <c r="O18" s="239"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="239"/>
+      <c r="R18" s="239"/>
+      <c r="S18" s="239"/>
+      <c r="T18" s="239"/>
+      <c r="U18" s="239"/>
+      <c r="V18" s="239"/>
+      <c r="W18" s="239"/>
+      <c r="X18" s="220"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="220"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="220"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="220"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="152"/>
+      <c r="AG18" s="153"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="158"/>
       <c r="AJ18" s="101"/>
       <c r="AK18" s="101"/>
       <c r="AL18" s="101"/>
     </row>
     <row r="19" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B19" s="231"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="232"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="239"/>
-      <c r="J19" s="232"/>
-      <c r="K19" s="232"/>
-      <c r="L19" s="232"/>
-      <c r="M19" s="232"/>
-      <c r="N19" s="233"/>
-      <c r="O19" s="233"/>
-      <c r="P19" s="233"/>
-      <c r="Q19" s="233"/>
-      <c r="R19" s="233"/>
-      <c r="S19" s="233"/>
-      <c r="T19" s="233"/>
-      <c r="U19" s="233"/>
-      <c r="V19" s="233"/>
-      <c r="W19" s="233"/>
-      <c r="X19" s="214"/>
-      <c r="Y19" s="215"/>
-      <c r="Z19" s="214"/>
-      <c r="AA19" s="215"/>
-      <c r="AB19" s="214"/>
-      <c r="AC19" s="215"/>
-      <c r="AD19" s="214"/>
-      <c r="AE19" s="215"/>
-      <c r="AF19" s="89"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="100"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="243"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="245"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="239"/>
+      <c r="P19" s="239"/>
+      <c r="Q19" s="239"/>
+      <c r="R19" s="239"/>
+      <c r="S19" s="239"/>
+      <c r="T19" s="239"/>
+      <c r="U19" s="239"/>
+      <c r="V19" s="239"/>
+      <c r="W19" s="239"/>
+      <c r="X19" s="220"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="220"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="220"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="220"/>
+      <c r="AE19" s="221"/>
+      <c r="AF19" s="152"/>
+      <c r="AG19" s="153"/>
+      <c r="AH19" s="154"/>
+      <c r="AI19" s="158"/>
       <c r="AJ19" s="101"/>
       <c r="AK19" s="101"/>
       <c r="AL19" s="101"/>
     </row>
     <row r="20" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B20" s="231"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="232"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="238"/>
-      <c r="G20" s="238"/>
-      <c r="H20" s="238"/>
-      <c r="I20" s="239"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="233"/>
-      <c r="O20" s="233"/>
-      <c r="P20" s="233"/>
-      <c r="Q20" s="233"/>
-      <c r="R20" s="233"/>
-      <c r="S20" s="233"/>
-      <c r="T20" s="233"/>
-      <c r="U20" s="233"/>
-      <c r="V20" s="233"/>
-      <c r="W20" s="233"/>
-      <c r="X20" s="214"/>
-      <c r="Y20" s="215"/>
-      <c r="Z20" s="214"/>
-      <c r="AA20" s="215"/>
-      <c r="AB20" s="214"/>
-      <c r="AC20" s="215"/>
-      <c r="AD20" s="214"/>
-      <c r="AE20" s="215"/>
-      <c r="AF20" s="89"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="100"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="243"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="239"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="239"/>
+      <c r="T20" s="239"/>
+      <c r="U20" s="239"/>
+      <c r="V20" s="239"/>
+      <c r="W20" s="239"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="221"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="221"/>
+      <c r="AF20" s="152"/>
+      <c r="AG20" s="153"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="158"/>
       <c r="AJ20" s="101"/>
       <c r="AK20" s="101"/>
       <c r="AL20" s="101"/>
     </row>
     <row r="21" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B21" s="231"/>
-      <c r="C21" s="232"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="237"/>
-      <c r="F21" s="238"/>
-      <c r="G21" s="238"/>
-      <c r="H21" s="238"/>
-      <c r="I21" s="239"/>
-      <c r="J21" s="232"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="232"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="233"/>
-      <c r="R21" s="233"/>
-      <c r="S21" s="233"/>
-      <c r="T21" s="233"/>
-      <c r="U21" s="233"/>
-      <c r="V21" s="233"/>
-      <c r="W21" s="233"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="215"/>
-      <c r="Z21" s="214"/>
-      <c r="AA21" s="215"/>
-      <c r="AB21" s="214"/>
-      <c r="AC21" s="215"/>
-      <c r="AD21" s="214"/>
-      <c r="AE21" s="215"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="100"/>
+      <c r="B21" s="237"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="245"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="239"/>
+      <c r="O21" s="239"/>
+      <c r="P21" s="239"/>
+      <c r="Q21" s="239"/>
+      <c r="R21" s="239"/>
+      <c r="S21" s="239"/>
+      <c r="T21" s="239"/>
+      <c r="U21" s="239"/>
+      <c r="V21" s="239"/>
+      <c r="W21" s="239"/>
+      <c r="X21" s="220"/>
+      <c r="Y21" s="221"/>
+      <c r="Z21" s="220"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="220"/>
+      <c r="AC21" s="221"/>
+      <c r="AD21" s="220"/>
+      <c r="AE21" s="221"/>
+      <c r="AF21" s="152"/>
+      <c r="AG21" s="153"/>
+      <c r="AH21" s="154"/>
+      <c r="AI21" s="158"/>
       <c r="AJ21" s="101"/>
       <c r="AK21" s="101"/>
       <c r="AL21" s="101"/>
     </row>
     <row r="22" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B22" s="242"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="246"/>
-      <c r="G22" s="246"/>
-      <c r="H22" s="246"/>
-      <c r="I22" s="247"/>
-      <c r="J22" s="243"/>
-      <c r="K22" s="243"/>
-      <c r="L22" s="243"/>
-      <c r="M22" s="243"/>
-      <c r="N22" s="244"/>
-      <c r="O22" s="244"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="244"/>
-      <c r="U22" s="244"/>
-      <c r="V22" s="244"/>
-      <c r="W22" s="244"/>
-      <c r="X22" s="216"/>
-      <c r="Y22" s="217"/>
-      <c r="Z22" s="216"/>
-      <c r="AA22" s="217"/>
-      <c r="AB22" s="216"/>
-      <c r="AC22" s="217"/>
-      <c r="AD22" s="216"/>
-      <c r="AE22" s="217"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="251"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
+      <c r="H22" s="252"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="249"/>
+      <c r="K22" s="249"/>
+      <c r="L22" s="249"/>
+      <c r="M22" s="249"/>
+      <c r="N22" s="250"/>
+      <c r="O22" s="250"/>
+      <c r="P22" s="250"/>
+      <c r="Q22" s="250"/>
+      <c r="R22" s="250"/>
+      <c r="S22" s="250"/>
+      <c r="T22" s="250"/>
+      <c r="U22" s="250"/>
+      <c r="V22" s="250"/>
+      <c r="W22" s="250"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="223"/>
+      <c r="Z22" s="222"/>
+      <c r="AA22" s="223"/>
+      <c r="AB22" s="222"/>
+      <c r="AC22" s="223"/>
+      <c r="AD22" s="222"/>
+      <c r="AE22" s="223"/>
       <c r="AF22" s="107"/>
       <c r="AG22" s="108"/>
-      <c r="AH22" s="108"/>
-      <c r="AI22" s="100"/>
+      <c r="AH22" s="295"/>
+      <c r="AI22" s="158"/>
       <c r="AJ22" s="101"/>
       <c r="AK22" s="101"/>
       <c r="AL22" s="101"/>
     </row>
     <row r="23" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B23" s="235" t="s">
+      <c r="B23" s="241" t="s">
         <v>231</v>
       </c>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="236"/>
-      <c r="L23" s="236"/>
-      <c r="M23" s="236"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="175"/>
-      <c r="U23" s="175"/>
-      <c r="V23" s="175"/>
-      <c r="W23" s="175"/>
-      <c r="X23" s="240">
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="255"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="181"/>
+      <c r="X23" s="246">
         <f>SUM(X5:Y8)</f>
         <v>203</v>
       </c>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="251">
+      <c r="Y23" s="247"/>
+      <c r="Z23" s="257">
         <f>SUM(Z5:AA8)</f>
         <v>4530000</v>
       </c>
-      <c r="AA23" s="252"/>
-      <c r="AB23" s="240">
+      <c r="AA23" s="258"/>
+      <c r="AB23" s="246">
         <f>SUM(AB5:AC8)</f>
         <v>426</v>
       </c>
-      <c r="AC23" s="253"/>
-      <c r="AD23" s="251">
+      <c r="AC23" s="259"/>
+      <c r="AD23" s="257">
         <f>SUM(AD5:AE8)</f>
         <v>9576800</v>
       </c>
-      <c r="AE23" s="252"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="100"/>
+      <c r="AE23" s="258"/>
+      <c r="AF23" s="155"/>
+      <c r="AG23" s="156"/>
+      <c r="AH23" s="157"/>
+      <c r="AI23" s="158"/>
       <c r="AJ23" s="101"/>
       <c r="AK23" s="101"/>
       <c r="AL23" s="101"/>
+    </row>
+    <row r="24" spans="2:38" ht="12" customHeight="1">
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="163">
@@ -13533,303 +13557,303 @@
     </row>
     <row r="3" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="263" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257" t="s">
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="257"/>
-      <c r="H4" s="257"/>
-      <c r="I4" s="257"/>
-      <c r="J4" s="257"/>
-      <c r="K4" s="257" t="s">
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="257"/>
-      <c r="M4" s="257"/>
-      <c r="N4" s="257"/>
-      <c r="O4" s="257"/>
-      <c r="P4" s="257"/>
-      <c r="Q4" s="258" t="s">
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="264" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="257"/>
-      <c r="S4" s="259" t="s">
+      <c r="R4" s="263"/>
+      <c r="S4" s="265" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="260"/>
-      <c r="U4" s="260"/>
-      <c r="V4" s="260"/>
-      <c r="W4" s="260"/>
-      <c r="X4" s="260"/>
-      <c r="Y4" s="260"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="260"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="260"/>
-      <c r="AD4" s="260"/>
-      <c r="AE4" s="260"/>
-      <c r="AF4" s="263" t="s">
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="266"/>
+      <c r="X4" s="266"/>
+      <c r="Y4" s="266"/>
+      <c r="Z4" s="266"/>
+      <c r="AA4" s="266"/>
+      <c r="AB4" s="266"/>
+      <c r="AC4" s="266"/>
+      <c r="AD4" s="266"/>
+      <c r="AE4" s="266"/>
+      <c r="AF4" s="269" t="s">
         <v>139</v>
       </c>
-      <c r="AG4" s="264"/>
-      <c r="AH4" s="265"/>
+      <c r="AG4" s="270"/>
+      <c r="AH4" s="271"/>
     </row>
     <row r="5" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="156" t="s">
+      <c r="G5" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
       <c r="K5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="156" t="s">
+      <c r="L5" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="261"/>
-      <c r="T5" s="262"/>
-      <c r="U5" s="262"/>
-      <c r="V5" s="262"/>
-      <c r="W5" s="262"/>
-      <c r="X5" s="262"/>
-      <c r="Y5" s="262"/>
-      <c r="Z5" s="262"/>
-      <c r="AA5" s="262"/>
-      <c r="AB5" s="262"/>
-      <c r="AC5" s="262"/>
-      <c r="AD5" s="262"/>
-      <c r="AE5" s="262"/>
-      <c r="AF5" s="266"/>
-      <c r="AG5" s="267"/>
-      <c r="AH5" s="268"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="267"/>
+      <c r="T5" s="268"/>
+      <c r="U5" s="268"/>
+      <c r="V5" s="268"/>
+      <c r="W5" s="268"/>
+      <c r="X5" s="268"/>
+      <c r="Y5" s="268"/>
+      <c r="Z5" s="268"/>
+      <c r="AA5" s="268"/>
+      <c r="AB5" s="268"/>
+      <c r="AC5" s="268"/>
+      <c r="AD5" s="268"/>
+      <c r="AE5" s="268"/>
+      <c r="AF5" s="272"/>
+      <c r="AG5" s="273"/>
+      <c r="AH5" s="274"/>
     </row>
     <row r="6" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" thickTop="1">
       <c r="A6" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="275" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="271"/>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="277"/>
       <c r="F6" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="162" t="s">
+      <c r="G6" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="271"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="277"/>
       <c r="K6" s="71">
         <v>10</v>
       </c>
-      <c r="L6" s="272" t="s">
+      <c r="L6" s="278" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="273"/>
-      <c r="P6" s="274"/>
-      <c r="Q6" s="272" t="s">
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="279"/>
+      <c r="P6" s="280"/>
+      <c r="Q6" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="274"/>
-      <c r="S6" s="171" t="s">
+      <c r="R6" s="280"/>
+      <c r="S6" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="172"/>
-      <c r="U6" s="172"/>
-      <c r="V6" s="172"/>
-      <c r="W6" s="172"/>
-      <c r="X6" s="172"/>
-      <c r="Y6" s="172"/>
-      <c r="Z6" s="172"/>
-      <c r="AA6" s="172"/>
-      <c r="AB6" s="172"/>
-      <c r="AC6" s="172"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="172"/>
-      <c r="AF6" s="254" t="s">
+      <c r="T6" s="178"/>
+      <c r="U6" s="178"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="178"/>
+      <c r="AC6" s="178"/>
+      <c r="AD6" s="178"/>
+      <c r="AE6" s="178"/>
+      <c r="AF6" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="AG6" s="255"/>
-      <c r="AH6" s="256"/>
+      <c r="AG6" s="261"/>
+      <c r="AH6" s="262"/>
     </row>
     <row r="7" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="277"/>
-      <c r="C7" s="278"/>
-      <c r="D7" s="278"/>
-      <c r="E7" s="279"/>
+      <c r="B7" s="283"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="285"/>
       <c r="F7" s="73"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="279"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="285"/>
       <c r="K7" s="75">
         <v>20</v>
       </c>
-      <c r="L7" s="280" t="s">
+      <c r="L7" s="286" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="282"/>
-      <c r="Q7" s="280" t="s">
+      <c r="M7" s="287"/>
+      <c r="N7" s="287"/>
+      <c r="O7" s="287"/>
+      <c r="P7" s="288"/>
+      <c r="Q7" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="282"/>
-      <c r="S7" s="153" t="s">
+      <c r="R7" s="288"/>
+      <c r="S7" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="154"/>
-      <c r="Z7" s="154"/>
-      <c r="AA7" s="154"/>
-      <c r="AB7" s="154"/>
-      <c r="AC7" s="154"/>
-      <c r="AD7" s="154"/>
-      <c r="AE7" s="154"/>
-      <c r="AF7" s="275" t="s">
+      <c r="T7" s="160"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="160"/>
+      <c r="W7" s="160"/>
+      <c r="X7" s="160"/>
+      <c r="Y7" s="160"/>
+      <c r="Z7" s="160"/>
+      <c r="AA7" s="160"/>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160"/>
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="281" t="s">
         <v>110</v>
       </c>
-      <c r="AG7" s="276"/>
-      <c r="AH7" s="215"/>
+      <c r="AG7" s="282"/>
+      <c r="AH7" s="221"/>
     </row>
     <row r="8" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="277"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="279"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="285"/>
       <c r="F8" s="73"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="279"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="285"/>
       <c r="K8" s="75">
         <v>30</v>
       </c>
-      <c r="L8" s="280" t="s">
+      <c r="L8" s="286" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="281"/>
-      <c r="N8" s="281"/>
-      <c r="O8" s="281"/>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="280" t="s">
+      <c r="M8" s="287"/>
+      <c r="N8" s="287"/>
+      <c r="O8" s="287"/>
+      <c r="P8" s="288"/>
+      <c r="Q8" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="282"/>
-      <c r="S8" s="153" t="s">
+      <c r="R8" s="288"/>
+      <c r="S8" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="T8" s="154"/>
-      <c r="U8" s="154"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="154"/>
-      <c r="X8" s="154"/>
-      <c r="Y8" s="154"/>
-      <c r="Z8" s="154"/>
-      <c r="AA8" s="154"/>
-      <c r="AB8" s="154"/>
-      <c r="AC8" s="154"/>
-      <c r="AD8" s="154"/>
-      <c r="AE8" s="154"/>
-      <c r="AF8" s="275" t="s">
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="281" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="276"/>
-      <c r="AH8" s="215"/>
+      <c r="AG8" s="282"/>
+      <c r="AH8" s="221"/>
     </row>
     <row r="9" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="277"/>
-      <c r="C9" s="278"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="279"/>
+      <c r="B9" s="283"/>
+      <c r="C9" s="284"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="285"/>
       <c r="F9" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="190" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="286"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="292"/>
       <c r="K9" s="75">
         <v>10</v>
       </c>
-      <c r="L9" s="280" t="s">
+      <c r="L9" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="281"/>
-      <c r="N9" s="281"/>
-      <c r="O9" s="281"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="280" t="s">
+      <c r="M9" s="287"/>
+      <c r="N9" s="287"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="288"/>
+      <c r="Q9" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="282"/>
-      <c r="S9" s="153" t="s">
+      <c r="R9" s="288"/>
+      <c r="S9" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
-      <c r="V9" s="154"/>
-      <c r="W9" s="154"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="275" t="s">
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="160"/>
+      <c r="AA9" s="160"/>
+      <c r="AB9" s="160"/>
+      <c r="AC9" s="160"/>
+      <c r="AD9" s="160"/>
+      <c r="AE9" s="160"/>
+      <c r="AF9" s="281" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" s="283"/>
-      <c r="AH9" s="284"/>
+      <c r="AG9" s="289"/>
+      <c r="AH9" s="290"/>
     </row>
     <row r="10" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="277"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="279"/>
+      <c r="B10" s="283"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="285"/>
       <c r="F10" s="85" t="s">
         <v>155</v>
       </c>
@@ -13853,26 +13877,26 @@
         <v>99</v>
       </c>
       <c r="R10" s="78"/>
-      <c r="S10" s="153" t="s">
+      <c r="S10" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="T10" s="154"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="154"/>
-      <c r="W10" s="154"/>
-      <c r="X10" s="154"/>
-      <c r="Y10" s="154"/>
-      <c r="Z10" s="154"/>
-      <c r="AA10" s="154"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="275" t="s">
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="160"/>
+      <c r="X10" s="160"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="160"/>
+      <c r="AA10" s="160"/>
+      <c r="AB10" s="160"/>
+      <c r="AC10" s="160"/>
+      <c r="AD10" s="160"/>
+      <c r="AE10" s="161"/>
+      <c r="AF10" s="281" t="s">
         <v>112</v>
       </c>
-      <c r="AG10" s="283"/>
-      <c r="AH10" s="284"/>
+      <c r="AG10" s="289"/>
+      <c r="AH10" s="290"/>
     </row>
     <row r="11" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="82"/>
@@ -13899,33 +13923,33 @@
         <v>99</v>
       </c>
       <c r="R11" s="91"/>
-      <c r="S11" s="153" t="s">
+      <c r="S11" s="159" t="s">
         <v>168</v>
       </c>
-      <c r="T11" s="154"/>
-      <c r="U11" s="154"/>
-      <c r="V11" s="154"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="154"/>
-      <c r="Y11" s="154"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="155"/>
-      <c r="AF11" s="275" t="s">
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="160"/>
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="161"/>
+      <c r="AF11" s="281" t="s">
         <v>110</v>
       </c>
-      <c r="AG11" s="276"/>
-      <c r="AH11" s="215"/>
+      <c r="AG11" s="282"/>
+      <c r="AH11" s="221"/>
     </row>
     <row r="12" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="277"/>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="279"/>
+      <c r="B12" s="283"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="285"/>
       <c r="F12" s="85" t="s">
         <v>165</v>
       </c>
@@ -13938,44 +13962,44 @@
       <c r="K12" s="88">
         <v>10</v>
       </c>
-      <c r="L12" s="280" t="s">
+      <c r="L12" s="286" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="281"/>
-      <c r="N12" s="281"/>
-      <c r="O12" s="281"/>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="280" t="s">
+      <c r="M12" s="287"/>
+      <c r="N12" s="287"/>
+      <c r="O12" s="287"/>
+      <c r="P12" s="288"/>
+      <c r="Q12" s="286" t="s">
         <v>100</v>
       </c>
-      <c r="R12" s="282"/>
-      <c r="S12" s="153" t="s">
+      <c r="R12" s="288"/>
+      <c r="S12" s="159" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="154"/>
-      <c r="U12" s="154"/>
-      <c r="V12" s="154"/>
-      <c r="W12" s="154"/>
-      <c r="X12" s="154"/>
-      <c r="Y12" s="154"/>
-      <c r="Z12" s="154"/>
-      <c r="AA12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="154"/>
-      <c r="AD12" s="154"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="275" t="s">
+      <c r="T12" s="160"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="161"/>
+      <c r="AF12" s="281" t="s">
         <v>110</v>
       </c>
-      <c r="AG12" s="283"/>
-      <c r="AH12" s="284"/>
+      <c r="AG12" s="289"/>
+      <c r="AH12" s="290"/>
     </row>
     <row r="13" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A13" s="82"/>
-      <c r="B13" s="277"/>
-      <c r="C13" s="278"/>
-      <c r="D13" s="278"/>
-      <c r="E13" s="279"/>
+      <c r="B13" s="283"/>
+      <c r="C13" s="284"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="285"/>
       <c r="F13" s="86"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
@@ -13995,83 +14019,83 @@
         <v>99</v>
       </c>
       <c r="R13" s="91"/>
-      <c r="S13" s="153" t="s">
+      <c r="S13" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
-      <c r="V13" s="154"/>
-      <c r="W13" s="154"/>
-      <c r="X13" s="154"/>
-      <c r="Y13" s="154"/>
-      <c r="Z13" s="154"/>
-      <c r="AA13" s="154"/>
-      <c r="AB13" s="154"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
-      <c r="AE13" s="155"/>
-      <c r="AF13" s="275" t="s">
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
+      <c r="AA13" s="160"/>
+      <c r="AB13" s="160"/>
+      <c r="AC13" s="160"/>
+      <c r="AD13" s="160"/>
+      <c r="AE13" s="161"/>
+      <c r="AF13" s="281" t="s">
         <v>112</v>
       </c>
-      <c r="AG13" s="283"/>
-      <c r="AH13" s="284"/>
+      <c r="AG13" s="289"/>
+      <c r="AH13" s="290"/>
     </row>
     <row r="14" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="82"/>
-      <c r="B14" s="277"/>
-      <c r="C14" s="278"/>
-      <c r="D14" s="278"/>
-      <c r="E14" s="279"/>
+      <c r="B14" s="283"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="285"/>
       <c r="F14" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="190" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="285"/>
-      <c r="I14" s="285"/>
-      <c r="J14" s="286"/>
+      <c r="H14" s="291"/>
+      <c r="I14" s="291"/>
+      <c r="J14" s="292"/>
       <c r="K14" s="88">
         <v>10</v>
       </c>
-      <c r="L14" s="280" t="s">
+      <c r="L14" s="286" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="281"/>
-      <c r="N14" s="281"/>
-      <c r="O14" s="281"/>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="280" t="s">
+      <c r="M14" s="287"/>
+      <c r="N14" s="287"/>
+      <c r="O14" s="287"/>
+      <c r="P14" s="288"/>
+      <c r="Q14" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="R14" s="282"/>
-      <c r="S14" s="153" t="s">
+      <c r="R14" s="288"/>
+      <c r="S14" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="154"/>
-      <c r="U14" s="154"/>
-      <c r="V14" s="154"/>
-      <c r="W14" s="154"/>
-      <c r="X14" s="154"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="154"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
-      <c r="AD14" s="154"/>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="275" t="s">
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="160"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="160"/>
+      <c r="AE14" s="160"/>
+      <c r="AF14" s="281" t="s">
         <v>112</v>
       </c>
-      <c r="AG14" s="283"/>
-      <c r="AH14" s="284"/>
+      <c r="AG14" s="289"/>
+      <c r="AH14" s="290"/>
     </row>
     <row r="15" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A15" s="82"/>
-      <c r="B15" s="277"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="279"/>
+      <c r="B15" s="283"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="285"/>
       <c r="F15" s="86"/>
       <c r="G15" s="100"/>
       <c r="H15" s="101"/>
@@ -14091,33 +14115,33 @@
         <v>100</v>
       </c>
       <c r="R15" s="91"/>
-      <c r="S15" s="153" t="s">
+      <c r="S15" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="154"/>
-      <c r="U15" s="154"/>
-      <c r="V15" s="154"/>
-      <c r="W15" s="154"/>
-      <c r="X15" s="154"/>
-      <c r="Y15" s="154"/>
-      <c r="Z15" s="154"/>
-      <c r="AA15" s="154"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="154"/>
-      <c r="AD15" s="154"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="275" t="s">
+      <c r="T15" s="160"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
+      <c r="AA15" s="160"/>
+      <c r="AB15" s="160"/>
+      <c r="AC15" s="160"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="281" t="s">
         <v>110</v>
       </c>
-      <c r="AG15" s="283"/>
-      <c r="AH15" s="284"/>
+      <c r="AG15" s="289"/>
+      <c r="AH15" s="290"/>
     </row>
     <row r="16" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A16" s="83"/>
-      <c r="B16" s="272"/>
-      <c r="C16" s="273"/>
-      <c r="D16" s="273"/>
-      <c r="E16" s="274"/>
+      <c r="B16" s="278"/>
+      <c r="C16" s="279"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="280"/>
       <c r="F16" s="86"/>
       <c r="G16" s="87"/>
       <c r="H16" s="101"/>
@@ -14137,126 +14161,126 @@
         <v>100</v>
       </c>
       <c r="R16" s="91"/>
-      <c r="S16" s="153" t="s">
+      <c r="S16" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="154"/>
-      <c r="U16" s="154"/>
-      <c r="V16" s="154"/>
-      <c r="W16" s="154"/>
-      <c r="X16" s="154"/>
-      <c r="Y16" s="154"/>
-      <c r="Z16" s="154"/>
-      <c r="AA16" s="154"/>
-      <c r="AB16" s="154"/>
-      <c r="AC16" s="154"/>
-      <c r="AD16" s="154"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="275" t="s">
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="160"/>
+      <c r="AC16" s="160"/>
+      <c r="AD16" s="160"/>
+      <c r="AE16" s="161"/>
+      <c r="AF16" s="281" t="s">
         <v>110</v>
       </c>
-      <c r="AG16" s="283"/>
-      <c r="AH16" s="284"/>
+      <c r="AG16" s="289"/>
+      <c r="AH16" s="290"/>
     </row>
     <row r="17" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A17" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="287" t="s">
+      <c r="B17" s="293" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="285"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="286"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="291"/>
+      <c r="E17" s="292"/>
       <c r="F17" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="287" t="s">
+      <c r="G17" s="293" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="285"/>
-      <c r="I17" s="285"/>
-      <c r="J17" s="286"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="291"/>
+      <c r="J17" s="292"/>
       <c r="K17" s="75">
         <v>10</v>
       </c>
-      <c r="L17" s="280" t="s">
+      <c r="L17" s="286" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="281"/>
-      <c r="N17" s="281"/>
-      <c r="O17" s="281"/>
-      <c r="P17" s="282"/>
-      <c r="Q17" s="280" t="s">
+      <c r="M17" s="287"/>
+      <c r="N17" s="287"/>
+      <c r="O17" s="287"/>
+      <c r="P17" s="288"/>
+      <c r="Q17" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="R17" s="282"/>
-      <c r="S17" s="153" t="s">
+      <c r="R17" s="288"/>
+      <c r="S17" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="154"/>
-      <c r="U17" s="154"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="154"/>
-      <c r="X17" s="154"/>
-      <c r="Y17" s="154"/>
-      <c r="Z17" s="154"/>
-      <c r="AA17" s="154"/>
-      <c r="AB17" s="154"/>
-      <c r="AC17" s="154"/>
-      <c r="AD17" s="154"/>
-      <c r="AE17" s="154"/>
-      <c r="AF17" s="275" t="s">
+      <c r="T17" s="160"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="160"/>
+      <c r="W17" s="160"/>
+      <c r="X17" s="160"/>
+      <c r="Y17" s="160"/>
+      <c r="Z17" s="160"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
+      <c r="AC17" s="160"/>
+      <c r="AD17" s="160"/>
+      <c r="AE17" s="160"/>
+      <c r="AF17" s="281" t="s">
         <v>106</v>
       </c>
-      <c r="AG17" s="276"/>
-      <c r="AH17" s="215"/>
+      <c r="AG17" s="282"/>
+      <c r="AH17" s="221"/>
     </row>
     <row r="18" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A18" s="83"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="273"/>
-      <c r="D18" s="273"/>
-      <c r="E18" s="274"/>
+      <c r="B18" s="278"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="280"/>
       <c r="F18" s="71"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
-      <c r="I18" s="273"/>
-      <c r="J18" s="274"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="280"/>
       <c r="K18" s="75">
         <v>20</v>
       </c>
-      <c r="L18" s="280" t="s">
+      <c r="L18" s="286" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="281"/>
-      <c r="N18" s="281"/>
-      <c r="O18" s="281"/>
-      <c r="P18" s="282"/>
-      <c r="Q18" s="280" t="s">
+      <c r="M18" s="287"/>
+      <c r="N18" s="287"/>
+      <c r="O18" s="287"/>
+      <c r="P18" s="288"/>
+      <c r="Q18" s="286" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="282"/>
-      <c r="S18" s="153" t="s">
+      <c r="R18" s="288"/>
+      <c r="S18" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="T18" s="154"/>
-      <c r="U18" s="154"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
-      <c r="Z18" s="154"/>
-      <c r="AA18" s="154"/>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="275" t="s">
+      <c r="T18" s="160"/>
+      <c r="U18" s="160"/>
+      <c r="V18" s="160"/>
+      <c r="W18" s="160"/>
+      <c r="X18" s="160"/>
+      <c r="Y18" s="160"/>
+      <c r="Z18" s="160"/>
+      <c r="AA18" s="160"/>
+      <c r="AB18" s="160"/>
+      <c r="AC18" s="160"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="160"/>
+      <c r="AF18" s="281" t="s">
         <v>106</v>
       </c>
-      <c r="AG18" s="276"/>
-      <c r="AH18" s="215"/>
+      <c r="AG18" s="282"/>
+      <c r="AH18" s="221"/>
     </row>
     <row r="19" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
     <row r="20" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-302_性能・拡張性要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-302_性能・拡張性要件定義(サンプル＆ガイド).xlsx
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'別紙１（エンティティ一覧）'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'別紙２(システム機能一覧)'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -2522,6 +2522,16 @@
   </si>
   <si>
     <t>2018年08月29日</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -3248,9 +3258,6 @@
   <si>
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -3832,7 +3839,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4066,6 +4073,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4180,6 +4190,387 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4188,408 +4579,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4603,12 +4592,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6693,7 +6676,7 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A2" s="112"/>
+      <c r="A2" s="113"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
@@ -6715,120 +6698,118 @@
     <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
     <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
     <row r="22" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F22" s="113"/>
-      <c r="H22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="6:19" ht="17.25" customHeight="1">
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="J23" s="114"/>
-      <c r="R23" s="114" t="s">
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="R23" s="115" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="24" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" spans="6:19" ht="18" customHeight="1">
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="J25" s="115"/>
-      <c r="R25" s="115" t="s">
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="J25" s="116"/>
+      <c r="R25" s="116" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="26" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
     </row>
     <row r="27" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="114"/>
     </row>
     <row r="28" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F28" s="116"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="114"/>
     </row>
     <row r="29" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F29" s="113"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="30" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F30" s="113"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="113"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="114"/>
     </row>
     <row r="31" spans="6:19" ht="21" customHeight="1">
-      <c r="F31" s="113"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="113"/>
-      <c r="J31" s="118"/>
-      <c r="R31" s="119"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="114"/>
+      <c r="J31" s="119"/>
+      <c r="R31" s="120" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
-      <c r="F32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="122"/>
-      <c r="S32" s="123"/>
+      <c r="F32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="121"/>
+      <c r="O32" s="121"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="123"/>
+      <c r="S32" s="124"/>
     </row>
     <row r="33" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="34" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="35" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="36" spans="2:19" ht="13.5" customHeight="1">
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="123"/>
+      <c r="O36" s="121"/>
+      <c r="P36" s="121"/>
+      <c r="Q36" s="124"/>
+      <c r="R36" s="124"/>
+      <c r="S36" s="124"/>
     </row>
     <row r="37" spans="2:19" ht="13.5" customHeight="1">
-      <c r="O37" s="124"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="124"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="125"/>
+      <c r="O37" s="125"/>
+      <c r="P37" s="124"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="124"/>
+      <c r="S37" s="126"/>
     </row>
     <row r="38" spans="2:19" ht="13.5" customHeight="1">
-      <c r="O38" s="124"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="124"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="124"/>
+      <c r="O38" s="125"/>
+      <c r="P38" s="124"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="124"/>
+      <c r="S38" s="125"/>
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1">
       <c r="B39" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="126" t="s">
         <v>249</v>
       </c>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="124" t="s">
+      <c r="E39" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="S39" s="123"/>
-    </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
+      <c r="O39" s="124"/>
+      <c r="P39" s="124"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125" t="s">
+        <v>251</v>
+      </c>
+      <c r="S39" s="124"/>
+    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
@@ -7303,7 +7284,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -7344,522 +7325,522 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B12" s="128" t="s">
+    <row r="12" spans="1:34" ht="24" customHeight="1" thickBot="1">
+      <c r="B12" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="163" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="166" t="s">
+      <c r="C12" s="157" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="162" t="s">
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="158"/>
+      <c r="T12" s="158"/>
+      <c r="U12" s="158"/>
+      <c r="V12" s="158"/>
+      <c r="W12" s="158"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="159"/>
+      <c r="AB12" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-    </row>
-    <row r="13" spans="1:34" ht="28.5" customHeight="1" thickTop="1">
-      <c r="B13" s="180">
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="156"/>
+      <c r="AH12" s="156"/>
+    </row>
+    <row r="13" spans="1:34" ht="24" customHeight="1" thickTop="1">
+      <c r="B13" s="174">
         <v>1</v>
       </c>
-      <c r="C13" s="184" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="174" t="s">
+      <c r="C13" s="178" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177" t="s">
-        <v>252</v>
-      </c>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="178"/>
-      <c r="X13" s="178"/>
-      <c r="Y13" s="178"/>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="168" t="s">
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="172"/>
+      <c r="Y13" s="172"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="169"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="169"/>
-      <c r="AG13" s="169"/>
-      <c r="AH13" s="170"/>
+      <c r="AC13" s="163"/>
+      <c r="AD13" s="163"/>
+      <c r="AE13" s="163"/>
+      <c r="AF13" s="163"/>
+      <c r="AG13" s="163"/>
+      <c r="AH13" s="164"/>
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="181"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="159" t="s">
+      <c r="B14" s="175"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="159" t="s">
-        <v>253</v>
-      </c>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="172"/>
-      <c r="AH14" s="173"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="153" t="s">
+        <v>254</v>
+      </c>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="165"/>
+      <c r="AC14" s="166"/>
+      <c r="AD14" s="166"/>
+      <c r="AE14" s="166"/>
+      <c r="AF14" s="166"/>
+      <c r="AG14" s="166"/>
+      <c r="AH14" s="167"/>
     </row>
     <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="182">
+      <c r="B15" s="176">
         <v>2</v>
       </c>
-      <c r="C15" s="190" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="159" t="s">
+      <c r="C15" s="184" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="159" t="s">
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="161"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="167"/>
-      <c r="AD15" s="167"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="154"/>
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="161"/>
+      <c r="AC15" s="161"/>
+      <c r="AD15" s="161"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="161"/>
     </row>
     <row r="16" spans="1:34" ht="32.1" customHeight="1">
-      <c r="B16" s="181"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="159" t="s">
+      <c r="B16" s="175"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="159" t="s">
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="159"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="161"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="154"/>
+      <c r="AF16" s="154"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="155"/>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="182">
+      <c r="B17" s="176">
         <v>3</v>
       </c>
-      <c r="C17" s="190" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="159" t="s">
+      <c r="C17" s="184" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="159" t="s">
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="161"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="161"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="154"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="155"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
-      <c r="B18" s="183"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="159" t="s">
+      <c r="B18" s="177"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="159" t="s">
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="159"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="161"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="155"/>
     </row>
     <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="183"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="159" t="s">
+      <c r="B19" s="177"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="159" t="s">
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="159"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="161"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="154"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="153"/>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
+      <c r="AE19" s="154"/>
+      <c r="AF19" s="154"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="155"/>
     </row>
     <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="183"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="159" t="s">
+      <c r="B20" s="177"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="159" t="s">
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="159"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="161"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="154"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="155"/>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1">
-      <c r="B21" s="181"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="159" t="s">
+      <c r="B21" s="175"/>
+      <c r="C21" s="187"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="159" t="s">
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="161"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="153"/>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
+      <c r="AE21" s="154"/>
+      <c r="AF21" s="154"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="155"/>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1">
-      <c r="B22" s="182">
+      <c r="B22" s="176">
         <v>4</v>
       </c>
-      <c r="C22" s="190" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="159" t="s">
+      <c r="C22" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="153" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="159" t="s">
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="159"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="161"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="154"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="153"/>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="154"/>
+      <c r="AF22" s="154"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="155"/>
     </row>
     <row r="23" spans="1:34" ht="24" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="159" t="s">
+      <c r="B23" s="175"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="189"/>
+      <c r="G23" s="153" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="159" t="s">
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="161"/>
-      <c r="AB23" s="159"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="161"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="154"/>
+      <c r="U23" s="154"/>
+      <c r="V23" s="154"/>
+      <c r="W23" s="154"/>
+      <c r="X23" s="154"/>
+      <c r="Y23" s="154"/>
+      <c r="Z23" s="154"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="153"/>
+      <c r="AC23" s="154"/>
+      <c r="AD23" s="154"/>
+      <c r="AE23" s="154"/>
+      <c r="AF23" s="154"/>
+      <c r="AG23" s="154"/>
+      <c r="AH23" s="155"/>
     </row>
     <row r="24" spans="1:34" ht="24" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="133"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="134" t="s">
-        <v>270</v>
-      </c>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="127"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
+      <c r="B24" s="134"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="135" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
@@ -7977,12 +7958,12 @@
       <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:59" ht="24" customHeight="1">
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
@@ -8035,12 +8016,12 @@
       <c r="BG6" s="17"/>
     </row>
     <row r="7" spans="1:59" ht="24" customHeight="1">
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31"/>
       <c r="I7" s="32"/>
@@ -8157,24 +8138,24 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="132"/>
-      <c r="AD10" s="132"/>
-      <c r="AE10" s="132"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
       <c r="AF10" s="33"/>
       <c r="AG10" s="46"/>
     </row>
@@ -8187,34 +8168,34 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="211" t="s">
+      <c r="K11" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="213"/>
-      <c r="O11" s="199" t="s">
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="200"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="199" t="s">
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="200"/>
-      <c r="AE11" s="200"/>
-      <c r="AF11" s="201"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="195"/>
       <c r="AG11" s="69"/>
     </row>
     <row r="12" spans="1:59" ht="24" customHeight="1">
@@ -8226,40 +8207,40 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="199" t="s">
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="201"/>
-      <c r="R12" s="199" t="s">
+      <c r="P12" s="194"/>
+      <c r="Q12" s="195"/>
+      <c r="R12" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="200"/>
-      <c r="T12" s="201"/>
-      <c r="U12" s="199" t="s">
+      <c r="S12" s="194"/>
+      <c r="T12" s="195"/>
+      <c r="U12" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="V12" s="200"/>
-      <c r="W12" s="201"/>
-      <c r="X12" s="199" t="s">
+      <c r="V12" s="194"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="199" t="s">
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="195"/>
+      <c r="AA12" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="199" t="s">
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="195"/>
+      <c r="AD12" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="AE12" s="200"/>
-      <c r="AF12" s="201"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="195"/>
       <c r="AG12" s="69"/>
     </row>
     <row r="13" spans="1:59" ht="24" customHeight="1">
@@ -8271,42 +8252,42 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
       <c r="J13" s="82"/>
-      <c r="K13" s="131" t="s">
+      <c r="K13" s="132" t="s">
         <v>107</v>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="196" t="s">
+      <c r="O13" s="190" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="196" t="s">
+      <c r="P13" s="191"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="190" t="s">
         <v>180</v>
       </c>
-      <c r="S13" s="197"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="196" t="s">
+      <c r="S13" s="191"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="190" t="s">
         <v>183</v>
       </c>
-      <c r="V13" s="197"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="196" t="s">
+      <c r="V13" s="191"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="190" t="s">
         <v>186</v>
       </c>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="196" t="s">
+      <c r="Y13" s="191"/>
+      <c r="Z13" s="192"/>
+      <c r="AA13" s="190" t="s">
         <v>189</v>
       </c>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="196" t="s">
+      <c r="AB13" s="191"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="190" t="s">
         <v>192</v>
       </c>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="198"/>
+      <c r="AE13" s="191"/>
+      <c r="AF13" s="192"/>
       <c r="AG13" s="69"/>
     </row>
     <row r="14" spans="1:59" ht="24" customHeight="1">
@@ -8318,42 +8299,42 @@
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="131" t="s">
+      <c r="K14" s="132" t="s">
         <v>174</v>
       </c>
       <c r="L14" s="60"/>
       <c r="M14" s="31"/>
       <c r="N14" s="61"/>
-      <c r="O14" s="202" t="s">
+      <c r="O14" s="196" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="196" t="s">
+      <c r="P14" s="197"/>
+      <c r="Q14" s="198"/>
+      <c r="R14" s="190" t="s">
         <v>181</v>
       </c>
-      <c r="S14" s="197"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="202" t="s">
+      <c r="S14" s="191"/>
+      <c r="T14" s="192"/>
+      <c r="U14" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="V14" s="203"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="202" t="s">
+      <c r="V14" s="197"/>
+      <c r="W14" s="198"/>
+      <c r="X14" s="196" t="s">
         <v>187</v>
       </c>
-      <c r="Y14" s="203"/>
-      <c r="Z14" s="204"/>
-      <c r="AA14" s="202" t="s">
+      <c r="Y14" s="197"/>
+      <c r="Z14" s="198"/>
+      <c r="AA14" s="196" t="s">
         <v>190</v>
       </c>
-      <c r="AB14" s="203"/>
-      <c r="AC14" s="204"/>
-      <c r="AD14" s="196" t="s">
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="198"/>
+      <c r="AD14" s="190" t="s">
         <v>193</v>
       </c>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="198"/>
+      <c r="AE14" s="191"/>
+      <c r="AF14" s="192"/>
       <c r="AG14" s="69"/>
     </row>
     <row r="15" spans="1:59" ht="24" customHeight="1">
@@ -8365,42 +8346,42 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="131" t="s">
+      <c r="K15" s="132" t="s">
         <v>175</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="202" t="s">
+      <c r="O15" s="196" t="s">
         <v>179</v>
       </c>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="196" t="s">
+      <c r="P15" s="197"/>
+      <c r="Q15" s="198"/>
+      <c r="R15" s="190" t="s">
         <v>182</v>
       </c>
-      <c r="S15" s="197"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="196" t="s">
+      <c r="S15" s="191"/>
+      <c r="T15" s="192"/>
+      <c r="U15" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="V15" s="197"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="196" t="s">
+      <c r="V15" s="191"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="190" t="s">
         <v>188</v>
       </c>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="196" t="s">
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="190" t="s">
         <v>191</v>
       </c>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="196" t="s">
+      <c r="AB15" s="191"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="190" t="s">
         <v>201</v>
       </c>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="198"/>
+      <c r="AE15" s="191"/>
+      <c r="AF15" s="192"/>
       <c r="AG15" s="47"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
@@ -8438,42 +8419,42 @@
       <c r="H16" s="19"/>
       <c r="I16" s="47"/>
       <c r="J16" s="44"/>
-      <c r="K16" s="131" t="s">
+      <c r="K16" s="132" t="s">
         <v>173</v>
       </c>
       <c r="L16" s="60"/>
       <c r="M16" s="31"/>
       <c r="N16" s="61"/>
-      <c r="O16" s="202" t="s">
+      <c r="O16" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="202" t="s">
+      <c r="P16" s="197"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="203"/>
-      <c r="T16" s="204"/>
-      <c r="U16" s="202" t="s">
+      <c r="S16" s="197"/>
+      <c r="T16" s="198"/>
+      <c r="U16" s="196" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="203"/>
-      <c r="W16" s="204"/>
-      <c r="X16" s="202" t="s">
+      <c r="V16" s="197"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="Y16" s="203"/>
-      <c r="Z16" s="204"/>
-      <c r="AA16" s="202" t="s">
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="198"/>
+      <c r="AA16" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="AB16" s="203"/>
-      <c r="AC16" s="204"/>
-      <c r="AD16" s="202" t="s">
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="198"/>
+      <c r="AD16" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="AE16" s="203"/>
-      <c r="AF16" s="204"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="198"/>
       <c r="AG16" s="47"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="17"/>
@@ -8511,29 +8492,29 @@
       <c r="H17" s="19"/>
       <c r="I17" s="47"/>
       <c r="J17" s="44"/>
-      <c r="K17" s="191" t="s">
+      <c r="K17" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="191"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="191"/>
-      <c r="AB17" s="191"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="191"/>
-      <c r="AE17" s="191"/>
+      <c r="L17" s="185"/>
+      <c r="M17" s="185"/>
+      <c r="N17" s="185"/>
+      <c r="O17" s="185"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="185"/>
+      <c r="S17" s="185"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="185"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="185"/>
+      <c r="AC17" s="185"/>
+      <c r="AD17" s="185"/>
+      <c r="AE17" s="185"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="47"/>
       <c r="AH17" s="17"/>
@@ -8607,22 +8588,22 @@
       <c r="H19" s="20"/>
       <c r="I19" s="69"/>
       <c r="J19" s="54"/>
-      <c r="K19" s="211" t="s">
+      <c r="K19" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="199" t="s">
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="201"/>
-      <c r="R19" s="199" t="s">
+      <c r="P19" s="194"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="S19" s="200"/>
-      <c r="T19" s="201"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="195"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
@@ -8646,20 +8627,20 @@
       <c r="H20" s="20"/>
       <c r="I20" s="69"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="216"/>
-      <c r="O20" s="199" t="s">
+      <c r="K20" s="208"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="210"/>
+      <c r="O20" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="201"/>
-      <c r="R20" s="199" t="s">
+      <c r="P20" s="194"/>
+      <c r="Q20" s="195"/>
+      <c r="R20" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="200"/>
-      <c r="T20" s="201"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="195"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
@@ -8683,22 +8664,22 @@
       <c r="H21" s="20"/>
       <c r="I21" s="69"/>
       <c r="J21" s="54"/>
-      <c r="K21" s="131" t="s">
+      <c r="K21" s="132" t="s">
         <v>107</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="196" t="s">
+      <c r="O21" s="190" t="s">
         <v>195</v>
       </c>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="196" t="s">
+      <c r="P21" s="191"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="190" t="s">
         <v>196</v>
       </c>
-      <c r="S21" s="197"/>
-      <c r="T21" s="198"/>
+      <c r="S21" s="191"/>
+      <c r="T21" s="192"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
@@ -8722,22 +8703,22 @@
       <c r="H22" s="20"/>
       <c r="I22" s="69"/>
       <c r="J22" s="54"/>
-      <c r="K22" s="131" t="s">
+      <c r="K22" s="132" t="s">
         <v>174</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="196" t="s">
+      <c r="O22" s="190" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="197"/>
-      <c r="Q22" s="198"/>
-      <c r="R22" s="196" t="s">
+      <c r="P22" s="191"/>
+      <c r="Q22" s="192"/>
+      <c r="R22" s="190" t="s">
         <v>199</v>
       </c>
-      <c r="S22" s="197"/>
-      <c r="T22" s="198"/>
+      <c r="S22" s="191"/>
+      <c r="T22" s="192"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
@@ -8761,22 +8742,22 @@
       <c r="H23" s="20"/>
       <c r="I23" s="69"/>
       <c r="J23" s="54"/>
-      <c r="K23" s="131" t="s">
+      <c r="K23" s="132" t="s">
         <v>175</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="196" t="s">
+      <c r="O23" s="190" t="s">
         <v>198</v>
       </c>
-      <c r="P23" s="197"/>
-      <c r="Q23" s="198"/>
-      <c r="R23" s="196" t="s">
+      <c r="P23" s="191"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="S23" s="197"/>
-      <c r="T23" s="198"/>
+      <c r="S23" s="191"/>
+      <c r="T23" s="192"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
@@ -8800,22 +8781,22 @@
       <c r="H24" s="20"/>
       <c r="I24" s="69"/>
       <c r="J24" s="54"/>
-      <c r="K24" s="131" t="s">
+      <c r="K24" s="132" t="s">
         <v>173</v>
       </c>
       <c r="L24" s="60"/>
       <c r="M24" s="31"/>
       <c r="N24" s="61"/>
-      <c r="O24" s="202" t="s">
+      <c r="O24" s="196" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="204"/>
-      <c r="R24" s="202" t="s">
+      <c r="P24" s="197"/>
+      <c r="Q24" s="198"/>
+      <c r="R24" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="S24" s="203"/>
-      <c r="T24" s="204"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="198"/>
       <c r="U24" s="104"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
@@ -8832,36 +8813,36 @@
     </row>
     <row r="25" spans="2:59" ht="24" customHeight="1">
       <c r="C25" s="53"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="49"/>
       <c r="J25" s="53"/>
-      <c r="K25" s="191" t="s">
+      <c r="K25" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="191"/>
-      <c r="U25" s="175"/>
-      <c r="V25" s="175"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="175"/>
-      <c r="Y25" s="175"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
-      <c r="AD25" s="175"/>
-      <c r="AE25" s="175"/>
+      <c r="L25" s="185"/>
+      <c r="M25" s="185"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="185"/>
+      <c r="S25" s="185"/>
+      <c r="T25" s="185"/>
+      <c r="U25" s="169"/>
+      <c r="V25" s="169"/>
+      <c r="W25" s="169"/>
+      <c r="X25" s="169"/>
+      <c r="Y25" s="169"/>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="169"/>
+      <c r="AB25" s="169"/>
+      <c r="AC25" s="169"/>
+      <c r="AD25" s="169"/>
+      <c r="AE25" s="169"/>
       <c r="AF25" s="48"/>
       <c r="AG25" s="49"/>
     </row>
@@ -8869,9 +8850,9 @@
       <c r="C26" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
@@ -8998,18 +8979,18 @@
       <c r="BG28" s="36"/>
     </row>
     <row r="29" spans="2:59" ht="24" customHeight="1">
-      <c r="C29" s="130" t="s">
+      <c r="C29" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="58"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
       <c r="O29" s="34"/>
@@ -9059,12 +9040,12 @@
       <c r="BG29" s="36"/>
     </row>
     <row r="30" spans="2:59" ht="24" customHeight="1">
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
       <c r="I30" s="38"/>
@@ -9122,7 +9103,7 @@
       <c r="BG30" s="36"/>
     </row>
     <row r="31" spans="2:59" ht="24" customHeight="1">
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="132" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="56"/>
@@ -9194,32 +9175,32 @@
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="205" t="s">
+      <c r="J32" s="199" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="206"/>
-      <c r="L32" s="206"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="206"/>
-      <c r="S32" s="206"/>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="206"/>
-      <c r="Y32" s="206"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="206"/>
-      <c r="AE32" s="206"/>
-      <c r="AF32" s="206"/>
-      <c r="AG32" s="207"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="200"/>
+      <c r="N32" s="200"/>
+      <c r="O32" s="200"/>
+      <c r="P32" s="200"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="200"/>
+      <c r="S32" s="200"/>
+      <c r="T32" s="200"/>
+      <c r="U32" s="200"/>
+      <c r="V32" s="200"/>
+      <c r="W32" s="200"/>
+      <c r="X32" s="200"/>
+      <c r="Y32" s="200"/>
+      <c r="Z32" s="200"/>
+      <c r="AA32" s="200"/>
+      <c r="AB32" s="200"/>
+      <c r="AC32" s="200"/>
+      <c r="AD32" s="200"/>
+      <c r="AE32" s="200"/>
+      <c r="AF32" s="200"/>
+      <c r="AG32" s="201"/>
       <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
@@ -9248,37 +9229,37 @@
       <c r="BG32" s="36"/>
     </row>
     <row r="33" spans="1:59" ht="24" customHeight="1">
-      <c r="C33" s="129"/>
+      <c r="C33" s="130"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="209"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
-      <c r="U33" s="209"/>
-      <c r="V33" s="209"/>
-      <c r="W33" s="209"/>
-      <c r="X33" s="209"/>
-      <c r="Y33" s="209"/>
-      <c r="Z33" s="209"/>
-      <c r="AA33" s="209"/>
-      <c r="AB33" s="209"/>
-      <c r="AC33" s="209"/>
-      <c r="AD33" s="209"/>
-      <c r="AE33" s="209"/>
-      <c r="AF33" s="209"/>
-      <c r="AG33" s="210"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="203"/>
+      <c r="S33" s="203"/>
+      <c r="T33" s="203"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="203"/>
+      <c r="W33" s="203"/>
+      <c r="X33" s="203"/>
+      <c r="Y33" s="203"/>
+      <c r="Z33" s="203"/>
+      <c r="AA33" s="203"/>
+      <c r="AB33" s="203"/>
+      <c r="AC33" s="203"/>
+      <c r="AD33" s="203"/>
+      <c r="AE33" s="203"/>
+      <c r="AF33" s="203"/>
+      <c r="AG33" s="204"/>
       <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
@@ -9376,34 +9357,34 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="211" t="s">
+      <c r="K35" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="212"/>
-      <c r="M35" s="212"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="199" t="s">
+      <c r="L35" s="206"/>
+      <c r="M35" s="206"/>
+      <c r="N35" s="207"/>
+      <c r="O35" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="P35" s="200"/>
-      <c r="Q35" s="200"/>
-      <c r="R35" s="200"/>
-      <c r="S35" s="200"/>
-      <c r="T35" s="200"/>
-      <c r="U35" s="200"/>
-      <c r="V35" s="200"/>
-      <c r="W35" s="201"/>
-      <c r="X35" s="199" t="s">
+      <c r="P35" s="194"/>
+      <c r="Q35" s="194"/>
+      <c r="R35" s="194"/>
+      <c r="S35" s="194"/>
+      <c r="T35" s="194"/>
+      <c r="U35" s="194"/>
+      <c r="V35" s="194"/>
+      <c r="W35" s="195"/>
+      <c r="X35" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="Y35" s="200"/>
-      <c r="Z35" s="200"/>
-      <c r="AA35" s="200"/>
-      <c r="AB35" s="200"/>
-      <c r="AC35" s="200"/>
-      <c r="AD35" s="200"/>
-      <c r="AE35" s="200"/>
-      <c r="AF35" s="201"/>
+      <c r="Y35" s="194"/>
+      <c r="Z35" s="194"/>
+      <c r="AA35" s="194"/>
+      <c r="AB35" s="194"/>
+      <c r="AC35" s="194"/>
+      <c r="AD35" s="194"/>
+      <c r="AE35" s="194"/>
+      <c r="AF35" s="195"/>
       <c r="AG35" s="69"/>
     </row>
     <row r="36" spans="1:59" ht="24" customHeight="1">
@@ -9415,40 +9396,40 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="82"/>
-      <c r="K36" s="214"/>
-      <c r="L36" s="215"/>
-      <c r="M36" s="215"/>
-      <c r="N36" s="216"/>
-      <c r="O36" s="199" t="s">
+      <c r="K36" s="208"/>
+      <c r="L36" s="209"/>
+      <c r="M36" s="209"/>
+      <c r="N36" s="210"/>
+      <c r="O36" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="P36" s="200"/>
-      <c r="Q36" s="201"/>
-      <c r="R36" s="199" t="s">
+      <c r="P36" s="194"/>
+      <c r="Q36" s="195"/>
+      <c r="R36" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="S36" s="200"/>
-      <c r="T36" s="201"/>
-      <c r="U36" s="199" t="s">
+      <c r="S36" s="194"/>
+      <c r="T36" s="195"/>
+      <c r="U36" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="V36" s="200"/>
-      <c r="W36" s="201"/>
-      <c r="X36" s="199" t="s">
+      <c r="V36" s="194"/>
+      <c r="W36" s="195"/>
+      <c r="X36" s="193" t="s">
         <v>71</v>
       </c>
-      <c r="Y36" s="200"/>
-      <c r="Z36" s="201"/>
-      <c r="AA36" s="199" t="s">
+      <c r="Y36" s="194"/>
+      <c r="Z36" s="195"/>
+      <c r="AA36" s="193" t="s">
         <v>83</v>
       </c>
-      <c r="AB36" s="200"/>
-      <c r="AC36" s="201"/>
-      <c r="AD36" s="199" t="s">
+      <c r="AB36" s="194"/>
+      <c r="AC36" s="195"/>
+      <c r="AD36" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="AE36" s="200"/>
-      <c r="AF36" s="201"/>
+      <c r="AE36" s="194"/>
+      <c r="AF36" s="195"/>
       <c r="AG36" s="69"/>
     </row>
     <row r="37" spans="1:59" ht="24" customHeight="1">
@@ -9460,42 +9441,42 @@
       <c r="H37" s="20"/>
       <c r="I37" s="20"/>
       <c r="J37" s="82"/>
-      <c r="K37" s="131" t="s">
+      <c r="K37" s="132" t="s">
         <v>107</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="196" t="s">
+      <c r="O37" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="P37" s="197"/>
-      <c r="Q37" s="198"/>
-      <c r="R37" s="196" t="s">
+      <c r="P37" s="191"/>
+      <c r="Q37" s="192"/>
+      <c r="R37" s="190" t="s">
         <v>211</v>
       </c>
-      <c r="S37" s="197"/>
-      <c r="T37" s="198"/>
-      <c r="U37" s="196" t="s">
+      <c r="S37" s="191"/>
+      <c r="T37" s="192"/>
+      <c r="U37" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="V37" s="197"/>
-      <c r="W37" s="198"/>
-      <c r="X37" s="196" t="s">
+      <c r="V37" s="191"/>
+      <c r="W37" s="192"/>
+      <c r="X37" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="Y37" s="197"/>
-      <c r="Z37" s="198"/>
-      <c r="AA37" s="196" t="s">
+      <c r="Y37" s="191"/>
+      <c r="Z37" s="192"/>
+      <c r="AA37" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="AB37" s="197"/>
-      <c r="AC37" s="198"/>
-      <c r="AD37" s="196" t="s">
+      <c r="AB37" s="191"/>
+      <c r="AC37" s="192"/>
+      <c r="AD37" s="190" t="s">
         <v>222</v>
       </c>
-      <c r="AE37" s="197"/>
-      <c r="AF37" s="198"/>
+      <c r="AE37" s="191"/>
+      <c r="AF37" s="192"/>
       <c r="AG37" s="69"/>
     </row>
     <row r="38" spans="1:59" ht="24" customHeight="1">
@@ -9507,42 +9488,42 @@
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
       <c r="J38" s="82"/>
-      <c r="K38" s="131" t="s">
+      <c r="K38" s="132" t="s">
         <v>174</v>
       </c>
       <c r="L38" s="60"/>
       <c r="M38" s="31"/>
       <c r="N38" s="61"/>
-      <c r="O38" s="202" t="s">
+      <c r="O38" s="196" t="s">
         <v>207</v>
       </c>
-      <c r="P38" s="203"/>
-      <c r="Q38" s="204"/>
-      <c r="R38" s="196" t="s">
+      <c r="P38" s="197"/>
+      <c r="Q38" s="198"/>
+      <c r="R38" s="190" t="s">
         <v>208</v>
       </c>
-      <c r="S38" s="197"/>
-      <c r="T38" s="198"/>
-      <c r="U38" s="202" t="s">
+      <c r="S38" s="191"/>
+      <c r="T38" s="192"/>
+      <c r="U38" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="V38" s="203"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="202" t="s">
+      <c r="V38" s="197"/>
+      <c r="W38" s="198"/>
+      <c r="X38" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="Y38" s="203"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="202" t="s">
+      <c r="Y38" s="197"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="196" t="s">
         <v>217</v>
       </c>
-      <c r="AB38" s="203"/>
-      <c r="AC38" s="204"/>
-      <c r="AD38" s="196" t="s">
+      <c r="AB38" s="197"/>
+      <c r="AC38" s="198"/>
+      <c r="AD38" s="190" t="s">
         <v>221</v>
       </c>
-      <c r="AE38" s="197"/>
-      <c r="AF38" s="198"/>
+      <c r="AE38" s="191"/>
+      <c r="AF38" s="192"/>
       <c r="AG38" s="69"/>
     </row>
     <row r="39" spans="1:59" ht="24" customHeight="1">
@@ -9554,42 +9535,42 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="82"/>
-      <c r="K39" s="131" t="s">
+      <c r="K39" s="132" t="s">
         <v>175</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="202" t="s">
+      <c r="O39" s="196" t="s">
         <v>204</v>
       </c>
-      <c r="P39" s="203"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="196" t="s">
+      <c r="P39" s="197"/>
+      <c r="Q39" s="198"/>
+      <c r="R39" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="S39" s="197"/>
-      <c r="T39" s="198"/>
-      <c r="U39" s="196" t="s">
+      <c r="S39" s="191"/>
+      <c r="T39" s="192"/>
+      <c r="U39" s="190" t="s">
         <v>206</v>
       </c>
-      <c r="V39" s="197"/>
-      <c r="W39" s="198"/>
-      <c r="X39" s="196" t="s">
+      <c r="V39" s="191"/>
+      <c r="W39" s="192"/>
+      <c r="X39" s="190" t="s">
         <v>215</v>
       </c>
-      <c r="Y39" s="197"/>
-      <c r="Z39" s="198"/>
-      <c r="AA39" s="196" t="s">
+      <c r="Y39" s="191"/>
+      <c r="Z39" s="192"/>
+      <c r="AA39" s="190" t="s">
         <v>218</v>
       </c>
-      <c r="AB39" s="197"/>
-      <c r="AC39" s="198"/>
-      <c r="AD39" s="196" t="s">
+      <c r="AB39" s="191"/>
+      <c r="AC39" s="192"/>
+      <c r="AD39" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="AE39" s="197"/>
-      <c r="AF39" s="198"/>
+      <c r="AE39" s="191"/>
+      <c r="AF39" s="192"/>
       <c r="AG39" s="47"/>
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
@@ -9627,42 +9608,42 @@
       <c r="H40" s="19"/>
       <c r="I40" s="47"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="131" t="s">
+      <c r="K40" s="132" t="s">
         <v>173</v>
       </c>
       <c r="L40" s="60"/>
       <c r="M40" s="31"/>
       <c r="N40" s="61"/>
-      <c r="O40" s="202" t="s">
+      <c r="O40" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="P40" s="203"/>
-      <c r="Q40" s="204"/>
-      <c r="R40" s="202" t="s">
+      <c r="P40" s="197"/>
+      <c r="Q40" s="198"/>
+      <c r="R40" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="S40" s="203"/>
-      <c r="T40" s="204"/>
-      <c r="U40" s="202" t="s">
+      <c r="S40" s="197"/>
+      <c r="T40" s="198"/>
+      <c r="U40" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="V40" s="203"/>
-      <c r="W40" s="204"/>
-      <c r="X40" s="202" t="s">
+      <c r="V40" s="197"/>
+      <c r="W40" s="198"/>
+      <c r="X40" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" s="203"/>
-      <c r="Z40" s="204"/>
-      <c r="AA40" s="202" t="s">
+      <c r="Y40" s="197"/>
+      <c r="Z40" s="198"/>
+      <c r="AA40" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="AB40" s="203"/>
-      <c r="AC40" s="204"/>
-      <c r="AD40" s="202" t="s">
+      <c r="AB40" s="197"/>
+      <c r="AC40" s="198"/>
+      <c r="AD40" s="196" t="s">
         <v>219</v>
       </c>
-      <c r="AE40" s="203"/>
-      <c r="AF40" s="204"/>
+      <c r="AE40" s="197"/>
+      <c r="AF40" s="198"/>
       <c r="AG40" s="47"/>
       <c r="AH40" s="17"/>
       <c r="AI40" s="17"/>
@@ -9700,29 +9681,29 @@
       <c r="H41" s="19"/>
       <c r="I41" s="47"/>
       <c r="J41" s="44"/>
-      <c r="K41" s="191" t="s">
+      <c r="K41" s="185" t="s">
         <v>236</v>
       </c>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="191"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="191"/>
-      <c r="S41" s="191"/>
-      <c r="T41" s="191"/>
-      <c r="U41" s="191"/>
-      <c r="V41" s="191"/>
-      <c r="W41" s="191"/>
-      <c r="X41" s="191"/>
-      <c r="Y41" s="191"/>
-      <c r="Z41" s="191"/>
-      <c r="AA41" s="191"/>
-      <c r="AB41" s="191"/>
-      <c r="AC41" s="191"/>
-      <c r="AD41" s="191"/>
-      <c r="AE41" s="191"/>
+      <c r="L41" s="185"/>
+      <c r="M41" s="185"/>
+      <c r="N41" s="185"/>
+      <c r="O41" s="185"/>
+      <c r="P41" s="185"/>
+      <c r="Q41" s="185"/>
+      <c r="R41" s="185"/>
+      <c r="S41" s="185"/>
+      <c r="T41" s="185"/>
+      <c r="U41" s="185"/>
+      <c r="V41" s="185"/>
+      <c r="W41" s="185"/>
+      <c r="X41" s="185"/>
+      <c r="Y41" s="185"/>
+      <c r="Z41" s="185"/>
+      <c r="AA41" s="185"/>
+      <c r="AB41" s="185"/>
+      <c r="AC41" s="185"/>
+      <c r="AD41" s="185"/>
+      <c r="AE41" s="185"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="47"/>
       <c r="AH41" s="17"/>
@@ -9755,14 +9736,14 @@
     <row r="42" spans="1:59" ht="24" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="129"/>
+      <c r="C42" s="130"/>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
       <c r="F42" s="58"/>
       <c r="G42" s="26"/>
       <c r="H42" s="26"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="129"/>
+      <c r="J42" s="130"/>
       <c r="K42" s="105" t="s">
         <v>238</v>
       </c>
@@ -9847,22 +9828,22 @@
       <c r="H44" s="20"/>
       <c r="I44" s="69"/>
       <c r="J44" s="54"/>
-      <c r="K44" s="211" t="s">
+      <c r="K44" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="L44" s="212"/>
-      <c r="M44" s="212"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="199" t="s">
+      <c r="L44" s="206"/>
+      <c r="M44" s="206"/>
+      <c r="N44" s="207"/>
+      <c r="O44" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="P44" s="200"/>
-      <c r="Q44" s="201"/>
-      <c r="R44" s="199" t="s">
+      <c r="P44" s="194"/>
+      <c r="Q44" s="195"/>
+      <c r="R44" s="193" t="s">
         <v>194</v>
       </c>
-      <c r="S44" s="200"/>
-      <c r="T44" s="201"/>
+      <c r="S44" s="194"/>
+      <c r="T44" s="195"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
@@ -9886,20 +9867,20 @@
       <c r="H45" s="20"/>
       <c r="I45" s="69"/>
       <c r="J45" s="54"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="215"/>
-      <c r="M45" s="215"/>
-      <c r="N45" s="216"/>
-      <c r="O45" s="199" t="s">
+      <c r="K45" s="208"/>
+      <c r="L45" s="209"/>
+      <c r="M45" s="209"/>
+      <c r="N45" s="210"/>
+      <c r="O45" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="P45" s="200"/>
-      <c r="Q45" s="201"/>
-      <c r="R45" s="199" t="s">
+      <c r="P45" s="194"/>
+      <c r="Q45" s="195"/>
+      <c r="R45" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="S45" s="200"/>
-      <c r="T45" s="201"/>
+      <c r="S45" s="194"/>
+      <c r="T45" s="195"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
@@ -9923,22 +9904,22 @@
       <c r="H46" s="20"/>
       <c r="I46" s="69"/>
       <c r="J46" s="54"/>
-      <c r="K46" s="131" t="s">
+      <c r="K46" s="132" t="s">
         <v>107</v>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="196" t="s">
+      <c r="O46" s="190" t="s">
         <v>225</v>
       </c>
-      <c r="P46" s="197"/>
-      <c r="Q46" s="198"/>
-      <c r="R46" s="196" t="s">
+      <c r="P46" s="191"/>
+      <c r="Q46" s="192"/>
+      <c r="R46" s="190" t="s">
         <v>227</v>
       </c>
-      <c r="S46" s="197"/>
-      <c r="T46" s="198"/>
+      <c r="S46" s="191"/>
+      <c r="T46" s="192"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
@@ -9962,22 +9943,22 @@
       <c r="H47" s="20"/>
       <c r="I47" s="69"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="131" t="s">
+      <c r="K47" s="132" t="s">
         <v>174</v>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="196" t="s">
+      <c r="O47" s="190" t="s">
         <v>209</v>
       </c>
-      <c r="P47" s="197"/>
-      <c r="Q47" s="198"/>
-      <c r="R47" s="196" t="s">
+      <c r="P47" s="191"/>
+      <c r="Q47" s="192"/>
+      <c r="R47" s="190" t="s">
         <v>228</v>
       </c>
-      <c r="S47" s="197"/>
-      <c r="T47" s="198"/>
+      <c r="S47" s="191"/>
+      <c r="T47" s="192"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
@@ -10001,22 +9982,22 @@
       <c r="H48" s="20"/>
       <c r="I48" s="69"/>
       <c r="J48" s="54"/>
-      <c r="K48" s="131" t="s">
+      <c r="K48" s="132" t="s">
         <v>175</v>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="196" t="s">
+      <c r="O48" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="P48" s="197"/>
-      <c r="Q48" s="198"/>
-      <c r="R48" s="196" t="s">
+      <c r="P48" s="191"/>
+      <c r="Q48" s="192"/>
+      <c r="R48" s="190" t="s">
         <v>229</v>
       </c>
-      <c r="S48" s="197"/>
-      <c r="T48" s="198"/>
+      <c r="S48" s="191"/>
+      <c r="T48" s="192"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
@@ -10040,22 +10021,22 @@
       <c r="H49" s="20"/>
       <c r="I49" s="69"/>
       <c r="J49" s="54"/>
-      <c r="K49" s="131" t="s">
+      <c r="K49" s="132" t="s">
         <v>173</v>
       </c>
       <c r="L49" s="60"/>
       <c r="M49" s="31"/>
       <c r="N49" s="61"/>
-      <c r="O49" s="202" t="s">
+      <c r="O49" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="P49" s="203"/>
-      <c r="Q49" s="204"/>
-      <c r="R49" s="202" t="s">
+      <c r="P49" s="197"/>
+      <c r="Q49" s="198"/>
+      <c r="R49" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="S49" s="203"/>
-      <c r="T49" s="204"/>
+      <c r="S49" s="197"/>
+      <c r="T49" s="198"/>
       <c r="U49" s="104"/>
       <c r="V49" s="20"/>
       <c r="W49" s="20"/>
@@ -10079,29 +10060,29 @@
       <c r="H50" s="20"/>
       <c r="I50" s="69"/>
       <c r="J50" s="54"/>
-      <c r="K50" s="191" t="s">
+      <c r="K50" s="185" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
-      <c r="N50" s="191"/>
-      <c r="O50" s="191"/>
-      <c r="P50" s="191"/>
-      <c r="Q50" s="191"/>
-      <c r="R50" s="191"/>
-      <c r="S50" s="191"/>
-      <c r="T50" s="191"/>
-      <c r="U50" s="175"/>
-      <c r="V50" s="175"/>
-      <c r="W50" s="175"/>
-      <c r="X50" s="175"/>
-      <c r="Y50" s="175"/>
-      <c r="Z50" s="175"/>
-      <c r="AA50" s="175"/>
-      <c r="AB50" s="175"/>
-      <c r="AC50" s="175"/>
-      <c r="AD50" s="175"/>
-      <c r="AE50" s="175"/>
+      <c r="L50" s="185"/>
+      <c r="M50" s="185"/>
+      <c r="N50" s="185"/>
+      <c r="O50" s="185"/>
+      <c r="P50" s="185"/>
+      <c r="Q50" s="185"/>
+      <c r="R50" s="185"/>
+      <c r="S50" s="185"/>
+      <c r="T50" s="185"/>
+      <c r="U50" s="169"/>
+      <c r="V50" s="169"/>
+      <c r="W50" s="169"/>
+      <c r="X50" s="169"/>
+      <c r="Y50" s="169"/>
+      <c r="Z50" s="169"/>
+      <c r="AA50" s="169"/>
+      <c r="AB50" s="169"/>
+      <c r="AC50" s="169"/>
+      <c r="AD50" s="169"/>
+      <c r="AE50" s="169"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="69"/>
     </row>
@@ -10152,9 +10133,9 @@
       <c r="C52" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
       <c r="G52" s="31"/>
       <c r="H52" s="31"/>
       <c r="I52" s="32"/>
@@ -10352,7 +10333,7 @@
     </row>
     <row r="56" spans="1:59" ht="24" customHeight="1">
       <c r="C56" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
@@ -10415,7 +10396,7 @@
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
@@ -10478,7 +10459,7 @@
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="19"/>
@@ -10520,8 +10501,8 @@
       <c r="B59" s="16"/>
       <c r="C59" s="55"/>
       <c r="D59" s="45"/>
-      <c r="F59" s="110" t="s">
-        <v>260</v>
+      <c r="F59" s="111" t="s">
+        <v>261</v>
       </c>
       <c r="G59" s="45"/>
       <c r="H59" s="20"/>
@@ -10562,8 +10543,8 @@
       <c r="B60" s="16"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
-      <c r="F60" s="110" t="s">
-        <v>261</v>
+      <c r="F60" s="111" t="s">
+        <v>262</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
@@ -10605,8 +10586,8 @@
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
-      <c r="F61" s="110" t="s">
-        <v>262</v>
+      <c r="F61" s="111" t="s">
+        <v>263</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -10692,38 +10673,38 @@
       <c r="B63" s="16"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
-      <c r="E63" s="135" t="s">
+      <c r="E63" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="136"/>
-      <c r="G63" s="135" t="s">
+      <c r="F63" s="137"/>
+      <c r="G63" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="136"/>
-      <c r="I63" s="135" t="s">
+      <c r="H63" s="137"/>
+      <c r="I63" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="J63" s="137"/>
-      <c r="K63" s="137"/>
-      <c r="L63" s="138"/>
-      <c r="M63" s="138"/>
-      <c r="N63" s="138"/>
-      <c r="O63" s="138"/>
-      <c r="P63" s="138"/>
-      <c r="Q63" s="138"/>
-      <c r="R63" s="138"/>
-      <c r="S63" s="138"/>
-      <c r="T63" s="138"/>
-      <c r="U63" s="138"/>
-      <c r="V63" s="138"/>
-      <c r="W63" s="139"/>
-      <c r="X63" s="139"/>
-      <c r="Y63" s="139"/>
-      <c r="Z63" s="139"/>
-      <c r="AA63" s="139"/>
-      <c r="AB63" s="139"/>
-      <c r="AC63" s="139"/>
-      <c r="AD63" s="140"/>
+      <c r="J63" s="138"/>
+      <c r="K63" s="138"/>
+      <c r="L63" s="139"/>
+      <c r="M63" s="139"/>
+      <c r="N63" s="139"/>
+      <c r="O63" s="139"/>
+      <c r="P63" s="139"/>
+      <c r="Q63" s="139"/>
+      <c r="R63" s="139"/>
+      <c r="S63" s="139"/>
+      <c r="T63" s="139"/>
+      <c r="U63" s="139"/>
+      <c r="V63" s="139"/>
+      <c r="W63" s="140"/>
+      <c r="X63" s="140"/>
+      <c r="Y63" s="140"/>
+      <c r="Z63" s="140"/>
+      <c r="AA63" s="140"/>
+      <c r="AB63" s="140"/>
+      <c r="AC63" s="140"/>
+      <c r="AD63" s="141"/>
       <c r="AE63" s="16"/>
       <c r="AF63" s="16"/>
       <c r="AG63" s="16"/>
@@ -10742,16 +10723,16 @@
       <c r="E64" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="141"/>
-      <c r="G64" s="142" t="s">
+      <c r="F64" s="142"/>
+      <c r="G64" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="141"/>
+      <c r="H64" s="142"/>
       <c r="I64" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="J64" s="143"/>
-      <c r="K64" s="143"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="144"/>
       <c r="L64" s="33"/>
       <c r="M64" s="33"/>
       <c r="N64" s="33"/>
@@ -10786,19 +10767,19 @@
       <c r="B65" s="16"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
-      <c r="E65" s="131" t="s">
+      <c r="E65" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="F65" s="144"/>
+      <c r="F65" s="145"/>
       <c r="G65" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="145"/>
+      <c r="H65" s="146"/>
       <c r="I65" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="J65" s="143"/>
-      <c r="K65" s="143"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
       <c r="L65" s="59"/>
       <c r="M65" s="59"/>
       <c r="N65" s="59"/>
@@ -10836,16 +10817,16 @@
       <c r="E66" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="141"/>
-      <c r="G66" s="142" t="s">
+      <c r="F66" s="142"/>
+      <c r="G66" s="143" t="s">
         <v>29</v>
       </c>
-      <c r="H66" s="141"/>
+      <c r="H66" s="142"/>
       <c r="I66" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="J66" s="143"/>
-      <c r="K66" s="143"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
       <c r="L66" s="59"/>
       <c r="M66" s="59"/>
       <c r="N66" s="59"/>
@@ -10880,10 +10861,10 @@
       <c r="B67" s="16"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="147"/>
+      <c r="E67" s="147"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="148"/>
       <c r="I67" s="44" t="s">
         <v>32</v>
       </c>
@@ -10907,7 +10888,7 @@
       <c r="AA67" s="16"/>
       <c r="AB67" s="16"/>
       <c r="AC67" s="16"/>
-      <c r="AD67" s="148"/>
+      <c r="AD67" s="149"/>
       <c r="AE67" s="16"/>
       <c r="AF67" s="16"/>
       <c r="AG67" s="16"/>
@@ -10925,7 +10906,7 @@
       <c r="D68" s="17"/>
       <c r="E68" s="104"/>
       <c r="F68" s="47"/>
-      <c r="G68" s="149"/>
+      <c r="G68" s="150"/>
       <c r="H68" s="69"/>
       <c r="I68" s="44" t="s">
         <v>33</v>
@@ -10950,7 +10931,7 @@
       <c r="AA68" s="16"/>
       <c r="AB68" s="16"/>
       <c r="AC68" s="16"/>
-      <c r="AD68" s="148"/>
+      <c r="AD68" s="149"/>
       <c r="AE68" s="16"/>
       <c r="AF68" s="16"/>
       <c r="AG68" s="16"/>
@@ -10966,11 +10947,11 @@
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="150"/>
+      <c r="E69" s="151"/>
       <c r="F69" s="103"/>
-      <c r="G69" s="151"/>
+      <c r="G69" s="152"/>
       <c r="H69" s="49"/>
-      <c r="I69" s="129" t="s">
+      <c r="I69" s="130" t="s">
         <v>90</v>
       </c>
       <c r="J69" s="48"/>
@@ -11055,7 +11036,7 @@
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -11098,7 +11079,7 @@
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -11360,7 +11341,7 @@
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -11403,7 +11384,7 @@
       <c r="C79" s="17"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -11446,7 +11427,7 @@
       <c r="C80" s="17"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="20"/>
@@ -11488,8 +11469,8 @@
       <c r="B81" s="16"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
-      <c r="E81" s="111" t="s">
-        <v>266</v>
+      <c r="E81" s="112" t="s">
+        <v>267</v>
       </c>
       <c r="F81" s="19"/>
       <c r="H81" s="19"/>
@@ -12000,7 +11981,7 @@
         <v>138</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
@@ -12041,8 +12022,8 @@
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="111" t="s">
-        <v>268</v>
+      <c r="E94" s="112" t="s">
+        <v>269</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="20"/>
@@ -12437,7 +12418,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -12453,915 +12434,910 @@
       </c>
     </row>
     <row r="3" spans="1:38" ht="12" customHeight="1">
-      <c r="X3" s="217" t="s">
+      <c r="X3" s="211" t="s">
         <v>232</v>
       </c>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217" t="s">
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="211" t="s">
         <v>234</v>
       </c>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="217"/>
+      <c r="AC3" s="211"/>
+      <c r="AD3" s="211"/>
+      <c r="AE3" s="211"/>
     </row>
     <row r="4" spans="1:38" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="234" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="166" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="240" t="s">
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162" t="s">
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="224" t="s">
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="218" t="s">
         <v>244</v>
       </c>
-      <c r="Y4" s="225"/>
-      <c r="Z4" s="224" t="s">
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="218" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="225"/>
-      <c r="AB4" s="224" t="s">
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="218" t="s">
         <v>244</v>
       </c>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="224" t="s">
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="218" t="s">
         <v>125</v>
       </c>
-      <c r="AE4" s="225"/>
-      <c r="AF4" s="166" t="s">
+      <c r="AE4" s="219"/>
+      <c r="AF4" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="165"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="159"/>
       <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="109"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
     </row>
     <row r="5" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="235" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="230" t="s">
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="224" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="242" t="s">
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="236" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="181" t="s">
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="236"/>
+      <c r="N5" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="226">
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="175"/>
+      <c r="U5" s="175"/>
+      <c r="V5" s="175"/>
+      <c r="W5" s="175"/>
+      <c r="X5" s="220">
         <v>2</v>
       </c>
-      <c r="Y5" s="227"/>
-      <c r="Z5" s="233">
+      <c r="Y5" s="221"/>
+      <c r="Z5" s="227">
         <v>1500000</v>
       </c>
-      <c r="AA5" s="234"/>
-      <c r="AB5" s="226">
+      <c r="AA5" s="228"/>
+      <c r="AB5" s="220">
         <v>3</v>
       </c>
-      <c r="AC5" s="227"/>
-      <c r="AD5" s="233">
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="227">
         <v>2250000</v>
       </c>
-      <c r="AE5" s="234"/>
+      <c r="AE5" s="228"/>
       <c r="AF5" s="92"/>
       <c r="AG5" s="93"/>
-      <c r="AH5" s="294"/>
-      <c r="AI5" s="158"/>
+      <c r="AH5" s="93"/>
+      <c r="AI5" s="100"/>
       <c r="AJ5" s="101"/>
       <c r="AK5" s="101"/>
       <c r="AL5" s="101"/>
     </row>
     <row r="6" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="243" t="s">
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="237" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="238" t="s">
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="239"/>
+      <c r="J6" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="239" t="s">
+      <c r="K6" s="232"/>
+      <c r="L6" s="232"/>
+      <c r="M6" s="232"/>
+      <c r="N6" s="233" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="239"/>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="239"/>
-      <c r="U6" s="239"/>
-      <c r="V6" s="239"/>
-      <c r="W6" s="239"/>
-      <c r="X6" s="228">
+      <c r="O6" s="233"/>
+      <c r="P6" s="233"/>
+      <c r="Q6" s="233"/>
+      <c r="R6" s="233"/>
+      <c r="S6" s="233"/>
+      <c r="T6" s="233"/>
+      <c r="U6" s="233"/>
+      <c r="V6" s="233"/>
+      <c r="W6" s="233"/>
+      <c r="X6" s="222">
         <v>1</v>
       </c>
-      <c r="Y6" s="229"/>
-      <c r="Z6" s="235">
+      <c r="Y6" s="223"/>
+      <c r="Z6" s="229">
         <v>500000</v>
       </c>
-      <c r="AA6" s="236"/>
-      <c r="AB6" s="228">
+      <c r="AA6" s="230"/>
+      <c r="AB6" s="222">
         <v>1</v>
       </c>
-      <c r="AC6" s="229"/>
-      <c r="AD6" s="235">
+      <c r="AC6" s="223"/>
+      <c r="AD6" s="229">
         <v>500000</v>
       </c>
-      <c r="AE6" s="236"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="153"/>
-      <c r="AH6" s="154"/>
-      <c r="AI6" s="158"/>
+      <c r="AE6" s="230"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="100"/>
       <c r="AJ6" s="101"/>
       <c r="AK6" s="101"/>
       <c r="AL6" s="101"/>
     </row>
     <row r="7" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="243" t="s">
+      <c r="C7" s="232"/>
+      <c r="D7" s="232"/>
+      <c r="E7" s="237" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="238" t="s">
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="239" t="s">
+      <c r="K7" s="232"/>
+      <c r="L7" s="232"/>
+      <c r="M7" s="232"/>
+      <c r="N7" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="O7" s="239"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="239"/>
-      <c r="U7" s="239"/>
-      <c r="V7" s="239"/>
-      <c r="W7" s="239"/>
-      <c r="X7" s="228">
+      <c r="O7" s="233"/>
+      <c r="P7" s="233"/>
+      <c r="Q7" s="233"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="233"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="233"/>
+      <c r="W7" s="233"/>
+      <c r="X7" s="222">
         <v>50</v>
       </c>
-      <c r="Y7" s="229"/>
-      <c r="Z7" s="218">
+      <c r="Y7" s="223"/>
+      <c r="Z7" s="212">
         <v>30000</v>
       </c>
-      <c r="AA7" s="219"/>
-      <c r="AB7" s="228">
+      <c r="AA7" s="213"/>
+      <c r="AB7" s="222">
         <v>80</v>
       </c>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="218">
+      <c r="AC7" s="223"/>
+      <c r="AD7" s="212">
         <v>76800</v>
       </c>
-      <c r="AE7" s="219"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="154"/>
-      <c r="AI7" s="158"/>
+      <c r="AE7" s="213"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="100"/>
       <c r="AJ7" s="101"/>
       <c r="AK7" s="101"/>
       <c r="AL7" s="101"/>
     </row>
     <row r="8" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B8" s="237" t="s">
+      <c r="B8" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="243" t="s">
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="237" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="238" t="s">
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="232" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239" t="s">
+      <c r="K8" s="232"/>
+      <c r="L8" s="232"/>
+      <c r="M8" s="232"/>
+      <c r="N8" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="239"/>
-      <c r="P8" s="239"/>
-      <c r="Q8" s="239"/>
-      <c r="R8" s="239"/>
-      <c r="S8" s="239"/>
-      <c r="T8" s="239"/>
-      <c r="U8" s="239"/>
-      <c r="V8" s="239"/>
-      <c r="W8" s="239"/>
-      <c r="X8" s="228">
+      <c r="O8" s="233"/>
+      <c r="P8" s="233"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="233"/>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="233"/>
+      <c r="V8" s="233"/>
+      <c r="W8" s="233"/>
+      <c r="X8" s="222">
         <v>150</v>
       </c>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="218">
+      <c r="Y8" s="223"/>
+      <c r="Z8" s="212">
         <v>2500000</v>
       </c>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="228">
+      <c r="AA8" s="213"/>
+      <c r="AB8" s="222">
         <v>342</v>
       </c>
-      <c r="AC8" s="229"/>
-      <c r="AD8" s="218">
+      <c r="AC8" s="223"/>
+      <c r="AD8" s="212">
         <v>6750000</v>
       </c>
-      <c r="AE8" s="219"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="153"/>
-      <c r="AH8" s="154"/>
-      <c r="AI8" s="158"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="100"/>
       <c r="AJ8" s="101"/>
       <c r="AK8" s="101"/>
       <c r="AL8" s="101"/>
     </row>
     <row r="9" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B9" s="237" t="s">
+      <c r="B9" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="243" t="s">
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="238" t="s">
+      <c r="F9" s="238"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="239"/>
+      <c r="J9" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="239" t="s">
+      <c r="K9" s="232"/>
+      <c r="L9" s="232"/>
+      <c r="M9" s="232"/>
+      <c r="N9" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="239"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="239"/>
-      <c r="S9" s="239"/>
-      <c r="T9" s="239"/>
-      <c r="U9" s="239"/>
-      <c r="V9" s="239"/>
-      <c r="W9" s="239"/>
-      <c r="X9" s="220" t="s">
+      <c r="O9" s="233"/>
+      <c r="P9" s="233"/>
+      <c r="Q9" s="233"/>
+      <c r="R9" s="233"/>
+      <c r="S9" s="233"/>
+      <c r="T9" s="233"/>
+      <c r="U9" s="233"/>
+      <c r="V9" s="233"/>
+      <c r="W9" s="233"/>
+      <c r="X9" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="220" t="s">
+      <c r="Y9" s="215"/>
+      <c r="Z9" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="220" t="s">
+      <c r="AA9" s="215"/>
+      <c r="AB9" s="214" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="220" t="s">
+      <c r="AC9" s="215"/>
+      <c r="AD9" s="214" t="s">
         <v>233</v>
       </c>
-      <c r="AE9" s="221"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="154"/>
-      <c r="AI9" s="158"/>
+      <c r="AE9" s="215"/>
+      <c r="AF9" s="89"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="100"/>
       <c r="AJ9" s="101"/>
       <c r="AK9" s="101"/>
       <c r="AL9" s="101"/>
     </row>
     <row r="10" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="239"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="239"/>
-      <c r="S10" s="239"/>
-      <c r="T10" s="239"/>
-      <c r="U10" s="239"/>
-      <c r="V10" s="239"/>
-      <c r="W10" s="239"/>
-      <c r="X10" s="220"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="220"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="220"/>
-      <c r="AC10" s="221"/>
-      <c r="AD10" s="220"/>
-      <c r="AE10" s="221"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="154"/>
-      <c r="AI10" s="158"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="232"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="238"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="232"/>
+      <c r="L10" s="232"/>
+      <c r="M10" s="232"/>
+      <c r="N10" s="233"/>
+      <c r="O10" s="233"/>
+      <c r="P10" s="233"/>
+      <c r="Q10" s="233"/>
+      <c r="R10" s="233"/>
+      <c r="S10" s="233"/>
+      <c r="T10" s="233"/>
+      <c r="U10" s="233"/>
+      <c r="V10" s="233"/>
+      <c r="W10" s="233"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="215"/>
+      <c r="Z10" s="214"/>
+      <c r="AA10" s="215"/>
+      <c r="AB10" s="214"/>
+      <c r="AC10" s="215"/>
+      <c r="AD10" s="214"/>
+      <c r="AE10" s="215"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="100"/>
       <c r="AJ10" s="101"/>
       <c r="AK10" s="101"/>
       <c r="AL10" s="101"/>
     </row>
     <row r="11" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B11" s="237"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="239"/>
-      <c r="O11" s="239"/>
-      <c r="P11" s="239"/>
-      <c r="Q11" s="239"/>
-      <c r="R11" s="239"/>
-      <c r="S11" s="239"/>
-      <c r="T11" s="239"/>
-      <c r="U11" s="239"/>
-      <c r="V11" s="239"/>
-      <c r="W11" s="239"/>
-      <c r="X11" s="220"/>
-      <c r="Y11" s="221"/>
-      <c r="Z11" s="220"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="220"/>
-      <c r="AC11" s="221"/>
-      <c r="AD11" s="220"/>
-      <c r="AE11" s="221"/>
-      <c r="AF11" s="152"/>
-      <c r="AG11" s="153"/>
-      <c r="AH11" s="154"/>
-      <c r="AI11" s="158"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="232"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="232"/>
+      <c r="M11" s="232"/>
+      <c r="N11" s="233"/>
+      <c r="O11" s="233"/>
+      <c r="P11" s="233"/>
+      <c r="Q11" s="233"/>
+      <c r="R11" s="233"/>
+      <c r="S11" s="233"/>
+      <c r="T11" s="233"/>
+      <c r="U11" s="233"/>
+      <c r="V11" s="233"/>
+      <c r="W11" s="233"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="215"/>
+      <c r="Z11" s="214"/>
+      <c r="AA11" s="215"/>
+      <c r="AB11" s="214"/>
+      <c r="AC11" s="215"/>
+      <c r="AD11" s="214"/>
+      <c r="AE11" s="215"/>
+      <c r="AF11" s="89"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="100"/>
       <c r="AJ11" s="101"/>
       <c r="AK11" s="101"/>
       <c r="AL11" s="101"/>
     </row>
     <row r="12" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B12" s="237"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="245"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="239"/>
-      <c r="O12" s="239"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="239"/>
-      <c r="R12" s="239"/>
-      <c r="S12" s="239"/>
-      <c r="T12" s="239"/>
-      <c r="U12" s="239"/>
-      <c r="V12" s="239"/>
-      <c r="W12" s="239"/>
-      <c r="X12" s="220"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="220"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="220"/>
-      <c r="AC12" s="221"/>
-      <c r="AD12" s="220"/>
-      <c r="AE12" s="221"/>
-      <c r="AF12" s="152"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="154"/>
-      <c r="AI12" s="158"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="238"/>
+      <c r="G12" s="238"/>
+      <c r="H12" s="238"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="232"/>
+      <c r="L12" s="232"/>
+      <c r="M12" s="232"/>
+      <c r="N12" s="233"/>
+      <c r="O12" s="233"/>
+      <c r="P12" s="233"/>
+      <c r="Q12" s="233"/>
+      <c r="R12" s="233"/>
+      <c r="S12" s="233"/>
+      <c r="T12" s="233"/>
+      <c r="U12" s="233"/>
+      <c r="V12" s="233"/>
+      <c r="W12" s="233"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="215"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="215"/>
+      <c r="AD12" s="214"/>
+      <c r="AE12" s="215"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="100"/>
       <c r="AJ12" s="101"/>
       <c r="AK12" s="101"/>
       <c r="AL12" s="101"/>
     </row>
     <row r="13" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B13" s="237"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="239"/>
-      <c r="S13" s="239"/>
-      <c r="T13" s="239"/>
-      <c r="U13" s="239"/>
-      <c r="V13" s="239"/>
-      <c r="W13" s="239"/>
-      <c r="X13" s="220"/>
-      <c r="Y13" s="221"/>
-      <c r="Z13" s="220"/>
-      <c r="AA13" s="221"/>
-      <c r="AB13" s="220"/>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="220"/>
-      <c r="AE13" s="221"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="153"/>
-      <c r="AH13" s="154"/>
-      <c r="AI13" s="158"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="232"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="238"/>
+      <c r="G13" s="238"/>
+      <c r="H13" s="238"/>
+      <c r="I13" s="239"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="232"/>
+      <c r="L13" s="232"/>
+      <c r="M13" s="232"/>
+      <c r="N13" s="233"/>
+      <c r="O13" s="233"/>
+      <c r="P13" s="233"/>
+      <c r="Q13" s="233"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="233"/>
+      <c r="T13" s="233"/>
+      <c r="U13" s="233"/>
+      <c r="V13" s="233"/>
+      <c r="W13" s="233"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="215"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="215"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="215"/>
+      <c r="AD13" s="214"/>
+      <c r="AE13" s="215"/>
+      <c r="AF13" s="89"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="100"/>
       <c r="AJ13" s="101"/>
       <c r="AK13" s="101"/>
       <c r="AL13" s="101"/>
     </row>
     <row r="14" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B14" s="237"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="245"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="239"/>
-      <c r="P14" s="239"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="239"/>
-      <c r="S14" s="239"/>
-      <c r="T14" s="239"/>
-      <c r="U14" s="239"/>
-      <c r="V14" s="239"/>
-      <c r="W14" s="239"/>
-      <c r="X14" s="220"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="220"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="220"/>
-      <c r="AC14" s="221"/>
-      <c r="AD14" s="220"/>
-      <c r="AE14" s="221"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="154"/>
-      <c r="AI14" s="158"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="239"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="233"/>
+      <c r="O14" s="233"/>
+      <c r="P14" s="233"/>
+      <c r="Q14" s="233"/>
+      <c r="R14" s="233"/>
+      <c r="S14" s="233"/>
+      <c r="T14" s="233"/>
+      <c r="U14" s="233"/>
+      <c r="V14" s="233"/>
+      <c r="W14" s="233"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="215"/>
+      <c r="Z14" s="214"/>
+      <c r="AA14" s="215"/>
+      <c r="AB14" s="214"/>
+      <c r="AC14" s="215"/>
+      <c r="AD14" s="214"/>
+      <c r="AE14" s="215"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="100"/>
       <c r="AJ14" s="101"/>
       <c r="AK14" s="101"/>
       <c r="AL14" s="101"/>
     </row>
     <row r="15" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="239"/>
-      <c r="O15" s="239"/>
-      <c r="P15" s="239"/>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="239"/>
-      <c r="S15" s="239"/>
-      <c r="T15" s="239"/>
-      <c r="U15" s="239"/>
-      <c r="V15" s="239"/>
-      <c r="W15" s="239"/>
-      <c r="X15" s="220"/>
-      <c r="Y15" s="221"/>
-      <c r="Z15" s="220"/>
-      <c r="AA15" s="221"/>
-      <c r="AB15" s="220"/>
-      <c r="AC15" s="221"/>
-      <c r="AD15" s="220"/>
-      <c r="AE15" s="221"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="153"/>
-      <c r="AH15" s="154"/>
-      <c r="AI15" s="158"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="232"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="232"/>
+      <c r="L15" s="232"/>
+      <c r="M15" s="232"/>
+      <c r="N15" s="233"/>
+      <c r="O15" s="233"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="233"/>
+      <c r="U15" s="233"/>
+      <c r="V15" s="233"/>
+      <c r="W15" s="233"/>
+      <c r="X15" s="214"/>
+      <c r="Y15" s="215"/>
+      <c r="Z15" s="214"/>
+      <c r="AA15" s="215"/>
+      <c r="AB15" s="214"/>
+      <c r="AC15" s="215"/>
+      <c r="AD15" s="214"/>
+      <c r="AE15" s="215"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="100"/>
       <c r="AJ15" s="101"/>
       <c r="AK15" s="101"/>
       <c r="AL15" s="101"/>
     </row>
     <row r="16" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B16" s="237"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="239"/>
-      <c r="O16" s="239"/>
-      <c r="P16" s="239"/>
-      <c r="Q16" s="239"/>
-      <c r="R16" s="239"/>
-      <c r="S16" s="239"/>
-      <c r="T16" s="239"/>
-      <c r="U16" s="239"/>
-      <c r="V16" s="239"/>
-      <c r="W16" s="239"/>
-      <c r="X16" s="220"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="220"/>
-      <c r="AA16" s="221"/>
-      <c r="AB16" s="220"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="220"/>
-      <c r="AE16" s="221"/>
-      <c r="AF16" s="152"/>
-      <c r="AG16" s="153"/>
-      <c r="AH16" s="154"/>
-      <c r="AI16" s="158"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="232"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="239"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="232"/>
+      <c r="L16" s="232"/>
+      <c r="M16" s="232"/>
+      <c r="N16" s="233"/>
+      <c r="O16" s="233"/>
+      <c r="P16" s="233"/>
+      <c r="Q16" s="233"/>
+      <c r="R16" s="233"/>
+      <c r="S16" s="233"/>
+      <c r="T16" s="233"/>
+      <c r="U16" s="233"/>
+      <c r="V16" s="233"/>
+      <c r="W16" s="233"/>
+      <c r="X16" s="214"/>
+      <c r="Y16" s="215"/>
+      <c r="Z16" s="214"/>
+      <c r="AA16" s="215"/>
+      <c r="AB16" s="214"/>
+      <c r="AC16" s="215"/>
+      <c r="AD16" s="214"/>
+      <c r="AE16" s="215"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="100"/>
       <c r="AJ16" s="101"/>
       <c r="AK16" s="101"/>
       <c r="AL16" s="101"/>
     </row>
     <row r="17" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B17" s="237"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="244"/>
-      <c r="I17" s="245"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="239"/>
-      <c r="S17" s="239"/>
-      <c r="T17" s="239"/>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="220"/>
-      <c r="Y17" s="221"/>
-      <c r="Z17" s="220"/>
-      <c r="AA17" s="221"/>
-      <c r="AB17" s="220"/>
-      <c r="AC17" s="221"/>
-      <c r="AD17" s="220"/>
-      <c r="AE17" s="221"/>
-      <c r="AF17" s="152"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="154"/>
-      <c r="AI17" s="158"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="232"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="239"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="233"/>
+      <c r="P17" s="233"/>
+      <c r="Q17" s="233"/>
+      <c r="R17" s="233"/>
+      <c r="S17" s="233"/>
+      <c r="T17" s="233"/>
+      <c r="U17" s="233"/>
+      <c r="V17" s="233"/>
+      <c r="W17" s="233"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="215"/>
+      <c r="Z17" s="214"/>
+      <c r="AA17" s="215"/>
+      <c r="AB17" s="214"/>
+      <c r="AC17" s="215"/>
+      <c r="AD17" s="214"/>
+      <c r="AE17" s="215"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="100"/>
       <c r="AJ17" s="101"/>
       <c r="AK17" s="101"/>
       <c r="AL17" s="101"/>
     </row>
     <row r="18" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B18" s="237"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="245"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="239"/>
-      <c r="O18" s="239"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="239"/>
-      <c r="S18" s="239"/>
-      <c r="T18" s="239"/>
-      <c r="U18" s="239"/>
-      <c r="V18" s="239"/>
-      <c r="W18" s="239"/>
-      <c r="X18" s="220"/>
-      <c r="Y18" s="221"/>
-      <c r="Z18" s="220"/>
-      <c r="AA18" s="221"/>
-      <c r="AB18" s="220"/>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="220"/>
-      <c r="AE18" s="221"/>
-      <c r="AF18" s="152"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="154"/>
-      <c r="AI18" s="158"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="237"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="238"/>
+      <c r="H18" s="238"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="232"/>
+      <c r="L18" s="232"/>
+      <c r="M18" s="232"/>
+      <c r="N18" s="233"/>
+      <c r="O18" s="233"/>
+      <c r="P18" s="233"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="233"/>
+      <c r="S18" s="233"/>
+      <c r="T18" s="233"/>
+      <c r="U18" s="233"/>
+      <c r="V18" s="233"/>
+      <c r="W18" s="233"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="215"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="215"/>
+      <c r="AB18" s="214"/>
+      <c r="AC18" s="215"/>
+      <c r="AD18" s="214"/>
+      <c r="AE18" s="215"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="100"/>
       <c r="AJ18" s="101"/>
       <c r="AK18" s="101"/>
       <c r="AL18" s="101"/>
     </row>
     <row r="19" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B19" s="237"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="239"/>
-      <c r="P19" s="239"/>
-      <c r="Q19" s="239"/>
-      <c r="R19" s="239"/>
-      <c r="S19" s="239"/>
-      <c r="T19" s="239"/>
-      <c r="U19" s="239"/>
-      <c r="V19" s="239"/>
-      <c r="W19" s="239"/>
-      <c r="X19" s="220"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="220"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="220"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="220"/>
-      <c r="AE19" s="221"/>
-      <c r="AF19" s="152"/>
-      <c r="AG19" s="153"/>
-      <c r="AH19" s="154"/>
-      <c r="AI19" s="158"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="232"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="239"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
+      <c r="L19" s="232"/>
+      <c r="M19" s="232"/>
+      <c r="N19" s="233"/>
+      <c r="O19" s="233"/>
+      <c r="P19" s="233"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
+      <c r="U19" s="233"/>
+      <c r="V19" s="233"/>
+      <c r="W19" s="233"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="215"/>
+      <c r="Z19" s="214"/>
+      <c r="AA19" s="215"/>
+      <c r="AB19" s="214"/>
+      <c r="AC19" s="215"/>
+      <c r="AD19" s="214"/>
+      <c r="AE19" s="215"/>
+      <c r="AF19" s="89"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="100"/>
       <c r="AJ19" s="101"/>
       <c r="AK19" s="101"/>
       <c r="AL19" s="101"/>
     </row>
     <row r="20" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B20" s="237"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="239"/>
-      <c r="O20" s="239"/>
-      <c r="P20" s="239"/>
-      <c r="Q20" s="239"/>
-      <c r="R20" s="239"/>
-      <c r="S20" s="239"/>
-      <c r="T20" s="239"/>
-      <c r="U20" s="239"/>
-      <c r="V20" s="239"/>
-      <c r="W20" s="239"/>
-      <c r="X20" s="220"/>
-      <c r="Y20" s="221"/>
-      <c r="Z20" s="220"/>
-      <c r="AA20" s="221"/>
-      <c r="AB20" s="220"/>
-      <c r="AC20" s="221"/>
-      <c r="AD20" s="220"/>
-      <c r="AE20" s="221"/>
-      <c r="AF20" s="152"/>
-      <c r="AG20" s="153"/>
-      <c r="AH20" s="154"/>
-      <c r="AI20" s="158"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="237"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="233"/>
+      <c r="O20" s="233"/>
+      <c r="P20" s="233"/>
+      <c r="Q20" s="233"/>
+      <c r="R20" s="233"/>
+      <c r="S20" s="233"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="233"/>
+      <c r="V20" s="233"/>
+      <c r="W20" s="233"/>
+      <c r="X20" s="214"/>
+      <c r="Y20" s="215"/>
+      <c r="Z20" s="214"/>
+      <c r="AA20" s="215"/>
+      <c r="AB20" s="214"/>
+      <c r="AC20" s="215"/>
+      <c r="AD20" s="214"/>
+      <c r="AE20" s="215"/>
+      <c r="AF20" s="89"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="100"/>
       <c r="AJ20" s="101"/>
       <c r="AK20" s="101"/>
       <c r="AL20" s="101"/>
     </row>
     <row r="21" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B21" s="237"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="245"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
-      <c r="M21" s="238"/>
-      <c r="N21" s="239"/>
-      <c r="O21" s="239"/>
-      <c r="P21" s="239"/>
-      <c r="Q21" s="239"/>
-      <c r="R21" s="239"/>
-      <c r="S21" s="239"/>
-      <c r="T21" s="239"/>
-      <c r="U21" s="239"/>
-      <c r="V21" s="239"/>
-      <c r="W21" s="239"/>
-      <c r="X21" s="220"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="220"/>
-      <c r="AA21" s="221"/>
-      <c r="AB21" s="220"/>
-      <c r="AC21" s="221"/>
-      <c r="AD21" s="220"/>
-      <c r="AE21" s="221"/>
-      <c r="AF21" s="152"/>
-      <c r="AG21" s="153"/>
-      <c r="AH21" s="154"/>
-      <c r="AI21" s="158"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="238"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="239"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="232"/>
+      <c r="L21" s="232"/>
+      <c r="M21" s="232"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="233"/>
+      <c r="P21" s="233"/>
+      <c r="Q21" s="233"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="233"/>
+      <c r="T21" s="233"/>
+      <c r="U21" s="233"/>
+      <c r="V21" s="233"/>
+      <c r="W21" s="233"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="215"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="215"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="215"/>
+      <c r="AD21" s="214"/>
+      <c r="AE21" s="215"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="100"/>
       <c r="AJ21" s="101"/>
       <c r="AK21" s="101"/>
       <c r="AL21" s="101"/>
     </row>
     <row r="22" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B22" s="248"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="249"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="249"/>
-      <c r="M22" s="249"/>
-      <c r="N22" s="250"/>
-      <c r="O22" s="250"/>
-      <c r="P22" s="250"/>
-      <c r="Q22" s="250"/>
-      <c r="R22" s="250"/>
-      <c r="S22" s="250"/>
-      <c r="T22" s="250"/>
-      <c r="U22" s="250"/>
-      <c r="V22" s="250"/>
-      <c r="W22" s="250"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="223"/>
-      <c r="Z22" s="222"/>
-      <c r="AA22" s="223"/>
-      <c r="AB22" s="222"/>
-      <c r="AC22" s="223"/>
-      <c r="AD22" s="222"/>
-      <c r="AE22" s="223"/>
+      <c r="B22" s="242"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="246"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="243"/>
+      <c r="K22" s="243"/>
+      <c r="L22" s="243"/>
+      <c r="M22" s="243"/>
+      <c r="N22" s="244"/>
+      <c r="O22" s="244"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="244"/>
+      <c r="U22" s="244"/>
+      <c r="V22" s="244"/>
+      <c r="W22" s="244"/>
+      <c r="X22" s="216"/>
+      <c r="Y22" s="217"/>
+      <c r="Z22" s="216"/>
+      <c r="AA22" s="217"/>
+      <c r="AB22" s="216"/>
+      <c r="AC22" s="217"/>
+      <c r="AD22" s="216"/>
+      <c r="AE22" s="217"/>
       <c r="AF22" s="107"/>
       <c r="AG22" s="108"/>
-      <c r="AH22" s="295"/>
-      <c r="AI22" s="158"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="100"/>
       <c r="AJ22" s="101"/>
       <c r="AK22" s="101"/>
       <c r="AL22" s="101"/>
     </row>
     <row r="23" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B23" s="241" t="s">
+      <c r="B23" s="235" t="s">
         <v>231</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
-      <c r="T23" s="181"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
-      <c r="W23" s="181"/>
-      <c r="X23" s="246">
+      <c r="C23" s="236"/>
+      <c r="D23" s="236"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="236"/>
+      <c r="K23" s="236"/>
+      <c r="L23" s="236"/>
+      <c r="M23" s="236"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="240">
         <f>SUM(X5:Y8)</f>
         <v>203</v>
       </c>
-      <c r="Y23" s="247"/>
-      <c r="Z23" s="257">
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="251">
         <f>SUM(Z5:AA8)</f>
         <v>4530000</v>
       </c>
-      <c r="AA23" s="258"/>
-      <c r="AB23" s="246">
+      <c r="AA23" s="252"/>
+      <c r="AB23" s="240">
         <f>SUM(AB5:AC8)</f>
         <v>426</v>
       </c>
-      <c r="AC23" s="259"/>
-      <c r="AD23" s="257">
+      <c r="AC23" s="253"/>
+      <c r="AD23" s="251">
         <f>SUM(AD5:AE8)</f>
         <v>9576800</v>
       </c>
-      <c r="AE23" s="258"/>
-      <c r="AF23" s="155"/>
-      <c r="AG23" s="156"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="158"/>
+      <c r="AE23" s="252"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="100"/>
       <c r="AJ23" s="101"/>
       <c r="AK23" s="101"/>
       <c r="AL23" s="101"/>
-    </row>
-    <row r="24" spans="2:38" ht="12" customHeight="1">
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="163">
@@ -13557,303 +13533,303 @@
     </row>
     <row r="3" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
     <row r="4" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="263" t="s">
+      <c r="A4" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263" t="s">
+      <c r="B4" s="257"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="257"/>
+      <c r="F4" s="257" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263" t="s">
+      <c r="G4" s="257"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="257"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="257" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="264" t="s">
+      <c r="L4" s="257"/>
+      <c r="M4" s="257"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="257"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="263"/>
-      <c r="S4" s="265" t="s">
+      <c r="R4" s="257"/>
+      <c r="S4" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="266"/>
-      <c r="U4" s="266"/>
-      <c r="V4" s="266"/>
-      <c r="W4" s="266"/>
-      <c r="X4" s="266"/>
-      <c r="Y4" s="266"/>
-      <c r="Z4" s="266"/>
-      <c r="AA4" s="266"/>
-      <c r="AB4" s="266"/>
-      <c r="AC4" s="266"/>
-      <c r="AD4" s="266"/>
-      <c r="AE4" s="266"/>
-      <c r="AF4" s="269" t="s">
+      <c r="T4" s="260"/>
+      <c r="U4" s="260"/>
+      <c r="V4" s="260"/>
+      <c r="W4" s="260"/>
+      <c r="X4" s="260"/>
+      <c r="Y4" s="260"/>
+      <c r="Z4" s="260"/>
+      <c r="AA4" s="260"/>
+      <c r="AB4" s="260"/>
+      <c r="AC4" s="260"/>
+      <c r="AD4" s="260"/>
+      <c r="AE4" s="260"/>
+      <c r="AF4" s="263" t="s">
         <v>139</v>
       </c>
-      <c r="AG4" s="270"/>
-      <c r="AH4" s="271"/>
+      <c r="AG4" s="264"/>
+      <c r="AH4" s="265"/>
     </row>
     <row r="5" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
       <c r="F5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
       <c r="K5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="162" t="s">
+      <c r="L5" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="267"/>
-      <c r="T5" s="268"/>
-      <c r="U5" s="268"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
-      <c r="AA5" s="268"/>
-      <c r="AB5" s="268"/>
-      <c r="AC5" s="268"/>
-      <c r="AD5" s="268"/>
-      <c r="AE5" s="268"/>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="274"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="261"/>
+      <c r="T5" s="262"/>
+      <c r="U5" s="262"/>
+      <c r="V5" s="262"/>
+      <c r="W5" s="262"/>
+      <c r="X5" s="262"/>
+      <c r="Y5" s="262"/>
+      <c r="Z5" s="262"/>
+      <c r="AA5" s="262"/>
+      <c r="AB5" s="262"/>
+      <c r="AC5" s="262"/>
+      <c r="AD5" s="262"/>
+      <c r="AE5" s="262"/>
+      <c r="AF5" s="266"/>
+      <c r="AG5" s="267"/>
+      <c r="AH5" s="268"/>
     </row>
     <row r="6" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" thickTop="1">
       <c r="A6" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="269" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="271"/>
       <c r="F6" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="168" t="s">
+      <c r="G6" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="276"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="277"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="271"/>
       <c r="K6" s="71">
         <v>10</v>
       </c>
-      <c r="L6" s="278" t="s">
+      <c r="L6" s="272" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="279"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="278" t="s">
+      <c r="M6" s="273"/>
+      <c r="N6" s="273"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="274"/>
+      <c r="Q6" s="272" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="280"/>
-      <c r="S6" s="177" t="s">
+      <c r="R6" s="274"/>
+      <c r="S6" s="171" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="178"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="178"/>
-      <c r="W6" s="178"/>
-      <c r="X6" s="178"/>
-      <c r="Y6" s="178"/>
-      <c r="Z6" s="178"/>
-      <c r="AA6" s="178"/>
-      <c r="AB6" s="178"/>
-      <c r="AC6" s="178"/>
-      <c r="AD6" s="178"/>
-      <c r="AE6" s="178"/>
-      <c r="AF6" s="260" t="s">
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="172"/>
+      <c r="X6" s="172"/>
+      <c r="Y6" s="172"/>
+      <c r="Z6" s="172"/>
+      <c r="AA6" s="172"/>
+      <c r="AB6" s="172"/>
+      <c r="AC6" s="172"/>
+      <c r="AD6" s="172"/>
+      <c r="AE6" s="172"/>
+      <c r="AF6" s="254" t="s">
         <v>110</v>
       </c>
-      <c r="AG6" s="261"/>
-      <c r="AH6" s="262"/>
+      <c r="AG6" s="255"/>
+      <c r="AH6" s="256"/>
     </row>
     <row r="7" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="82"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="278"/>
+      <c r="E7" s="279"/>
       <c r="F7" s="73"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="285"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="279"/>
       <c r="K7" s="75">
         <v>20</v>
       </c>
-      <c r="L7" s="286" t="s">
+      <c r="L7" s="280" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="287"/>
-      <c r="N7" s="287"/>
-      <c r="O7" s="287"/>
-      <c r="P7" s="288"/>
-      <c r="Q7" s="286" t="s">
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="282"/>
+      <c r="Q7" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="288"/>
-      <c r="S7" s="159" t="s">
+      <c r="R7" s="282"/>
+      <c r="S7" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="281" t="s">
+      <c r="T7" s="154"/>
+      <c r="U7" s="154"/>
+      <c r="V7" s="154"/>
+      <c r="W7" s="154"/>
+      <c r="X7" s="154"/>
+      <c r="Y7" s="154"/>
+      <c r="Z7" s="154"/>
+      <c r="AA7" s="154"/>
+      <c r="AB7" s="154"/>
+      <c r="AC7" s="154"/>
+      <c r="AD7" s="154"/>
+      <c r="AE7" s="154"/>
+      <c r="AF7" s="275" t="s">
         <v>110</v>
       </c>
-      <c r="AG7" s="282"/>
-      <c r="AH7" s="221"/>
+      <c r="AG7" s="276"/>
+      <c r="AH7" s="215"/>
     </row>
     <row r="8" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A8" s="82"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="285"/>
+      <c r="B8" s="277"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="279"/>
       <c r="F8" s="73"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="285"/>
+      <c r="G8" s="277"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="279"/>
       <c r="K8" s="75">
         <v>30</v>
       </c>
-      <c r="L8" s="286" t="s">
+      <c r="L8" s="280" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="287"/>
-      <c r="N8" s="287"/>
-      <c r="O8" s="287"/>
-      <c r="P8" s="288"/>
-      <c r="Q8" s="286" t="s">
+      <c r="M8" s="281"/>
+      <c r="N8" s="281"/>
+      <c r="O8" s="281"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="288"/>
-      <c r="S8" s="159" t="s">
+      <c r="R8" s="282"/>
+      <c r="S8" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="281" t="s">
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="154"/>
+      <c r="AF8" s="275" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="282"/>
-      <c r="AH8" s="221"/>
+      <c r="AG8" s="276"/>
+      <c r="AH8" s="215"/>
     </row>
     <row r="9" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A9" s="82"/>
-      <c r="B9" s="283"/>
-      <c r="C9" s="284"/>
-      <c r="D9" s="284"/>
-      <c r="E9" s="285"/>
+      <c r="B9" s="277"/>
+      <c r="C9" s="278"/>
+      <c r="D9" s="278"/>
+      <c r="E9" s="279"/>
       <c r="F9" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="190" t="s">
+      <c r="G9" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="292"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="286"/>
       <c r="K9" s="75">
         <v>10</v>
       </c>
-      <c r="L9" s="286" t="s">
+      <c r="L9" s="280" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="287"/>
-      <c r="N9" s="287"/>
-      <c r="O9" s="287"/>
-      <c r="P9" s="288"/>
-      <c r="Q9" s="286" t="s">
+      <c r="M9" s="281"/>
+      <c r="N9" s="281"/>
+      <c r="O9" s="281"/>
+      <c r="P9" s="282"/>
+      <c r="Q9" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="288"/>
-      <c r="S9" s="159" t="s">
+      <c r="R9" s="282"/>
+      <c r="S9" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="281" t="s">
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+      <c r="V9" s="154"/>
+      <c r="W9" s="154"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" s="289"/>
-      <c r="AH9" s="290"/>
+      <c r="AG9" s="283"/>
+      <c r="AH9" s="284"/>
     </row>
     <row r="10" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A10" s="82"/>
-      <c r="B10" s="283"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="285"/>
+      <c r="B10" s="277"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="279"/>
       <c r="F10" s="85" t="s">
         <v>155</v>
       </c>
@@ -13877,26 +13853,26 @@
         <v>99</v>
       </c>
       <c r="R10" s="78"/>
-      <c r="S10" s="159" t="s">
+      <c r="S10" s="153" t="s">
         <v>164</v>
       </c>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="281" t="s">
+      <c r="T10" s="154"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="155"/>
+      <c r="AF10" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="AG10" s="289"/>
-      <c r="AH10" s="290"/>
+      <c r="AG10" s="283"/>
+      <c r="AH10" s="284"/>
     </row>
     <row r="11" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A11" s="82"/>
@@ -13923,33 +13899,33 @@
         <v>99</v>
       </c>
       <c r="R11" s="91"/>
-      <c r="S11" s="159" t="s">
+      <c r="S11" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="161"/>
-      <c r="AF11" s="281" t="s">
+      <c r="T11" s="154"/>
+      <c r="U11" s="154"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="155"/>
+      <c r="AF11" s="275" t="s">
         <v>110</v>
       </c>
-      <c r="AG11" s="282"/>
-      <c r="AH11" s="221"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="215"/>
     </row>
     <row r="12" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A12" s="82"/>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284"/>
-      <c r="D12" s="284"/>
-      <c r="E12" s="285"/>
+      <c r="B12" s="277"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="279"/>
       <c r="F12" s="85" t="s">
         <v>165</v>
       </c>
@@ -13962,44 +13938,44 @@
       <c r="K12" s="88">
         <v>10</v>
       </c>
-      <c r="L12" s="286" t="s">
+      <c r="L12" s="280" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="286" t="s">
+      <c r="M12" s="281"/>
+      <c r="N12" s="281"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="282"/>
+      <c r="Q12" s="280" t="s">
         <v>100</v>
       </c>
-      <c r="R12" s="288"/>
-      <c r="S12" s="159" t="s">
+      <c r="R12" s="282"/>
+      <c r="S12" s="153" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="161"/>
-      <c r="AF12" s="281" t="s">
+      <c r="T12" s="154"/>
+      <c r="U12" s="154"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="275" t="s">
         <v>110</v>
       </c>
-      <c r="AG12" s="289"/>
-      <c r="AH12" s="290"/>
+      <c r="AG12" s="283"/>
+      <c r="AH12" s="284"/>
     </row>
     <row r="13" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A13" s="82"/>
-      <c r="B13" s="283"/>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="285"/>
+      <c r="B13" s="277"/>
+      <c r="C13" s="278"/>
+      <c r="D13" s="278"/>
+      <c r="E13" s="279"/>
       <c r="F13" s="86"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
@@ -14019,83 +13995,83 @@
         <v>99</v>
       </c>
       <c r="R13" s="91"/>
-      <c r="S13" s="159" t="s">
+      <c r="S13" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="281" t="s">
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="154"/>
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="AG13" s="289"/>
-      <c r="AH13" s="290"/>
+      <c r="AG13" s="283"/>
+      <c r="AH13" s="284"/>
     </row>
     <row r="14" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A14" s="82"/>
-      <c r="B14" s="283"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="284"/>
-      <c r="E14" s="285"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="278"/>
+      <c r="D14" s="278"/>
+      <c r="E14" s="279"/>
       <c r="F14" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="190" t="s">
+      <c r="G14" s="184" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="291"/>
-      <c r="I14" s="291"/>
-      <c r="J14" s="292"/>
+      <c r="H14" s="285"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="286"/>
       <c r="K14" s="88">
         <v>10</v>
       </c>
-      <c r="L14" s="286" t="s">
+      <c r="L14" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="288"/>
-      <c r="Q14" s="286" t="s">
+      <c r="M14" s="281"/>
+      <c r="N14" s="281"/>
+      <c r="O14" s="281"/>
+      <c r="P14" s="282"/>
+      <c r="Q14" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R14" s="288"/>
-      <c r="S14" s="159" t="s">
+      <c r="R14" s="282"/>
+      <c r="S14" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="281" t="s">
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="154"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="275" t="s">
         <v>112</v>
       </c>
-      <c r="AG14" s="289"/>
-      <c r="AH14" s="290"/>
+      <c r="AG14" s="283"/>
+      <c r="AH14" s="284"/>
     </row>
     <row r="15" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A15" s="82"/>
-      <c r="B15" s="283"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="284"/>
-      <c r="E15" s="285"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="279"/>
       <c r="F15" s="86"/>
       <c r="G15" s="100"/>
       <c r="H15" s="101"/>
@@ -14115,33 +14091,33 @@
         <v>100</v>
       </c>
       <c r="R15" s="91"/>
-      <c r="S15" s="159" t="s">
+      <c r="S15" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="281" t="s">
+      <c r="T15" s="154"/>
+      <c r="U15" s="154"/>
+      <c r="V15" s="154"/>
+      <c r="W15" s="154"/>
+      <c r="X15" s="154"/>
+      <c r="Y15" s="154"/>
+      <c r="Z15" s="154"/>
+      <c r="AA15" s="154"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+      <c r="AD15" s="154"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="275" t="s">
         <v>110</v>
       </c>
-      <c r="AG15" s="289"/>
-      <c r="AH15" s="290"/>
+      <c r="AG15" s="283"/>
+      <c r="AH15" s="284"/>
     </row>
     <row r="16" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A16" s="83"/>
-      <c r="B16" s="278"/>
-      <c r="C16" s="279"/>
-      <c r="D16" s="279"/>
-      <c r="E16" s="280"/>
+      <c r="B16" s="272"/>
+      <c r="C16" s="273"/>
+      <c r="D16" s="273"/>
+      <c r="E16" s="274"/>
       <c r="F16" s="86"/>
       <c r="G16" s="87"/>
       <c r="H16" s="101"/>
@@ -14161,126 +14137,126 @@
         <v>100</v>
       </c>
       <c r="R16" s="91"/>
-      <c r="S16" s="159" t="s">
+      <c r="S16" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="281" t="s">
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="275" t="s">
         <v>110</v>
       </c>
-      <c r="AG16" s="289"/>
-      <c r="AH16" s="290"/>
+      <c r="AG16" s="283"/>
+      <c r="AH16" s="284"/>
     </row>
     <row r="17" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A17" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="292"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="286"/>
       <c r="F17" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="293" t="s">
+      <c r="G17" s="287" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="291"/>
-      <c r="I17" s="291"/>
-      <c r="J17" s="292"/>
+      <c r="H17" s="285"/>
+      <c r="I17" s="285"/>
+      <c r="J17" s="286"/>
       <c r="K17" s="75">
         <v>10</v>
       </c>
-      <c r="L17" s="286" t="s">
+      <c r="L17" s="280" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="287"/>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="288"/>
-      <c r="Q17" s="286" t="s">
+      <c r="M17" s="281"/>
+      <c r="N17" s="281"/>
+      <c r="O17" s="281"/>
+      <c r="P17" s="282"/>
+      <c r="Q17" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R17" s="288"/>
-      <c r="S17" s="159" t="s">
+      <c r="R17" s="282"/>
+      <c r="S17" s="153" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="281" t="s">
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="AG17" s="282"/>
-      <c r="AH17" s="221"/>
+      <c r="AG17" s="276"/>
+      <c r="AH17" s="215"/>
     </row>
     <row r="18" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
       <c r="A18" s="83"/>
-      <c r="B18" s="278"/>
-      <c r="C18" s="279"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="280"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="273"/>
+      <c r="D18" s="273"/>
+      <c r="E18" s="274"/>
       <c r="F18" s="71"/>
-      <c r="G18" s="278"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="280"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
+      <c r="I18" s="273"/>
+      <c r="J18" s="274"/>
       <c r="K18" s="75">
         <v>20</v>
       </c>
-      <c r="L18" s="286" t="s">
+      <c r="L18" s="280" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="287"/>
-      <c r="N18" s="287"/>
-      <c r="O18" s="287"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="286" t="s">
+      <c r="M18" s="281"/>
+      <c r="N18" s="281"/>
+      <c r="O18" s="281"/>
+      <c r="P18" s="282"/>
+      <c r="Q18" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="288"/>
-      <c r="S18" s="159" t="s">
+      <c r="R18" s="282"/>
+      <c r="S18" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="281" t="s">
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="AG18" s="282"/>
-      <c r="AH18" s="221"/>
+      <c r="AG18" s="276"/>
+      <c r="AH18" s="215"/>
     </row>
     <row r="19" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
     <row r="20" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-302_性能・拡張性要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-302_性能・拡張性要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A8AA43-2DFC-4AF0-AE85-9A04531A1684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="10575" windowHeight="5730"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -24,12 +25,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'別紙１（エンティティ一覧）'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'別紙２(システム機能一覧)'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="268">
   <si>
     <t>記述内容説明</t>
     <rPh sb="0" eb="2">
@@ -2523,17 +2534,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -3249,19 +3249,16 @@
     <t>[IPA/SEC『非機能要求グレード：システム基盤の非機能要求に関する項目一覧』[5]より引用、一部改訂]</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -4200,6 +4197,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4209,6 +4224,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4245,15 +4305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4263,53 +4314,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4320,6 +4332,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4329,15 +4359,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4356,152 +4377,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4555,60 +4606,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4715,7 +4712,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4813,52 +4816,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4879,7 +4836,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4938,7 +4901,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4997,7 +4966,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5074,7 +5049,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5137,7 +5118,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5196,7 +5183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5255,7 +5248,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5314,7 +5313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5368,7 +5373,13 @@
     <xdr:ext cx="158169" cy="226460"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5422,7 +5433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5481,7 +5498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5540,7 +5563,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5599,7 +5628,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -5652,7 +5687,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="カギ線コネクタ 16"/>
+        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -5705,7 +5746,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
+        <xdr:cNvPr id="22" name="カギ線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -5758,7 +5805,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -5811,7 +5864,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="カギ線コネクタ 28"/>
+        <xdr:cNvPr id="29" name="カギ線コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -5864,7 +5923,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="カギ線コネクタ 30"/>
+        <xdr:cNvPr id="31" name="カギ線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -5917,7 +5982,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -5970,7 +6041,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -6023,7 +6100,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="5" idx="1"/>
@@ -6076,7 +6159,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6125,7 +6214,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6179,7 +6274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 1"/>
+        <xdr:cNvPr id="5" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6290,7 +6391,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 1"/>
+        <xdr:cNvPr id="6" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6390,7 +6497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6432,7 +6539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6465,9 +6572,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6500,6 +6624,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6675,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6683,42 +6824,42 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="112"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:19" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="113"/>
       <c r="H22" s="113"/>
     </row>
-    <row r="23" spans="6:19" ht="17.25" customHeight="1">
+    <row r="23" spans="6:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="113"/>
       <c r="G23" s="113"/>
       <c r="H23" s="113"/>
@@ -6727,12 +6868,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="6:19" ht="13.5" customHeight="1">
+    <row r="24" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="113"/>
       <c r="G24" s="113"/>
       <c r="H24" s="113"/>
     </row>
-    <row r="25" spans="6:19" ht="18" customHeight="1">
+    <row r="25" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="113"/>
       <c r="G25" s="113"/>
       <c r="H25" s="113"/>
@@ -6741,39 +6882,39 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="6:19" ht="13.5" customHeight="1">
+    <row r="26" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="113"/>
       <c r="G26" s="113"/>
       <c r="H26" s="113"/>
     </row>
-    <row r="27" spans="6:19" ht="13.5" customHeight="1">
+    <row r="27" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="113"/>
       <c r="G27" s="113"/>
       <c r="H27" s="113"/>
     </row>
-    <row r="28" spans="6:19" ht="13.5" customHeight="1">
+    <row r="28" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="116"/>
       <c r="G28" s="113"/>
       <c r="H28" s="113"/>
     </row>
-    <row r="29" spans="6:19" ht="13.5" customHeight="1">
+    <row r="29" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="113"/>
       <c r="G29" s="117"/>
       <c r="H29" s="113"/>
     </row>
-    <row r="30" spans="6:19" ht="13.5" customHeight="1">
+    <row r="30" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="113"/>
       <c r="G30" s="117"/>
       <c r="H30" s="113"/>
     </row>
-    <row r="31" spans="6:19" ht="21" customHeight="1">
+    <row r="31" spans="6:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="113"/>
       <c r="G31" s="117"/>
       <c r="H31" s="113"/>
       <c r="J31" s="118"/>
       <c r="R31" s="119"/>
     </row>
-    <row r="32" spans="6:19" ht="13.5" customHeight="1">
+    <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="113"/>
       <c r="H32" s="113"/>
       <c r="L32" s="120"/>
@@ -6785,1064 +6926,1050 @@
       <c r="R32" s="122"/>
       <c r="S32" s="123"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="120"/>
       <c r="P36" s="120"/>
       <c r="Q36" s="123"/>
       <c r="R36" s="123"/>
       <c r="S36" s="123"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="124"/>
       <c r="P37" s="123"/>
       <c r="Q37" s="124"/>
       <c r="R37" s="123"/>
       <c r="S37" s="125"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="124"/>
       <c r="P38" s="123"/>
       <c r="Q38" s="124"/>
       <c r="R38" s="123"/>
       <c r="S38" s="124"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B39" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="126" t="s">
-        <v>249</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="126"/>
       <c r="O39" s="123"/>
       <c r="P39" s="123"/>
       <c r="Q39" s="124"/>
-      <c r="R39" s="124" t="s">
-        <v>250</v>
-      </c>
+      <c r="R39" s="124"/>
       <c r="S39" s="123"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12" customHeight="1">
+    <row r="1" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1">
+    <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="12" customHeight="1">
+    <row r="5" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="12" customHeight="1">
+    <row r="6" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="12" customHeight="1">
+    <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="24.75" customHeight="1" thickBot="1">
+    <row r="12" spans="1:34" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="163" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="166" t="s">
+      <c r="C12" s="184" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="165"/>
-      <c r="AB12" s="162" t="s">
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="186"/>
+      <c r="AB12" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-    </row>
-    <row r="13" spans="1:34" ht="28.5" customHeight="1" thickTop="1">
-      <c r="B13" s="180">
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="183"/>
+      <c r="AF12" s="183"/>
+      <c r="AG12" s="183"/>
+      <c r="AH12" s="183"/>
+    </row>
+    <row r="13" spans="1:34" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="161">
         <v>1</v>
       </c>
-      <c r="C13" s="184" t="s">
+      <c r="C13" s="168" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="180" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="195" t="s">
+        <v>249</v>
+      </c>
+      <c r="N13" s="196"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="196"/>
+      <c r="S13" s="196"/>
+      <c r="T13" s="196"/>
+      <c r="U13" s="196"/>
+      <c r="V13" s="196"/>
+      <c r="W13" s="196"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="196"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="197"/>
+      <c r="AB13" s="189" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC13" s="190"/>
+      <c r="AD13" s="190"/>
+      <c r="AE13" s="190"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="191"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="162"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="165" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="165" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" s="166"/>
+      <c r="O14" s="166"/>
+      <c r="P14" s="166"/>
+      <c r="Q14" s="166"/>
+      <c r="R14" s="166"/>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="192"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="193"/>
+      <c r="AG14" s="193"/>
+      <c r="AH14" s="194"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="163">
+        <v>2</v>
+      </c>
+      <c r="C15" s="174" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="174" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="177" t="s">
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="165" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="167"/>
+      <c r="M15" s="165" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="166"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="166"/>
+      <c r="S15" s="166"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="166"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="167"/>
+      <c r="AB15" s="188"/>
+      <c r="AC15" s="188"/>
+      <c r="AD15" s="188"/>
+      <c r="AE15" s="188"/>
+      <c r="AF15" s="188"/>
+      <c r="AG15" s="188"/>
+      <c r="AH15" s="188"/>
+    </row>
+    <row r="16" spans="1:34" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="162"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="165" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="165" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="166"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="166"/>
+      <c r="S16" s="166"/>
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="167"/>
+      <c r="AB16" s="165"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="166"/>
+      <c r="AF16" s="166"/>
+      <c r="AG16" s="166"/>
+      <c r="AH16" s="167"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="163">
+        <v>3</v>
+      </c>
+      <c r="C17" s="174" t="s">
         <v>252</v>
       </c>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="178"/>
-      <c r="X13" s="178"/>
-      <c r="Y13" s="178"/>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="168" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="169"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="169"/>
-      <c r="AG13" s="169"/>
-      <c r="AH13" s="170"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="181"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="159" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="159" t="s">
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="165" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
+      <c r="K17" s="166"/>
+      <c r="L17" s="167"/>
+      <c r="M17" s="165" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="166"/>
+      <c r="O17" s="166"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="166"/>
+      <c r="S17" s="166"/>
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="166"/>
+      <c r="AA17" s="167"/>
+      <c r="AB17" s="165"/>
+      <c r="AC17" s="166"/>
+      <c r="AD17" s="166"/>
+      <c r="AE17" s="166"/>
+      <c r="AF17" s="166"/>
+      <c r="AG17" s="166"/>
+      <c r="AH17" s="167"/>
+    </row>
+    <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="164"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="165" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="165" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="166"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="166"/>
+      <c r="S18" s="166"/>
+      <c r="T18" s="166"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="166"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="166"/>
+      <c r="Y18" s="166"/>
+      <c r="Z18" s="166"/>
+      <c r="AA18" s="167"/>
+      <c r="AB18" s="165"/>
+      <c r="AC18" s="166"/>
+      <c r="AD18" s="166"/>
+      <c r="AE18" s="166"/>
+      <c r="AF18" s="166"/>
+      <c r="AG18" s="166"/>
+      <c r="AH18" s="167"/>
+    </row>
+    <row r="19" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="164"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="165" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="165" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="P19" s="166"/>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="166"/>
+      <c r="S19" s="166"/>
+      <c r="T19" s="166"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="166"/>
+      <c r="W19" s="166"/>
+      <c r="X19" s="166"/>
+      <c r="Y19" s="166"/>
+      <c r="Z19" s="166"/>
+      <c r="AA19" s="167"/>
+      <c r="AB19" s="165"/>
+      <c r="AC19" s="166"/>
+      <c r="AD19" s="166"/>
+      <c r="AE19" s="166"/>
+      <c r="AF19" s="166"/>
+      <c r="AG19" s="166"/>
+      <c r="AH19" s="167"/>
+    </row>
+    <row r="20" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="164"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="165" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="165" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
+      <c r="Z20" s="166"/>
+      <c r="AA20" s="167"/>
+      <c r="AB20" s="165"/>
+      <c r="AC20" s="166"/>
+      <c r="AD20" s="166"/>
+      <c r="AE20" s="166"/>
+      <c r="AF20" s="166"/>
+      <c r="AG20" s="166"/>
+      <c r="AH20" s="167"/>
+    </row>
+    <row r="21" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="162"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="165" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="166"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="166"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="166"/>
+      <c r="X21" s="166"/>
+      <c r="Y21" s="166"/>
+      <c r="Z21" s="166"/>
+      <c r="AA21" s="167"/>
+      <c r="AB21" s="165"/>
+      <c r="AC21" s="166"/>
+      <c r="AD21" s="166"/>
+      <c r="AE21" s="166"/>
+      <c r="AF21" s="166"/>
+      <c r="AG21" s="166"/>
+      <c r="AH21" s="167"/>
+    </row>
+    <row r="22" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="163">
+        <v>4</v>
+      </c>
+      <c r="C22" s="174" t="s">
         <v>253</v>
       </c>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="160"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="172"/>
-      <c r="AF14" s="172"/>
-      <c r="AG14" s="172"/>
-      <c r="AH14" s="173"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="182">
-        <v>2</v>
-      </c>
-      <c r="C15" s="190" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="159" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="159" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="161"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="167"/>
-      <c r="AD15" s="167"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
-    </row>
-    <row r="16" spans="1:34" ht="32.1" customHeight="1">
-      <c r="B16" s="181"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="159" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="159" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="160"/>
-      <c r="Q16" s="160"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="159"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="161"/>
-    </row>
-    <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="182">
-        <v>3</v>
-      </c>
-      <c r="C17" s="190" t="s">
-        <v>255</v>
-      </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="159" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="159" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="161"/>
-      <c r="AB17" s="159"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="161"/>
-    </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
-      <c r="B18" s="183"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="159" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="159" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="160"/>
-      <c r="Q18" s="160"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="159"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="161"/>
-    </row>
-    <row r="19" spans="1:34" ht="24" customHeight="1">
-      <c r="B19" s="183"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="159" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="159"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="161"/>
-    </row>
-    <row r="20" spans="1:34" ht="24" customHeight="1">
-      <c r="B20" s="183"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="159" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="159"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="161"/>
-    </row>
-    <row r="21" spans="1:34" ht="24" customHeight="1">
-      <c r="B21" s="181"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="159" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="159" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="160"/>
-      <c r="Q21" s="160"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="159"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="161"/>
-    </row>
-    <row r="22" spans="1:34" ht="24" customHeight="1">
-      <c r="B22" s="182">
-        <v>4</v>
-      </c>
-      <c r="C22" s="190" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="159" t="s">
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="159" t="s">
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="159"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="161"/>
-    </row>
-    <row r="23" spans="1:34" ht="24" customHeight="1">
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="166"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="166"/>
+      <c r="S22" s="166"/>
+      <c r="T22" s="166"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="166"/>
+      <c r="W22" s="166"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="166"/>
+      <c r="AA22" s="167"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="166"/>
+      <c r="AD22" s="166"/>
+      <c r="AE22" s="166"/>
+      <c r="AF22" s="166"/>
+      <c r="AG22" s="166"/>
+      <c r="AH22" s="167"/>
+    </row>
+    <row r="23" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="193"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="159" t="s">
+      <c r="B23" s="162"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="159" t="s">
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="160"/>
-      <c r="Q23" s="160"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="161"/>
-      <c r="AB23" s="159"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="161"/>
-    </row>
-    <row r="24" spans="1:34" ht="24" customHeight="1">
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="166"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="166"/>
+      <c r="AA23" s="167"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="166"/>
+      <c r="AD23" s="166"/>
+      <c r="AE23" s="166"/>
+      <c r="AF23" s="166"/>
+      <c r="AG23" s="166"/>
+      <c r="AH23" s="167"/>
+    </row>
+    <row r="24" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="133"/>
       <c r="D24" s="127"/>
       <c r="E24" s="127"/>
       <c r="F24" s="127"/>
       <c r="G24" s="134" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H24" s="127"/>
       <c r="I24" s="127"/>
@@ -7872,27 +7999,30 @@
       <c r="AG24" s="23"/>
       <c r="AH24" s="23"/>
     </row>
-    <row r="26" spans="1:34" ht="12" customHeight="1">
+    <row r="26" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="C22:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="C17:F21"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="M17:AA17"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="M18:AA18"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="AB13:AH14"/>
+    <mergeCell ref="M15:AA15"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="M13:AA13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="M14:AA14"/>
     <mergeCell ref="AB23:AH23"/>
     <mergeCell ref="M23:AA23"/>
     <mergeCell ref="G19:L19"/>
@@ -7907,22 +8037,19 @@
     <mergeCell ref="AB20:AH20"/>
     <mergeCell ref="AB21:AH21"/>
     <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="AB13:AH14"/>
-    <mergeCell ref="M15:AA15"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="M13:AA13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="M14:AA14"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="M17:AA17"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="M18:AA18"/>
-    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="C17:F21"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7938,12 +8065,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BG103"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="34" width="5" style="14"/>
     <col min="35" max="35" width="5" style="14" customWidth="1"/>
@@ -7952,31 +8079,31 @@
     <col min="39" max="16384" width="5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="12" customHeight="1">
+    <row r="1" spans="1:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="24" customHeight="1">
+    <row r="3" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="24" customHeight="1">
+    <row r="4" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
         <v>153</v>
       </c>
       <c r="M4" s="11"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:59" ht="24" customHeight="1">
+    <row r="5" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="62" t="s">
         <v>73</v>
       </c>
       <c r="M5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:59" ht="24" customHeight="1">
+    <row r="6" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="131" t="s">
         <v>12</v>
       </c>
@@ -8034,7 +8161,7 @@
       <c r="BF6" s="17"/>
       <c r="BG6" s="17"/>
     </row>
-    <row r="7" spans="1:59" ht="24" customHeight="1">
+    <row r="7" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="131" t="s">
         <v>13</v>
       </c>
@@ -8071,7 +8198,7 @@
       <c r="AF7" s="31"/>
       <c r="AG7" s="32"/>
     </row>
-    <row r="8" spans="1:59" ht="24" customHeight="1">
+    <row r="8" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="41" t="s">
         <v>14</v>
       </c>
@@ -8108,7 +8235,7 @@
       <c r="AF8" s="33"/>
       <c r="AG8" s="46"/>
     </row>
-    <row r="9" spans="1:59" ht="24" customHeight="1">
+    <row r="9" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
@@ -8143,7 +8270,7 @@
       <c r="AF9" s="20"/>
       <c r="AG9" s="69"/>
     </row>
-    <row r="10" spans="1:59" ht="24" customHeight="1">
+    <row r="10" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="41" t="s">
         <v>15</v>
       </c>
@@ -8178,7 +8305,7 @@
       <c r="AF10" s="33"/>
       <c r="AG10" s="46"/>
     </row>
-    <row r="11" spans="1:59" ht="24" customHeight="1">
+    <row r="11" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="44"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -8187,37 +8314,37 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="82"/>
-      <c r="K11" s="211" t="s">
+      <c r="K11" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="213"/>
-      <c r="O11" s="199" t="s">
+      <c r="L11" s="205"/>
+      <c r="M11" s="205"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="200"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="199" t="s">
+      <c r="P11" s="211"/>
+      <c r="Q11" s="211"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="212"/>
+      <c r="X11" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="200"/>
-      <c r="AE11" s="200"/>
-      <c r="AF11" s="201"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="211"/>
+      <c r="AA11" s="211"/>
+      <c r="AB11" s="211"/>
+      <c r="AC11" s="211"/>
+      <c r="AD11" s="211"/>
+      <c r="AE11" s="211"/>
+      <c r="AF11" s="212"/>
       <c r="AG11" s="69"/>
     </row>
-    <row r="12" spans="1:59" ht="24" customHeight="1">
+    <row r="12" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="44"/>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -8226,43 +8353,43 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="82"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="199" t="s">
+      <c r="K12" s="207"/>
+      <c r="L12" s="208"/>
+      <c r="M12" s="208"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="201"/>
-      <c r="R12" s="199" t="s">
+      <c r="P12" s="211"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="200"/>
-      <c r="T12" s="201"/>
-      <c r="U12" s="199" t="s">
+      <c r="S12" s="211"/>
+      <c r="T12" s="212"/>
+      <c r="U12" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="V12" s="200"/>
-      <c r="W12" s="201"/>
-      <c r="X12" s="199" t="s">
+      <c r="V12" s="211"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="201"/>
-      <c r="AA12" s="199" t="s">
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="212"/>
+      <c r="AA12" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="201"/>
-      <c r="AD12" s="199" t="s">
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="AE12" s="200"/>
-      <c r="AF12" s="201"/>
+      <c r="AE12" s="211"/>
+      <c r="AF12" s="212"/>
       <c r="AG12" s="69"/>
     </row>
-    <row r="13" spans="1:59" ht="24" customHeight="1">
+    <row r="13" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="44"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
@@ -8277,39 +8404,39 @@
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="196" t="s">
+      <c r="O13" s="201" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="197"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="196" t="s">
+      <c r="P13" s="202"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="201" t="s">
         <v>180</v>
       </c>
-      <c r="S13" s="197"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="196" t="s">
+      <c r="S13" s="202"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="201" t="s">
         <v>183</v>
       </c>
-      <c r="V13" s="197"/>
-      <c r="W13" s="198"/>
-      <c r="X13" s="196" t="s">
+      <c r="V13" s="202"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="201" t="s">
         <v>186</v>
       </c>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="198"/>
-      <c r="AA13" s="196" t="s">
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="201" t="s">
         <v>189</v>
       </c>
-      <c r="AB13" s="197"/>
-      <c r="AC13" s="198"/>
-      <c r="AD13" s="196" t="s">
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="203"/>
+      <c r="AD13" s="201" t="s">
         <v>192</v>
       </c>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="198"/>
+      <c r="AE13" s="202"/>
+      <c r="AF13" s="203"/>
       <c r="AG13" s="69"/>
     </row>
-    <row r="14" spans="1:59" ht="24" customHeight="1">
+    <row r="14" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="44"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
@@ -8324,39 +8451,39 @@
       <c r="L14" s="60"/>
       <c r="M14" s="31"/>
       <c r="N14" s="61"/>
-      <c r="O14" s="202" t="s">
+      <c r="O14" s="198" t="s">
         <v>178</v>
       </c>
-      <c r="P14" s="203"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="196" t="s">
+      <c r="P14" s="199"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="S14" s="197"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="202" t="s">
+      <c r="S14" s="202"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="198" t="s">
         <v>184</v>
       </c>
-      <c r="V14" s="203"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="202" t="s">
+      <c r="V14" s="199"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="Y14" s="203"/>
-      <c r="Z14" s="204"/>
-      <c r="AA14" s="202" t="s">
+      <c r="Y14" s="199"/>
+      <c r="Z14" s="200"/>
+      <c r="AA14" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="AB14" s="203"/>
-      <c r="AC14" s="204"/>
-      <c r="AD14" s="196" t="s">
+      <c r="AB14" s="199"/>
+      <c r="AC14" s="200"/>
+      <c r="AD14" s="201" t="s">
         <v>193</v>
       </c>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="198"/>
+      <c r="AE14" s="202"/>
+      <c r="AF14" s="203"/>
       <c r="AG14" s="69"/>
     </row>
-    <row r="15" spans="1:59" ht="24" customHeight="1">
+    <row r="15" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="44"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -8371,36 +8498,36 @@
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="202" t="s">
+      <c r="O15" s="198" t="s">
         <v>179</v>
       </c>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="196" t="s">
+      <c r="P15" s="199"/>
+      <c r="Q15" s="200"/>
+      <c r="R15" s="201" t="s">
         <v>182</v>
       </c>
-      <c r="S15" s="197"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="196" t="s">
+      <c r="S15" s="202"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="201" t="s">
         <v>185</v>
       </c>
-      <c r="V15" s="197"/>
-      <c r="W15" s="198"/>
-      <c r="X15" s="196" t="s">
+      <c r="V15" s="202"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="198"/>
-      <c r="AA15" s="196" t="s">
+      <c r="Y15" s="202"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="AB15" s="197"/>
-      <c r="AC15" s="198"/>
-      <c r="AD15" s="196" t="s">
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="201" t="s">
         <v>201</v>
       </c>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="198"/>
+      <c r="AE15" s="202"/>
+      <c r="AF15" s="203"/>
       <c r="AG15" s="47"/>
       <c r="AH15" s="17"/>
       <c r="AI15" s="17"/>
@@ -8429,7 +8556,7 @@
       <c r="BF15" s="17"/>
       <c r="BG15" s="17"/>
     </row>
-    <row r="16" spans="1:59" ht="24" customHeight="1">
+    <row r="16" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="44"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
@@ -8444,36 +8571,36 @@
       <c r="L16" s="60"/>
       <c r="M16" s="31"/>
       <c r="N16" s="61"/>
-      <c r="O16" s="202" t="s">
+      <c r="O16" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="204"/>
-      <c r="R16" s="202" t="s">
+      <c r="P16" s="199"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="203"/>
-      <c r="T16" s="204"/>
-      <c r="U16" s="202" t="s">
+      <c r="S16" s="199"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="198" t="s">
         <v>86</v>
       </c>
-      <c r="V16" s="203"/>
-      <c r="W16" s="204"/>
-      <c r="X16" s="202" t="s">
+      <c r="V16" s="199"/>
+      <c r="W16" s="200"/>
+      <c r="X16" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="Y16" s="203"/>
-      <c r="Z16" s="204"/>
-      <c r="AA16" s="202" t="s">
+      <c r="Y16" s="199"/>
+      <c r="Z16" s="200"/>
+      <c r="AA16" s="198" t="s">
         <v>78</v>
       </c>
-      <c r="AB16" s="203"/>
-      <c r="AC16" s="204"/>
-      <c r="AD16" s="202" t="s">
+      <c r="AB16" s="199"/>
+      <c r="AC16" s="200"/>
+      <c r="AD16" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="AE16" s="203"/>
-      <c r="AF16" s="204"/>
+      <c r="AE16" s="199"/>
+      <c r="AF16" s="200"/>
       <c r="AG16" s="47"/>
       <c r="AH16" s="17"/>
       <c r="AI16" s="17"/>
@@ -8502,7 +8629,7 @@
       <c r="BF16" s="17"/>
       <c r="BG16" s="17"/>
     </row>
-    <row r="17" spans="2:59" ht="24" customHeight="1">
+    <row r="17" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="44"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -8511,29 +8638,29 @@
       <c r="H17" s="19"/>
       <c r="I17" s="47"/>
       <c r="J17" s="44"/>
-      <c r="K17" s="191" t="s">
+      <c r="K17" s="175" t="s">
         <v>197</v>
       </c>
-      <c r="L17" s="191"/>
-      <c r="M17" s="191"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="191"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="191"/>
-      <c r="AB17" s="191"/>
-      <c r="AC17" s="191"/>
-      <c r="AD17" s="191"/>
-      <c r="AE17" s="191"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="175"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="175"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="175"/>
+      <c r="AC17" s="175"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="175"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="47"/>
       <c r="AH17" s="17"/>
@@ -8563,7 +8690,7 @@
       <c r="BF17" s="17"/>
       <c r="BG17" s="17"/>
     </row>
-    <row r="18" spans="2:59" ht="24" customHeight="1">
+    <row r="18" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="52" t="s">
         <v>154</v>
       </c>
@@ -8598,7 +8725,7 @@
       <c r="AF18" s="33"/>
       <c r="AG18" s="46"/>
     </row>
-    <row r="19" spans="2:59" ht="24" customHeight="1">
+    <row r="19" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="54"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -8607,22 +8734,22 @@
       <c r="H19" s="20"/>
       <c r="I19" s="69"/>
       <c r="J19" s="54"/>
-      <c r="K19" s="211" t="s">
+      <c r="K19" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="213"/>
-      <c r="O19" s="199" t="s">
+      <c r="L19" s="205"/>
+      <c r="M19" s="205"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="201"/>
-      <c r="R19" s="199" t="s">
+      <c r="P19" s="211"/>
+      <c r="Q19" s="212"/>
+      <c r="R19" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="S19" s="200"/>
-      <c r="T19" s="201"/>
+      <c r="S19" s="211"/>
+      <c r="T19" s="212"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
       <c r="W19" s="20"/>
@@ -8637,7 +8764,7 @@
       <c r="AF19" s="20"/>
       <c r="AG19" s="69"/>
     </row>
-    <row r="20" spans="2:59" ht="24" customHeight="1">
+    <row r="20" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="54"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
@@ -8646,20 +8773,20 @@
       <c r="H20" s="20"/>
       <c r="I20" s="69"/>
       <c r="J20" s="54"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="216"/>
-      <c r="O20" s="199" t="s">
+      <c r="K20" s="207"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="208"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="201"/>
-      <c r="R20" s="199" t="s">
+      <c r="P20" s="211"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="S20" s="200"/>
-      <c r="T20" s="201"/>
+      <c r="S20" s="211"/>
+      <c r="T20" s="212"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
       <c r="W20" s="20"/>
@@ -8674,7 +8801,7 @@
       <c r="AF20" s="20"/>
       <c r="AG20" s="69"/>
     </row>
-    <row r="21" spans="2:59" ht="24" customHeight="1">
+    <row r="21" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="54"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
@@ -8689,16 +8816,16 @@
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="196" t="s">
+      <c r="O21" s="201" t="s">
         <v>195</v>
       </c>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="196" t="s">
+      <c r="P21" s="202"/>
+      <c r="Q21" s="203"/>
+      <c r="R21" s="201" t="s">
         <v>196</v>
       </c>
-      <c r="S21" s="197"/>
-      <c r="T21" s="198"/>
+      <c r="S21" s="202"/>
+      <c r="T21" s="203"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
       <c r="W21" s="20"/>
@@ -8713,7 +8840,7 @@
       <c r="AF21" s="20"/>
       <c r="AG21" s="69"/>
     </row>
-    <row r="22" spans="2:59" ht="24" customHeight="1">
+    <row r="22" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="54"/>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -8728,16 +8855,16 @@
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="196" t="s">
+      <c r="O22" s="201" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="197"/>
-      <c r="Q22" s="198"/>
-      <c r="R22" s="196" t="s">
+      <c r="P22" s="202"/>
+      <c r="Q22" s="203"/>
+      <c r="R22" s="201" t="s">
         <v>199</v>
       </c>
-      <c r="S22" s="197"/>
-      <c r="T22" s="198"/>
+      <c r="S22" s="202"/>
+      <c r="T22" s="203"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
       <c r="W22" s="20"/>
@@ -8752,7 +8879,7 @@
       <c r="AF22" s="20"/>
       <c r="AG22" s="69"/>
     </row>
-    <row r="23" spans="2:59" ht="24" customHeight="1">
+    <row r="23" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="54"/>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -8767,16 +8894,16 @@
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="196" t="s">
+      <c r="O23" s="201" t="s">
         <v>198</v>
       </c>
-      <c r="P23" s="197"/>
-      <c r="Q23" s="198"/>
-      <c r="R23" s="196" t="s">
+      <c r="P23" s="202"/>
+      <c r="Q23" s="203"/>
+      <c r="R23" s="201" t="s">
         <v>200</v>
       </c>
-      <c r="S23" s="197"/>
-      <c r="T23" s="198"/>
+      <c r="S23" s="202"/>
+      <c r="T23" s="203"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
       <c r="W23" s="20"/>
@@ -8791,7 +8918,7 @@
       <c r="AF23" s="20"/>
       <c r="AG23" s="69"/>
     </row>
-    <row r="24" spans="2:59" ht="24" customHeight="1">
+    <row r="24" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="54"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -8806,16 +8933,16 @@
       <c r="L24" s="60"/>
       <c r="M24" s="31"/>
       <c r="N24" s="61"/>
-      <c r="O24" s="202" t="s">
+      <c r="O24" s="198" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="204"/>
-      <c r="R24" s="202" t="s">
+      <c r="P24" s="199"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="S24" s="203"/>
-      <c r="T24" s="204"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="200"/>
       <c r="U24" s="104"/>
       <c r="V24" s="20"/>
       <c r="W24" s="20"/>
@@ -8830,7 +8957,7 @@
       <c r="AF24" s="20"/>
       <c r="AG24" s="69"/>
     </row>
-    <row r="25" spans="2:59" ht="24" customHeight="1">
+    <row r="25" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="53"/>
       <c r="D25" s="130"/>
       <c r="E25" s="130"/>
@@ -8839,33 +8966,33 @@
       <c r="H25" s="48"/>
       <c r="I25" s="49"/>
       <c r="J25" s="53"/>
-      <c r="K25" s="191" t="s">
+      <c r="K25" s="175" t="s">
         <v>197</v>
       </c>
-      <c r="L25" s="191"/>
-      <c r="M25" s="191"/>
-      <c r="N25" s="191"/>
-      <c r="O25" s="191"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="191"/>
-      <c r="U25" s="175"/>
-      <c r="V25" s="175"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="175"/>
-      <c r="Y25" s="175"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
-      <c r="AD25" s="175"/>
-      <c r="AE25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="181"/>
+      <c r="V25" s="181"/>
+      <c r="W25" s="181"/>
+      <c r="X25" s="181"/>
+      <c r="Y25" s="181"/>
+      <c r="Z25" s="181"/>
+      <c r="AA25" s="181"/>
+      <c r="AB25" s="181"/>
+      <c r="AC25" s="181"/>
+      <c r="AD25" s="181"/>
+      <c r="AE25" s="181"/>
       <c r="AF25" s="48"/>
       <c r="AG25" s="49"/>
     </row>
-    <row r="26" spans="2:59" ht="24" customHeight="1">
+    <row r="26" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="50" t="s">
         <v>19</v>
       </c>
@@ -8902,7 +9029,7 @@
       <c r="AF26" s="31"/>
       <c r="AG26" s="32"/>
     </row>
-    <row r="27" spans="2:59" ht="24" customHeight="1">
+    <row r="27" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
@@ -8935,7 +9062,7 @@
       <c r="AF27" s="33"/>
       <c r="AG27" s="33"/>
     </row>
-    <row r="28" spans="2:59" ht="24" customHeight="1">
+    <row r="28" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="14" t="s">
         <v>152</v>
       </c>
@@ -8997,7 +9124,7 @@
       <c r="BF28" s="36"/>
       <c r="BG28" s="36"/>
     </row>
-    <row r="29" spans="2:59" ht="24" customHeight="1">
+    <row r="29" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="130" t="s">
         <v>54</v>
       </c>
@@ -9058,7 +9185,7 @@
       <c r="BF29" s="36"/>
       <c r="BG29" s="36"/>
     </row>
-    <row r="30" spans="2:59" ht="24" customHeight="1">
+    <row r="30" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="131" t="s">
         <v>12</v>
       </c>
@@ -9121,7 +9248,7 @@
       <c r="BF30" s="36"/>
       <c r="BG30" s="36"/>
     </row>
-    <row r="31" spans="2:59" ht="24" customHeight="1">
+    <row r="31" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="131" t="s">
         <v>13</v>
       </c>
@@ -9184,7 +9311,7 @@
       <c r="BF31" s="36"/>
       <c r="BG31" s="36"/>
     </row>
-    <row r="32" spans="2:59" ht="24" customHeight="1">
+    <row r="32" spans="2:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="41" t="s">
         <v>14</v>
       </c>
@@ -9194,32 +9321,32 @@
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="205" t="s">
+      <c r="J32" s="213" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="206"/>
-      <c r="L32" s="206"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="206"/>
-      <c r="S32" s="206"/>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="206"/>
-      <c r="Y32" s="206"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="206"/>
-      <c r="AE32" s="206"/>
-      <c r="AF32" s="206"/>
-      <c r="AG32" s="207"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="214"/>
+      <c r="T32" s="214"/>
+      <c r="U32" s="214"/>
+      <c r="V32" s="214"/>
+      <c r="W32" s="214"/>
+      <c r="X32" s="214"/>
+      <c r="Y32" s="214"/>
+      <c r="Z32" s="214"/>
+      <c r="AA32" s="214"/>
+      <c r="AB32" s="214"/>
+      <c r="AC32" s="214"/>
+      <c r="AD32" s="214"/>
+      <c r="AE32" s="214"/>
+      <c r="AF32" s="214"/>
+      <c r="AG32" s="215"/>
       <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
@@ -9247,7 +9374,7 @@
       <c r="BF32" s="36"/>
       <c r="BG32" s="36"/>
     </row>
-    <row r="33" spans="1:59" ht="24" customHeight="1">
+    <row r="33" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="129"/>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
@@ -9255,30 +9382,30 @@
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
       <c r="I33" s="35"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="209"/>
-      <c r="Q33" s="209"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
-      <c r="U33" s="209"/>
-      <c r="V33" s="209"/>
-      <c r="W33" s="209"/>
-      <c r="X33" s="209"/>
-      <c r="Y33" s="209"/>
-      <c r="Z33" s="209"/>
-      <c r="AA33" s="209"/>
-      <c r="AB33" s="209"/>
-      <c r="AC33" s="209"/>
-      <c r="AD33" s="209"/>
-      <c r="AE33" s="209"/>
-      <c r="AF33" s="209"/>
-      <c r="AG33" s="210"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="217"/>
+      <c r="P33" s="217"/>
+      <c r="Q33" s="217"/>
+      <c r="R33" s="217"/>
+      <c r="S33" s="217"/>
+      <c r="T33" s="217"/>
+      <c r="U33" s="217"/>
+      <c r="V33" s="217"/>
+      <c r="W33" s="217"/>
+      <c r="X33" s="217"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="217"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="217"/>
+      <c r="AC33" s="217"/>
+      <c r="AD33" s="217"/>
+      <c r="AE33" s="217"/>
+      <c r="AF33" s="217"/>
+      <c r="AG33" s="218"/>
       <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
@@ -9306,7 +9433,7 @@
       <c r="BF33" s="36"/>
       <c r="BG33" s="36"/>
     </row>
-    <row r="34" spans="1:59" ht="24" customHeight="1">
+    <row r="34" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="41" t="s">
         <v>15</v>
       </c>
@@ -9367,7 +9494,7 @@
       <c r="BF34" s="17"/>
       <c r="BG34" s="17"/>
     </row>
-    <row r="35" spans="1:59" ht="24" customHeight="1">
+    <row r="35" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="44"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
@@ -9376,37 +9503,37 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="211" t="s">
+      <c r="K35" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="212"/>
-      <c r="M35" s="212"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="199" t="s">
+      <c r="L35" s="205"/>
+      <c r="M35" s="205"/>
+      <c r="N35" s="206"/>
+      <c r="O35" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="P35" s="200"/>
-      <c r="Q35" s="200"/>
-      <c r="R35" s="200"/>
-      <c r="S35" s="200"/>
-      <c r="T35" s="200"/>
-      <c r="U35" s="200"/>
-      <c r="V35" s="200"/>
-      <c r="W35" s="201"/>
-      <c r="X35" s="199" t="s">
+      <c r="P35" s="211"/>
+      <c r="Q35" s="211"/>
+      <c r="R35" s="211"/>
+      <c r="S35" s="211"/>
+      <c r="T35" s="211"/>
+      <c r="U35" s="211"/>
+      <c r="V35" s="211"/>
+      <c r="W35" s="212"/>
+      <c r="X35" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="Y35" s="200"/>
-      <c r="Z35" s="200"/>
-      <c r="AA35" s="200"/>
-      <c r="AB35" s="200"/>
-      <c r="AC35" s="200"/>
-      <c r="AD35" s="200"/>
-      <c r="AE35" s="200"/>
-      <c r="AF35" s="201"/>
+      <c r="Y35" s="211"/>
+      <c r="Z35" s="211"/>
+      <c r="AA35" s="211"/>
+      <c r="AB35" s="211"/>
+      <c r="AC35" s="211"/>
+      <c r="AD35" s="211"/>
+      <c r="AE35" s="211"/>
+      <c r="AF35" s="212"/>
       <c r="AG35" s="69"/>
     </row>
-    <row r="36" spans="1:59" ht="24" customHeight="1">
+    <row r="36" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="44"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
@@ -9415,43 +9542,43 @@
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="82"/>
-      <c r="K36" s="214"/>
-      <c r="L36" s="215"/>
-      <c r="M36" s="215"/>
-      <c r="N36" s="216"/>
-      <c r="O36" s="199" t="s">
+      <c r="K36" s="207"/>
+      <c r="L36" s="208"/>
+      <c r="M36" s="208"/>
+      <c r="N36" s="209"/>
+      <c r="O36" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="P36" s="200"/>
-      <c r="Q36" s="201"/>
-      <c r="R36" s="199" t="s">
+      <c r="P36" s="211"/>
+      <c r="Q36" s="212"/>
+      <c r="R36" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="S36" s="200"/>
-      <c r="T36" s="201"/>
-      <c r="U36" s="199" t="s">
+      <c r="S36" s="211"/>
+      <c r="T36" s="212"/>
+      <c r="U36" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="V36" s="200"/>
-      <c r="W36" s="201"/>
-      <c r="X36" s="199" t="s">
+      <c r="V36" s="211"/>
+      <c r="W36" s="212"/>
+      <c r="X36" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="Y36" s="200"/>
-      <c r="Z36" s="201"/>
-      <c r="AA36" s="199" t="s">
+      <c r="Y36" s="211"/>
+      <c r="Z36" s="212"/>
+      <c r="AA36" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="AB36" s="200"/>
-      <c r="AC36" s="201"/>
-      <c r="AD36" s="199" t="s">
+      <c r="AB36" s="211"/>
+      <c r="AC36" s="212"/>
+      <c r="AD36" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="AE36" s="200"/>
-      <c r="AF36" s="201"/>
+      <c r="AE36" s="211"/>
+      <c r="AF36" s="212"/>
       <c r="AG36" s="69"/>
     </row>
-    <row r="37" spans="1:59" ht="24" customHeight="1">
+    <row r="37" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="44"/>
       <c r="D37" s="45"/>
       <c r="E37" s="45"/>
@@ -9466,39 +9593,39 @@
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="196" t="s">
+      <c r="O37" s="201" t="s">
         <v>210</v>
       </c>
-      <c r="P37" s="197"/>
-      <c r="Q37" s="198"/>
-      <c r="R37" s="196" t="s">
+      <c r="P37" s="202"/>
+      <c r="Q37" s="203"/>
+      <c r="R37" s="201" t="s">
         <v>211</v>
       </c>
-      <c r="S37" s="197"/>
-      <c r="T37" s="198"/>
-      <c r="U37" s="196" t="s">
+      <c r="S37" s="202"/>
+      <c r="T37" s="203"/>
+      <c r="U37" s="201" t="s">
         <v>212</v>
       </c>
-      <c r="V37" s="197"/>
-      <c r="W37" s="198"/>
-      <c r="X37" s="196" t="s">
+      <c r="V37" s="202"/>
+      <c r="W37" s="203"/>
+      <c r="X37" s="201" t="s">
         <v>213</v>
       </c>
-      <c r="Y37" s="197"/>
-      <c r="Z37" s="198"/>
-      <c r="AA37" s="196" t="s">
+      <c r="Y37" s="202"/>
+      <c r="Z37" s="203"/>
+      <c r="AA37" s="201" t="s">
         <v>216</v>
       </c>
-      <c r="AB37" s="197"/>
-      <c r="AC37" s="198"/>
-      <c r="AD37" s="196" t="s">
+      <c r="AB37" s="202"/>
+      <c r="AC37" s="203"/>
+      <c r="AD37" s="201" t="s">
         <v>222</v>
       </c>
-      <c r="AE37" s="197"/>
-      <c r="AF37" s="198"/>
+      <c r="AE37" s="202"/>
+      <c r="AF37" s="203"/>
       <c r="AG37" s="69"/>
     </row>
-    <row r="38" spans="1:59" ht="24" customHeight="1">
+    <row r="38" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="44"/>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
@@ -9513,39 +9640,39 @@
       <c r="L38" s="60"/>
       <c r="M38" s="31"/>
       <c r="N38" s="61"/>
-      <c r="O38" s="202" t="s">
+      <c r="O38" s="198" t="s">
         <v>207</v>
       </c>
-      <c r="P38" s="203"/>
-      <c r="Q38" s="204"/>
-      <c r="R38" s="196" t="s">
+      <c r="P38" s="199"/>
+      <c r="Q38" s="200"/>
+      <c r="R38" s="201" t="s">
         <v>208</v>
       </c>
-      <c r="S38" s="197"/>
-      <c r="T38" s="198"/>
-      <c r="U38" s="202" t="s">
+      <c r="S38" s="202"/>
+      <c r="T38" s="203"/>
+      <c r="U38" s="198" t="s">
         <v>209</v>
       </c>
-      <c r="V38" s="203"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="202" t="s">
+      <c r="V38" s="199"/>
+      <c r="W38" s="200"/>
+      <c r="X38" s="198" t="s">
         <v>214</v>
       </c>
-      <c r="Y38" s="203"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="202" t="s">
+      <c r="Y38" s="199"/>
+      <c r="Z38" s="200"/>
+      <c r="AA38" s="198" t="s">
         <v>217</v>
       </c>
-      <c r="AB38" s="203"/>
-      <c r="AC38" s="204"/>
-      <c r="AD38" s="196" t="s">
+      <c r="AB38" s="199"/>
+      <c r="AC38" s="200"/>
+      <c r="AD38" s="201" t="s">
         <v>221</v>
       </c>
-      <c r="AE38" s="197"/>
-      <c r="AF38" s="198"/>
+      <c r="AE38" s="202"/>
+      <c r="AF38" s="203"/>
       <c r="AG38" s="69"/>
     </row>
-    <row r="39" spans="1:59" ht="24" customHeight="1">
+    <row r="39" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="44"/>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
@@ -9560,36 +9687,36 @@
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="202" t="s">
+      <c r="O39" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="P39" s="203"/>
-      <c r="Q39" s="204"/>
-      <c r="R39" s="196" t="s">
+      <c r="P39" s="199"/>
+      <c r="Q39" s="200"/>
+      <c r="R39" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="S39" s="197"/>
-      <c r="T39" s="198"/>
-      <c r="U39" s="196" t="s">
+      <c r="S39" s="202"/>
+      <c r="T39" s="203"/>
+      <c r="U39" s="201" t="s">
         <v>206</v>
       </c>
-      <c r="V39" s="197"/>
-      <c r="W39" s="198"/>
-      <c r="X39" s="196" t="s">
+      <c r="V39" s="202"/>
+      <c r="W39" s="203"/>
+      <c r="X39" s="201" t="s">
         <v>215</v>
       </c>
-      <c r="Y39" s="197"/>
-      <c r="Z39" s="198"/>
-      <c r="AA39" s="196" t="s">
+      <c r="Y39" s="202"/>
+      <c r="Z39" s="203"/>
+      <c r="AA39" s="201" t="s">
         <v>218</v>
       </c>
-      <c r="AB39" s="197"/>
-      <c r="AC39" s="198"/>
-      <c r="AD39" s="196" t="s">
+      <c r="AB39" s="202"/>
+      <c r="AC39" s="203"/>
+      <c r="AD39" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="AE39" s="197"/>
-      <c r="AF39" s="198"/>
+      <c r="AE39" s="202"/>
+      <c r="AF39" s="203"/>
       <c r="AG39" s="47"/>
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
@@ -9618,7 +9745,7 @@
       <c r="BF39" s="17"/>
       <c r="BG39" s="17"/>
     </row>
-    <row r="40" spans="1:59" ht="24" customHeight="1">
+    <row r="40" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="44"/>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -9633,36 +9760,36 @@
       <c r="L40" s="60"/>
       <c r="M40" s="31"/>
       <c r="N40" s="61"/>
-      <c r="O40" s="202" t="s">
+      <c r="O40" s="198" t="s">
         <v>75</v>
       </c>
-      <c r="P40" s="203"/>
-      <c r="Q40" s="204"/>
-      <c r="R40" s="202" t="s">
+      <c r="P40" s="199"/>
+      <c r="Q40" s="200"/>
+      <c r="R40" s="198" t="s">
         <v>84</v>
       </c>
-      <c r="S40" s="203"/>
-      <c r="T40" s="204"/>
-      <c r="U40" s="202" t="s">
+      <c r="S40" s="199"/>
+      <c r="T40" s="200"/>
+      <c r="U40" s="198" t="s">
         <v>203</v>
       </c>
-      <c r="V40" s="203"/>
-      <c r="W40" s="204"/>
-      <c r="X40" s="202" t="s">
+      <c r="V40" s="199"/>
+      <c r="W40" s="200"/>
+      <c r="X40" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" s="203"/>
-      <c r="Z40" s="204"/>
-      <c r="AA40" s="202" t="s">
+      <c r="Y40" s="199"/>
+      <c r="Z40" s="200"/>
+      <c r="AA40" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="AB40" s="203"/>
-      <c r="AC40" s="204"/>
-      <c r="AD40" s="202" t="s">
+      <c r="AB40" s="199"/>
+      <c r="AC40" s="200"/>
+      <c r="AD40" s="198" t="s">
         <v>219</v>
       </c>
-      <c r="AE40" s="203"/>
-      <c r="AF40" s="204"/>
+      <c r="AE40" s="199"/>
+      <c r="AF40" s="200"/>
       <c r="AG40" s="47"/>
       <c r="AH40" s="17"/>
       <c r="AI40" s="17"/>
@@ -9691,7 +9818,7 @@
       <c r="BF40" s="17"/>
       <c r="BG40" s="17"/>
     </row>
-    <row r="41" spans="1:59" ht="24" customHeight="1">
+    <row r="41" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="44"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
@@ -9700,29 +9827,29 @@
       <c r="H41" s="19"/>
       <c r="I41" s="47"/>
       <c r="J41" s="44"/>
-      <c r="K41" s="191" t="s">
+      <c r="K41" s="175" t="s">
         <v>236</v>
       </c>
-      <c r="L41" s="191"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="191"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="191"/>
-      <c r="S41" s="191"/>
-      <c r="T41" s="191"/>
-      <c r="U41" s="191"/>
-      <c r="V41" s="191"/>
-      <c r="W41" s="191"/>
-      <c r="X41" s="191"/>
-      <c r="Y41" s="191"/>
-      <c r="Z41" s="191"/>
-      <c r="AA41" s="191"/>
-      <c r="AB41" s="191"/>
-      <c r="AC41" s="191"/>
-      <c r="AD41" s="191"/>
-      <c r="AE41" s="191"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="175"/>
+      <c r="N41" s="175"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
+      <c r="S41" s="175"/>
+      <c r="T41" s="175"/>
+      <c r="U41" s="175"/>
+      <c r="V41" s="175"/>
+      <c r="W41" s="175"/>
+      <c r="X41" s="175"/>
+      <c r="Y41" s="175"/>
+      <c r="Z41" s="175"/>
+      <c r="AA41" s="175"/>
+      <c r="AB41" s="175"/>
+      <c r="AC41" s="175"/>
+      <c r="AD41" s="175"/>
+      <c r="AE41" s="175"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="47"/>
       <c r="AH41" s="17"/>
@@ -9752,7 +9879,7 @@
       <c r="BF41" s="17"/>
       <c r="BG41" s="17"/>
     </row>
-    <row r="42" spans="1:59" ht="24" customHeight="1">
+    <row r="42" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="129"/>
@@ -9795,7 +9922,7 @@
       <c r="AL42" s="16"/>
       <c r="AM42" s="16"/>
     </row>
-    <row r="43" spans="1:59" ht="24" customHeight="1">
+    <row r="43" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="52" t="s">
@@ -9838,7 +9965,7 @@
       <c r="AL43" s="16"/>
       <c r="AM43" s="16"/>
     </row>
-    <row r="44" spans="1:59" ht="24" customHeight="1">
+    <row r="44" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="54"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
@@ -9847,22 +9974,22 @@
       <c r="H44" s="20"/>
       <c r="I44" s="69"/>
       <c r="J44" s="54"/>
-      <c r="K44" s="211" t="s">
+      <c r="K44" s="204" t="s">
         <v>72</v>
       </c>
-      <c r="L44" s="212"/>
-      <c r="M44" s="212"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="199" t="s">
+      <c r="L44" s="205"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="206"/>
+      <c r="O44" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="P44" s="200"/>
-      <c r="Q44" s="201"/>
-      <c r="R44" s="199" t="s">
+      <c r="P44" s="211"/>
+      <c r="Q44" s="212"/>
+      <c r="R44" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="S44" s="200"/>
-      <c r="T44" s="201"/>
+      <c r="S44" s="211"/>
+      <c r="T44" s="212"/>
       <c r="U44" s="20"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
@@ -9877,7 +10004,7 @@
       <c r="AF44" s="20"/>
       <c r="AG44" s="69"/>
     </row>
-    <row r="45" spans="1:59" ht="24" customHeight="1">
+    <row r="45" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="54"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
@@ -9886,20 +10013,20 @@
       <c r="H45" s="20"/>
       <c r="I45" s="69"/>
       <c r="J45" s="54"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="215"/>
-      <c r="M45" s="215"/>
-      <c r="N45" s="216"/>
-      <c r="O45" s="199" t="s">
+      <c r="K45" s="207"/>
+      <c r="L45" s="208"/>
+      <c r="M45" s="208"/>
+      <c r="N45" s="209"/>
+      <c r="O45" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="P45" s="200"/>
-      <c r="Q45" s="201"/>
-      <c r="R45" s="199" t="s">
+      <c r="P45" s="211"/>
+      <c r="Q45" s="212"/>
+      <c r="R45" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="S45" s="200"/>
-      <c r="T45" s="201"/>
+      <c r="S45" s="211"/>
+      <c r="T45" s="212"/>
       <c r="U45" s="20"/>
       <c r="V45" s="20"/>
       <c r="W45" s="20"/>
@@ -9914,7 +10041,7 @@
       <c r="AF45" s="20"/>
       <c r="AG45" s="69"/>
     </row>
-    <row r="46" spans="1:59" ht="24" customHeight="1">
+    <row r="46" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="54"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
@@ -9929,16 +10056,16 @@
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="196" t="s">
+      <c r="O46" s="201" t="s">
         <v>225</v>
       </c>
-      <c r="P46" s="197"/>
-      <c r="Q46" s="198"/>
-      <c r="R46" s="196" t="s">
+      <c r="P46" s="202"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="201" t="s">
         <v>227</v>
       </c>
-      <c r="S46" s="197"/>
-      <c r="T46" s="198"/>
+      <c r="S46" s="202"/>
+      <c r="T46" s="203"/>
       <c r="U46" s="20"/>
       <c r="V46" s="20"/>
       <c r="W46" s="20"/>
@@ -9953,7 +10080,7 @@
       <c r="AF46" s="20"/>
       <c r="AG46" s="69"/>
     </row>
-    <row r="47" spans="1:59" ht="24" customHeight="1">
+    <row r="47" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="54"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
@@ -9968,16 +10095,16 @@
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="196" t="s">
+      <c r="O47" s="201" t="s">
         <v>209</v>
       </c>
-      <c r="P47" s="197"/>
-      <c r="Q47" s="198"/>
-      <c r="R47" s="196" t="s">
+      <c r="P47" s="202"/>
+      <c r="Q47" s="203"/>
+      <c r="R47" s="201" t="s">
         <v>228</v>
       </c>
-      <c r="S47" s="197"/>
-      <c r="T47" s="198"/>
+      <c r="S47" s="202"/>
+      <c r="T47" s="203"/>
       <c r="U47" s="20"/>
       <c r="V47" s="20"/>
       <c r="W47" s="20"/>
@@ -9992,7 +10119,7 @@
       <c r="AF47" s="20"/>
       <c r="AG47" s="69"/>
     </row>
-    <row r="48" spans="1:59" ht="24" customHeight="1">
+    <row r="48" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="54"/>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
@@ -10007,16 +10134,16 @@
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="196" t="s">
+      <c r="O48" s="201" t="s">
         <v>226</v>
       </c>
-      <c r="P48" s="197"/>
-      <c r="Q48" s="198"/>
-      <c r="R48" s="196" t="s">
+      <c r="P48" s="202"/>
+      <c r="Q48" s="203"/>
+      <c r="R48" s="201" t="s">
         <v>229</v>
       </c>
-      <c r="S48" s="197"/>
-      <c r="T48" s="198"/>
+      <c r="S48" s="202"/>
+      <c r="T48" s="203"/>
       <c r="U48" s="20"/>
       <c r="V48" s="20"/>
       <c r="W48" s="20"/>
@@ -10031,7 +10158,7 @@
       <c r="AF48" s="20"/>
       <c r="AG48" s="69"/>
     </row>
-    <row r="49" spans="1:59" ht="24" customHeight="1">
+    <row r="49" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="54"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -10046,16 +10173,16 @@
       <c r="L49" s="60"/>
       <c r="M49" s="31"/>
       <c r="N49" s="61"/>
-      <c r="O49" s="202" t="s">
+      <c r="O49" s="198" t="s">
         <v>223</v>
       </c>
-      <c r="P49" s="203"/>
-      <c r="Q49" s="204"/>
-      <c r="R49" s="202" t="s">
+      <c r="P49" s="199"/>
+      <c r="Q49" s="200"/>
+      <c r="R49" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="S49" s="203"/>
-      <c r="T49" s="204"/>
+      <c r="S49" s="199"/>
+      <c r="T49" s="200"/>
       <c r="U49" s="104"/>
       <c r="V49" s="20"/>
       <c r="W49" s="20"/>
@@ -10070,7 +10197,7 @@
       <c r="AF49" s="20"/>
       <c r="AG49" s="69"/>
     </row>
-    <row r="50" spans="1:59" ht="24" customHeight="1">
+    <row r="50" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="54"/>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
@@ -10079,33 +10206,33 @@
       <c r="H50" s="20"/>
       <c r="I50" s="69"/>
       <c r="J50" s="54"/>
-      <c r="K50" s="191" t="s">
+      <c r="K50" s="175" t="s">
         <v>236</v>
       </c>
-      <c r="L50" s="191"/>
-      <c r="M50" s="191"/>
-      <c r="N50" s="191"/>
-      <c r="O50" s="191"/>
-      <c r="P50" s="191"/>
-      <c r="Q50" s="191"/>
-      <c r="R50" s="191"/>
-      <c r="S50" s="191"/>
-      <c r="T50" s="191"/>
-      <c r="U50" s="175"/>
-      <c r="V50" s="175"/>
-      <c r="W50" s="175"/>
-      <c r="X50" s="175"/>
-      <c r="Y50" s="175"/>
-      <c r="Z50" s="175"/>
-      <c r="AA50" s="175"/>
-      <c r="AB50" s="175"/>
-      <c r="AC50" s="175"/>
-      <c r="AD50" s="175"/>
-      <c r="AE50" s="175"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="175"/>
+      <c r="N50" s="175"/>
+      <c r="O50" s="175"/>
+      <c r="P50" s="175"/>
+      <c r="Q50" s="175"/>
+      <c r="R50" s="175"/>
+      <c r="S50" s="175"/>
+      <c r="T50" s="175"/>
+      <c r="U50" s="181"/>
+      <c r="V50" s="181"/>
+      <c r="W50" s="181"/>
+      <c r="X50" s="181"/>
+      <c r="Y50" s="181"/>
+      <c r="Z50" s="181"/>
+      <c r="AA50" s="181"/>
+      <c r="AB50" s="181"/>
+      <c r="AC50" s="181"/>
+      <c r="AD50" s="181"/>
+      <c r="AE50" s="181"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="69"/>
     </row>
-    <row r="51" spans="1:59" ht="24" customHeight="1">
+    <row r="51" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="53"/>
@@ -10148,7 +10275,7 @@
       <c r="AL51" s="16"/>
       <c r="AM51" s="16"/>
     </row>
-    <row r="52" spans="1:59" ht="24" customHeight="1">
+    <row r="52" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="50" t="s">
         <v>19</v>
       </c>
@@ -10185,7 +10312,7 @@
       <c r="AF52" s="31"/>
       <c r="AG52" s="32"/>
     </row>
-    <row r="53" spans="1:59" ht="24" customHeight="1">
+    <row r="53" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="55"/>
@@ -10226,7 +10353,7 @@
       <c r="AL53" s="16"/>
       <c r="AM53" s="16"/>
     </row>
-    <row r="54" spans="1:59" ht="24" customHeight="1">
+    <row r="54" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="16" t="s">
         <v>146</v>
       </c>
@@ -10288,7 +10415,7 @@
       <c r="BF54" s="36"/>
       <c r="BG54" s="36"/>
     </row>
-    <row r="55" spans="1:59" ht="24" customHeight="1">
+    <row r="55" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="16" t="s">
         <v>151</v>
       </c>
@@ -10350,9 +10477,9 @@
       <c r="BF55" s="36"/>
       <c r="BG55" s="36"/>
     </row>
-    <row r="56" spans="1:59" ht="24" customHeight="1">
+    <row r="56" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
@@ -10411,11 +10538,11 @@
       <c r="BF56" s="36"/>
       <c r="BG56" s="36"/>
     </row>
-    <row r="57" spans="1:59" ht="24" customHeight="1">
+    <row r="57" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
@@ -10472,13 +10599,13 @@
       <c r="BF57" s="36"/>
       <c r="BG57" s="36"/>
     </row>
-    <row r="58" spans="1:59" ht="24" customHeight="1">
+    <row r="58" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
       <c r="E58" s="45" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="19"/>
@@ -10515,13 +10642,13 @@
       <c r="AL58" s="16"/>
       <c r="AM58" s="16"/>
     </row>
-    <row r="59" spans="1:59" ht="24" customHeight="1">
+    <row r="59" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="55"/>
       <c r="D59" s="45"/>
       <c r="F59" s="110" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G59" s="45"/>
       <c r="H59" s="20"/>
@@ -10557,13 +10684,13 @@
       <c r="AL59" s="16"/>
       <c r="AM59" s="16"/>
     </row>
-    <row r="60" spans="1:59" ht="24" customHeight="1">
+    <row r="60" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="F60" s="110" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="24"/>
@@ -10599,14 +10726,14 @@
       <c r="AL60" s="16"/>
       <c r="AM60" s="16"/>
     </row>
-    <row r="61" spans="1:59" ht="24" customHeight="1">
+    <row r="61" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
       <c r="E61" s="25"/>
       <c r="F61" s="110" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -10642,7 +10769,7 @@
       <c r="AL61" s="16"/>
       <c r="AM61" s="16"/>
     </row>
-    <row r="62" spans="1:59" ht="24" customHeight="1">
+    <row r="62" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="19" t="s">
@@ -10687,7 +10814,7 @@
       <c r="AL62" s="16"/>
       <c r="AM62" s="16"/>
     </row>
-    <row r="63" spans="1:59" ht="24" customHeight="1">
+    <row r="63" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="25"/>
@@ -10734,7 +10861,7 @@
       <c r="AL63" s="16"/>
       <c r="AM63" s="16"/>
     </row>
-    <row r="64" spans="1:59" ht="24" customHeight="1">
+    <row r="64" spans="1:59" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="25"/>
@@ -10781,7 +10908,7 @@
       <c r="AL64" s="16"/>
       <c r="AM64" s="16"/>
     </row>
-    <row r="65" spans="1:39" ht="24" customHeight="1">
+    <row r="65" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="25"/>
@@ -10828,7 +10955,7 @@
       <c r="AL65" s="16"/>
       <c r="AM65" s="16"/>
     </row>
-    <row r="66" spans="1:39" ht="24" customHeight="1">
+    <row r="66" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="25"/>
@@ -10875,7 +11002,7 @@
       <c r="AL66" s="16"/>
       <c r="AM66" s="16"/>
     </row>
-    <row r="67" spans="1:39" ht="24" customHeight="1">
+    <row r="67" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="25"/>
@@ -10918,7 +11045,7 @@
       <c r="AL67" s="16"/>
       <c r="AM67" s="16"/>
     </row>
-    <row r="68" spans="1:39" ht="24" customHeight="1">
+    <row r="68" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="17"/>
@@ -10961,7 +11088,7 @@
       <c r="AL68" s="16"/>
       <c r="AM68" s="16"/>
     </row>
-    <row r="69" spans="1:39" ht="24" customHeight="1">
+    <row r="69" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="17"/>
@@ -11004,7 +11131,7 @@
       <c r="AL69" s="16"/>
       <c r="AM69" s="16"/>
     </row>
-    <row r="70" spans="1:39" ht="24" customHeight="1">
+    <row r="70" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
@@ -11047,7 +11174,7 @@
       <c r="AL70" s="16"/>
       <c r="AM70" s="16"/>
     </row>
-    <row r="71" spans="1:39" ht="24" customHeight="1">
+    <row r="71" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="19" t="s">
@@ -11055,7 +11182,7 @@
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -11092,13 +11219,13 @@
       <c r="AL71" s="16"/>
       <c r="AM71" s="16"/>
     </row>
-    <row r="72" spans="1:39" ht="24" customHeight="1">
+    <row r="72" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -11135,7 +11262,7 @@
       <c r="AL72" s="16"/>
       <c r="AM72" s="16"/>
     </row>
-    <row r="73" spans="1:39" ht="24" customHeight="1">
+    <row r="73" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="16"/>
       <c r="B73" s="16" t="s">
         <v>241</v>
@@ -11178,7 +11305,7 @@
       <c r="AL73" s="16"/>
       <c r="AM73" s="16"/>
     </row>
-    <row r="74" spans="1:39" ht="24" customHeight="1">
+    <row r="74" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="19" t="s">
@@ -11215,7 +11342,7 @@
       <c r="AL74" s="16"/>
       <c r="AM74" s="16"/>
     </row>
-    <row r="75" spans="1:39" ht="24" customHeight="1">
+    <row r="75" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="19"/>
@@ -11262,7 +11389,7 @@
       <c r="AL75" s="19"/>
       <c r="AM75" s="19"/>
     </row>
-    <row r="76" spans="1:39" ht="24" customHeight="1">
+    <row r="76" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
@@ -11307,7 +11434,7 @@
       <c r="AL76" s="19"/>
       <c r="AM76" s="19"/>
     </row>
-    <row r="77" spans="1:39" ht="24" customHeight="1">
+    <row r="77" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="17" t="s">
@@ -11352,7 +11479,7 @@
       <c r="AL77" s="19"/>
       <c r="AM77" s="19"/>
     </row>
-    <row r="78" spans="1:39" ht="24" customHeight="1">
+    <row r="78" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17" t="s">
@@ -11360,7 +11487,7 @@
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -11397,13 +11524,13 @@
       <c r="AL78" s="19"/>
       <c r="AM78" s="19"/>
     </row>
-    <row r="79" spans="1:39" ht="24" customHeight="1">
+    <row r="79" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="17"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -11440,13 +11567,13 @@
       <c r="AL79" s="19"/>
       <c r="AM79" s="19"/>
     </row>
-    <row r="80" spans="1:39" ht="24" customHeight="1">
+    <row r="80" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="20"/>
@@ -11483,13 +11610,13 @@
       <c r="AL80" s="20"/>
       <c r="AM80" s="20"/>
     </row>
-    <row r="81" spans="1:39" ht="24" customHeight="1">
+    <row r="81" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="111" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F81" s="19"/>
       <c r="H81" s="19"/>
@@ -11525,7 +11652,7 @@
       <c r="AL81" s="16"/>
       <c r="AM81" s="16"/>
     </row>
-    <row r="82" spans="1:39" ht="24" customHeight="1">
+    <row r="82" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="25"/>
@@ -11565,7 +11692,7 @@
       <c r="AL82" s="16"/>
       <c r="AM82" s="16"/>
     </row>
-    <row r="83" spans="1:39" ht="24" customHeight="1">
+    <row r="83" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="16"/>
       <c r="B83" s="16" t="s">
         <v>147</v>
@@ -11608,7 +11735,7 @@
       <c r="AL83" s="68"/>
       <c r="AM83" s="20"/>
     </row>
-    <row r="84" spans="1:39" ht="24" customHeight="1">
+    <row r="84" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="16"/>
       <c r="B84" s="64"/>
       <c r="C84" s="17"/>
@@ -11649,7 +11776,7 @@
       <c r="AL84" s="68"/>
       <c r="AM84" s="20"/>
     </row>
-    <row r="85" spans="1:39" ht="24" customHeight="1">
+    <row r="85" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="17"/>
@@ -11690,7 +11817,7 @@
       <c r="AL85" s="20"/>
       <c r="AM85" s="20"/>
     </row>
-    <row r="86" spans="1:39" ht="24" customHeight="1">
+    <row r="86" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="16"/>
       <c r="B86" s="16" t="s">
         <v>148</v>
@@ -11733,7 +11860,7 @@
       <c r="AL86" s="20"/>
       <c r="AM86" s="20"/>
     </row>
-    <row r="87" spans="1:39" ht="24" customHeight="1">
+    <row r="87" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="16"/>
       <c r="B87" s="16" t="s">
         <v>150</v>
@@ -11776,7 +11903,7 @@
       <c r="AL87" s="20"/>
       <c r="AM87" s="20"/>
     </row>
-    <row r="88" spans="1:39" ht="24" customHeight="1">
+    <row r="88" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="17"/>
@@ -11817,7 +11944,7 @@
       <c r="AL88" s="20"/>
       <c r="AM88" s="20"/>
     </row>
-    <row r="89" spans="1:39" ht="24" customHeight="1">
+    <row r="89" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="17"/>
@@ -11858,7 +11985,7 @@
       <c r="AL89" s="20"/>
       <c r="AM89" s="20"/>
     </row>
-    <row r="90" spans="1:39" ht="24" customHeight="1">
+    <row r="90" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="16"/>
       <c r="B90" s="16" t="s">
         <v>149</v>
@@ -11901,7 +12028,7 @@
       <c r="AL90" s="20"/>
       <c r="AM90" s="20"/>
     </row>
-    <row r="91" spans="1:39" ht="24" customHeight="1">
+    <row r="91" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="19" t="s">
@@ -11946,7 +12073,7 @@
       <c r="AL91" s="20"/>
       <c r="AM91" s="20"/>
     </row>
-    <row r="92" spans="1:39" ht="24" customHeight="1">
+    <row r="92" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
@@ -11991,7 +12118,7 @@
       <c r="AL92" s="20"/>
       <c r="AM92" s="20"/>
     </row>
-    <row r="93" spans="1:39" ht="24" customHeight="1">
+    <row r="93" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="17"/>
@@ -12000,7 +12127,7 @@
         <v>138</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
@@ -12036,13 +12163,13 @@
       <c r="AL93" s="20"/>
       <c r="AM93" s="20"/>
     </row>
-    <row r="94" spans="1:39" ht="24" customHeight="1">
+    <row r="94" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="19"/>
       <c r="E94" s="111" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="20"/>
@@ -12079,7 +12206,7 @@
       <c r="AL94" s="20"/>
       <c r="AM94" s="20"/>
     </row>
-    <row r="95" spans="1:39" ht="13.5" customHeight="1">
+    <row r="95" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="13"/>
       <c r="D95" s="15"/>
       <c r="E95" s="21"/>
@@ -12118,7 +12245,7 @@
       <c r="AL95" s="22"/>
       <c r="AM95" s="22"/>
     </row>
-    <row r="96" spans="1:39" ht="12" customHeight="1">
+    <row r="96" spans="1:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="12"/>
@@ -12157,7 +12284,7 @@
       <c r="AL96" s="12"/>
       <c r="AM96" s="12"/>
     </row>
-    <row r="97" spans="3:39" ht="12" customHeight="1">
+    <row r="97" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
@@ -12196,7 +12323,7 @@
       <c r="AL97" s="10"/>
       <c r="AM97" s="10"/>
     </row>
-    <row r="98" spans="3:39" ht="12" customHeight="1">
+    <row r="98" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
@@ -12235,7 +12362,7 @@
       <c r="AL98" s="12"/>
       <c r="AM98" s="12"/>
     </row>
-    <row r="99" spans="3:39" ht="12" customHeight="1">
+    <row r="99" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -12252,7 +12379,7 @@
       <c r="P99" s="11"/>
       <c r="Q99" s="11"/>
     </row>
-    <row r="100" spans="3:39" ht="12" customHeight="1">
+    <row r="100" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -12269,7 +12396,7 @@
       <c r="P100" s="11"/>
       <c r="Q100" s="11"/>
     </row>
-    <row r="101" spans="3:39" ht="12" customHeight="1">
+    <row r="101" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -12286,7 +12413,7 @@
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
     </row>
-    <row r="102" spans="3:39" ht="12" customHeight="1">
+    <row r="102" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -12303,7 +12430,7 @@
       <c r="P102" s="11"/>
       <c r="Q102" s="11"/>
     </row>
-    <row r="103" spans="3:39" ht="12" customHeight="1">
+    <row r="103" spans="3:39" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
@@ -12322,54 +12449,39 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="K50:AE50"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="R48:T48"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="K41:AE41"/>
-    <mergeCell ref="K44:N45"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="R44:T44"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="R45:T45"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="U38:W38"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="AA38:AC38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R39:T39"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="AA39:AC39"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="AA37:AC37"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA36:AC36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="J32:AG33"/>
+    <mergeCell ref="K25:AE25"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="K35:N36"/>
+    <mergeCell ref="O35:W35"/>
+    <mergeCell ref="X35:AF35"/>
+    <mergeCell ref="O36:Q36"/>
     <mergeCell ref="O11:W11"/>
     <mergeCell ref="X11:AF11"/>
     <mergeCell ref="O19:Q19"/>
@@ -12386,39 +12498,54 @@
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="K17:AE17"/>
     <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="J32:AG33"/>
-    <mergeCell ref="K25:AE25"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="K35:N36"/>
-    <mergeCell ref="O35:W35"/>
-    <mergeCell ref="X35:AF35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="AA37:AC37"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA36:AC36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="R37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="U38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AC38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R39:T39"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AC39"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="K41:AE41"/>
+    <mergeCell ref="K44:N45"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R44:T44"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="R45:T45"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="K50:AE50"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:T48"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12436,195 +12563,195 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:38" ht="12" customHeight="1">
+    <row r="1" spans="1:38" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="12" customHeight="1">
-      <c r="X3" s="217" t="s">
+    <row r="3" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X3" s="261" t="s">
         <v>232</v>
       </c>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217" t="s">
+      <c r="Y3" s="261"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="261"/>
+      <c r="AB3" s="261" t="s">
         <v>234</v>
       </c>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="217"/>
-    </row>
-    <row r="4" spans="1:38" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B4" s="240" t="s">
+      <c r="AC3" s="261"/>
+      <c r="AD3" s="261"/>
+      <c r="AE3" s="261"/>
+    </row>
+    <row r="4" spans="1:38" s="62" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="166" t="s">
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="240" t="s">
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162" t="s">
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
-      <c r="U4" s="162"/>
-      <c r="V4" s="162"/>
-      <c r="W4" s="162"/>
-      <c r="X4" s="224" t="s">
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+      <c r="R4" s="183"/>
+      <c r="S4" s="183"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="223" t="s">
         <v>244</v>
       </c>
-      <c r="Y4" s="225"/>
-      <c r="Z4" s="224" t="s">
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="225"/>
-      <c r="AB4" s="224" t="s">
+      <c r="AA4" s="224"/>
+      <c r="AB4" s="223" t="s">
         <v>244</v>
       </c>
-      <c r="AC4" s="225"/>
-      <c r="AD4" s="224" t="s">
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="AE4" s="225"/>
-      <c r="AF4" s="166" t="s">
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="AG4" s="164"/>
-      <c r="AH4" s="165"/>
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="186"/>
       <c r="AI4" s="109"/>
       <c r="AJ4" s="109"/>
       <c r="AK4" s="109"/>
       <c r="AL4" s="109"/>
     </row>
-    <row r="5" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B5" s="241" t="s">
+    <row r="5" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="233" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="230" t="s">
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="257" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="242" t="s">
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="181" t="s">
+      <c r="K5" s="234"/>
+      <c r="L5" s="234"/>
+      <c r="M5" s="234"/>
+      <c r="N5" s="162" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="226">
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
+      <c r="X5" s="225">
         <v>2</v>
       </c>
-      <c r="Y5" s="227"/>
-      <c r="Z5" s="233">
+      <c r="Y5" s="226"/>
+      <c r="Z5" s="227">
         <v>1500000</v>
       </c>
-      <c r="AA5" s="234"/>
-      <c r="AB5" s="226">
+      <c r="AA5" s="228"/>
+      <c r="AB5" s="225">
         <v>3</v>
       </c>
-      <c r="AC5" s="227"/>
-      <c r="AD5" s="233">
+      <c r="AC5" s="226"/>
+      <c r="AD5" s="227">
         <v>2250000</v>
       </c>
-      <c r="AE5" s="234"/>
+      <c r="AE5" s="228"/>
       <c r="AF5" s="92"/>
       <c r="AG5" s="93"/>
-      <c r="AH5" s="294"/>
+      <c r="AH5" s="159"/>
       <c r="AI5" s="158"/>
       <c r="AJ5" s="101"/>
       <c r="AK5" s="101"/>
       <c r="AL5" s="101"/>
     </row>
-    <row r="6" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B6" s="237" t="s">
+    <row r="6" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="235" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="243" t="s">
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="244"/>
-      <c r="G6" s="244"/>
-      <c r="H6" s="244"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="238" t="s">
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="236" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="239" t="s">
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="O6" s="239"/>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
-      <c r="R6" s="239"/>
-      <c r="S6" s="239"/>
-      <c r="T6" s="239"/>
-      <c r="U6" s="239"/>
-      <c r="V6" s="239"/>
-      <c r="W6" s="239"/>
-      <c r="X6" s="228">
+      <c r="O6" s="237"/>
+      <c r="P6" s="237"/>
+      <c r="Q6" s="237"/>
+      <c r="R6" s="237"/>
+      <c r="S6" s="237"/>
+      <c r="T6" s="237"/>
+      <c r="U6" s="237"/>
+      <c r="V6" s="237"/>
+      <c r="W6" s="237"/>
+      <c r="X6" s="229">
         <v>1</v>
       </c>
-      <c r="Y6" s="229"/>
-      <c r="Z6" s="235">
+      <c r="Y6" s="230"/>
+      <c r="Z6" s="247">
         <v>500000</v>
       </c>
-      <c r="AA6" s="236"/>
-      <c r="AB6" s="228">
+      <c r="AA6" s="248"/>
+      <c r="AB6" s="229">
         <v>1</v>
       </c>
-      <c r="AC6" s="229"/>
-      <c r="AD6" s="235">
+      <c r="AC6" s="230"/>
+      <c r="AD6" s="247">
         <v>500000</v>
       </c>
-      <c r="AE6" s="236"/>
+      <c r="AE6" s="248"/>
       <c r="AF6" s="152"/>
       <c r="AG6" s="153"/>
       <c r="AH6" s="154"/>
@@ -12633,53 +12760,53 @@
       <c r="AK6" s="101"/>
       <c r="AL6" s="101"/>
     </row>
-    <row r="7" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B7" s="237" t="s">
+    <row r="7" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="243" t="s">
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="238" t="s">
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="236" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="239" t="s">
+      <c r="K7" s="236"/>
+      <c r="L7" s="236"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="237" t="s">
         <v>128</v>
       </c>
-      <c r="O7" s="239"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="239"/>
-      <c r="U7" s="239"/>
-      <c r="V7" s="239"/>
-      <c r="W7" s="239"/>
-      <c r="X7" s="228">
+      <c r="O7" s="237"/>
+      <c r="P7" s="237"/>
+      <c r="Q7" s="237"/>
+      <c r="R7" s="237"/>
+      <c r="S7" s="237"/>
+      <c r="T7" s="237"/>
+      <c r="U7" s="237"/>
+      <c r="V7" s="237"/>
+      <c r="W7" s="237"/>
+      <c r="X7" s="229">
         <v>50</v>
       </c>
-      <c r="Y7" s="229"/>
-      <c r="Z7" s="218">
+      <c r="Y7" s="230"/>
+      <c r="Z7" s="249">
         <v>30000</v>
       </c>
-      <c r="AA7" s="219"/>
-      <c r="AB7" s="228">
+      <c r="AA7" s="250"/>
+      <c r="AB7" s="229">
         <v>80</v>
       </c>
-      <c r="AC7" s="229"/>
-      <c r="AD7" s="218">
+      <c r="AC7" s="230"/>
+      <c r="AD7" s="249">
         <v>76800</v>
       </c>
-      <c r="AE7" s="219"/>
+      <c r="AE7" s="250"/>
       <c r="AF7" s="152"/>
       <c r="AG7" s="153"/>
       <c r="AH7" s="154"/>
@@ -12688,53 +12815,53 @@
       <c r="AK7" s="101"/>
       <c r="AL7" s="101"/>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B8" s="237" t="s">
+    <row r="8" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="235" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="243" t="s">
+      <c r="C8" s="236"/>
+      <c r="D8" s="236"/>
+      <c r="E8" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="245"/>
-      <c r="J8" s="238" t="s">
+      <c r="F8" s="245"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="245"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="236" t="s">
         <v>129</v>
       </c>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
-      <c r="M8" s="238"/>
-      <c r="N8" s="239" t="s">
+      <c r="K8" s="236"/>
+      <c r="L8" s="236"/>
+      <c r="M8" s="236"/>
+      <c r="N8" s="237" t="s">
         <v>126</v>
       </c>
-      <c r="O8" s="239"/>
-      <c r="P8" s="239"/>
-      <c r="Q8" s="239"/>
-      <c r="R8" s="239"/>
-      <c r="S8" s="239"/>
-      <c r="T8" s="239"/>
-      <c r="U8" s="239"/>
-      <c r="V8" s="239"/>
-      <c r="W8" s="239"/>
-      <c r="X8" s="228">
+      <c r="O8" s="237"/>
+      <c r="P8" s="237"/>
+      <c r="Q8" s="237"/>
+      <c r="R8" s="237"/>
+      <c r="S8" s="237"/>
+      <c r="T8" s="237"/>
+      <c r="U8" s="237"/>
+      <c r="V8" s="237"/>
+      <c r="W8" s="237"/>
+      <c r="X8" s="229">
         <v>150</v>
       </c>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="218">
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="249">
         <v>2500000</v>
       </c>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="228">
+      <c r="AA8" s="250"/>
+      <c r="AB8" s="229">
         <v>342</v>
       </c>
-      <c r="AC8" s="229"/>
-      <c r="AD8" s="218">
+      <c r="AC8" s="230"/>
+      <c r="AD8" s="249">
         <v>6750000</v>
       </c>
-      <c r="AE8" s="219"/>
+      <c r="AE8" s="250"/>
       <c r="AF8" s="152"/>
       <c r="AG8" s="153"/>
       <c r="AH8" s="154"/>
@@ -12743,53 +12870,53 @@
       <c r="AK8" s="101"/>
       <c r="AL8" s="101"/>
     </row>
-    <row r="9" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B9" s="237" t="s">
+    <row r="9" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="235" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="243" t="s">
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="244" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="238" t="s">
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="236" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="239" t="s">
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="237" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="239"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="239"/>
-      <c r="R9" s="239"/>
-      <c r="S9" s="239"/>
-      <c r="T9" s="239"/>
-      <c r="U9" s="239"/>
-      <c r="V9" s="239"/>
-      <c r="W9" s="239"/>
-      <c r="X9" s="220" t="s">
+      <c r="O9" s="237"/>
+      <c r="P9" s="237"/>
+      <c r="Q9" s="237"/>
+      <c r="R9" s="237"/>
+      <c r="S9" s="237"/>
+      <c r="T9" s="237"/>
+      <c r="U9" s="237"/>
+      <c r="V9" s="237"/>
+      <c r="W9" s="237"/>
+      <c r="X9" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="220" t="s">
+      <c r="Y9" s="222"/>
+      <c r="Z9" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="220" t="s">
+      <c r="AA9" s="222"/>
+      <c r="AB9" s="221" t="s">
         <v>70</v>
       </c>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="220" t="s">
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="221" t="s">
         <v>233</v>
       </c>
-      <c r="AE9" s="221"/>
+      <c r="AE9" s="222"/>
       <c r="AF9" s="152"/>
       <c r="AG9" s="153"/>
       <c r="AH9" s="154"/>
@@ -12798,37 +12925,37 @@
       <c r="AK9" s="101"/>
       <c r="AL9" s="101"/>
     </row>
-    <row r="10" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="245"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="239"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="239"/>
-      <c r="R10" s="239"/>
-      <c r="S10" s="239"/>
-      <c r="T10" s="239"/>
-      <c r="U10" s="239"/>
-      <c r="V10" s="239"/>
-      <c r="W10" s="239"/>
-      <c r="X10" s="220"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="220"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="220"/>
-      <c r="AC10" s="221"/>
-      <c r="AD10" s="220"/>
-      <c r="AE10" s="221"/>
+    <row r="10" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="235"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="245"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="236"/>
+      <c r="K10" s="236"/>
+      <c r="L10" s="236"/>
+      <c r="M10" s="236"/>
+      <c r="N10" s="237"/>
+      <c r="O10" s="237"/>
+      <c r="P10" s="237"/>
+      <c r="Q10" s="237"/>
+      <c r="R10" s="237"/>
+      <c r="S10" s="237"/>
+      <c r="T10" s="237"/>
+      <c r="U10" s="237"/>
+      <c r="V10" s="237"/>
+      <c r="W10" s="237"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="221"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="222"/>
       <c r="AF10" s="152"/>
       <c r="AG10" s="153"/>
       <c r="AH10" s="154"/>
@@ -12837,37 +12964,37 @@
       <c r="AK10" s="101"/>
       <c r="AL10" s="101"/>
     </row>
-    <row r="11" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B11" s="237"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="243"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
-      <c r="H11" s="244"/>
-      <c r="I11" s="245"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="239"/>
-      <c r="O11" s="239"/>
-      <c r="P11" s="239"/>
-      <c r="Q11" s="239"/>
-      <c r="R11" s="239"/>
-      <c r="S11" s="239"/>
-      <c r="T11" s="239"/>
-      <c r="U11" s="239"/>
-      <c r="V11" s="239"/>
-      <c r="W11" s="239"/>
-      <c r="X11" s="220"/>
-      <c r="Y11" s="221"/>
-      <c r="Z11" s="220"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="220"/>
-      <c r="AC11" s="221"/>
-      <c r="AD11" s="220"/>
-      <c r="AE11" s="221"/>
+    <row r="11" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="235"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="236"/>
+      <c r="K11" s="236"/>
+      <c r="L11" s="236"/>
+      <c r="M11" s="236"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
+      <c r="T11" s="237"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="237"/>
+      <c r="W11" s="237"/>
+      <c r="X11" s="221"/>
+      <c r="Y11" s="222"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="222"/>
+      <c r="AB11" s="221"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="221"/>
+      <c r="AE11" s="222"/>
       <c r="AF11" s="152"/>
       <c r="AG11" s="153"/>
       <c r="AH11" s="154"/>
@@ -12876,37 +13003,37 @@
       <c r="AK11" s="101"/>
       <c r="AL11" s="101"/>
     </row>
-    <row r="12" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B12" s="237"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="243"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="245"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="239"/>
-      <c r="O12" s="239"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="239"/>
-      <c r="R12" s="239"/>
-      <c r="S12" s="239"/>
-      <c r="T12" s="239"/>
-      <c r="U12" s="239"/>
-      <c r="V12" s="239"/>
-      <c r="W12" s="239"/>
-      <c r="X12" s="220"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="220"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="220"/>
-      <c r="AC12" s="221"/>
-      <c r="AD12" s="220"/>
-      <c r="AE12" s="221"/>
+    <row r="12" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="235"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="245"/>
+      <c r="G12" s="245"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="236"/>
+      <c r="L12" s="236"/>
+      <c r="M12" s="236"/>
+      <c r="N12" s="237"/>
+      <c r="O12" s="237"/>
+      <c r="P12" s="237"/>
+      <c r="Q12" s="237"/>
+      <c r="R12" s="237"/>
+      <c r="S12" s="237"/>
+      <c r="T12" s="237"/>
+      <c r="U12" s="237"/>
+      <c r="V12" s="237"/>
+      <c r="W12" s="237"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="222"/>
       <c r="AF12" s="152"/>
       <c r="AG12" s="153"/>
       <c r="AH12" s="154"/>
@@ -12915,37 +13042,37 @@
       <c r="AK12" s="101"/>
       <c r="AL12" s="101"/>
     </row>
-    <row r="13" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B13" s="237"/>
-      <c r="C13" s="238"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="244"/>
-      <c r="G13" s="244"/>
-      <c r="H13" s="244"/>
-      <c r="I13" s="245"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="239"/>
-      <c r="R13" s="239"/>
-      <c r="S13" s="239"/>
-      <c r="T13" s="239"/>
-      <c r="U13" s="239"/>
-      <c r="V13" s="239"/>
-      <c r="W13" s="239"/>
-      <c r="X13" s="220"/>
-      <c r="Y13" s="221"/>
-      <c r="Z13" s="220"/>
-      <c r="AA13" s="221"/>
-      <c r="AB13" s="220"/>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="220"/>
-      <c r="AE13" s="221"/>
+    <row r="13" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="235"/>
+      <c r="C13" s="236"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="244"/>
+      <c r="F13" s="245"/>
+      <c r="G13" s="245"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="236"/>
+      <c r="K13" s="236"/>
+      <c r="L13" s="236"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="237"/>
+      <c r="T13" s="237"/>
+      <c r="U13" s="237"/>
+      <c r="V13" s="237"/>
+      <c r="W13" s="237"/>
+      <c r="X13" s="221"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="221"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="221"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="221"/>
+      <c r="AE13" s="222"/>
       <c r="AF13" s="152"/>
       <c r="AG13" s="153"/>
       <c r="AH13" s="154"/>
@@ -12954,37 +13081,37 @@
       <c r="AK13" s="101"/>
       <c r="AL13" s="101"/>
     </row>
-    <row r="14" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B14" s="237"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="244"/>
-      <c r="G14" s="244"/>
-      <c r="H14" s="244"/>
-      <c r="I14" s="245"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="239"/>
-      <c r="P14" s="239"/>
-      <c r="Q14" s="239"/>
-      <c r="R14" s="239"/>
-      <c r="S14" s="239"/>
-      <c r="T14" s="239"/>
-      <c r="U14" s="239"/>
-      <c r="V14" s="239"/>
-      <c r="W14" s="239"/>
-      <c r="X14" s="220"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="220"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="220"/>
-      <c r="AC14" s="221"/>
-      <c r="AD14" s="220"/>
-      <c r="AE14" s="221"/>
+    <row r="14" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="235"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="244"/>
+      <c r="F14" s="245"/>
+      <c r="G14" s="245"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="236"/>
+      <c r="M14" s="236"/>
+      <c r="N14" s="237"/>
+      <c r="O14" s="237"/>
+      <c r="P14" s="237"/>
+      <c r="Q14" s="237"/>
+      <c r="R14" s="237"/>
+      <c r="S14" s="237"/>
+      <c r="T14" s="237"/>
+      <c r="U14" s="237"/>
+      <c r="V14" s="237"/>
+      <c r="W14" s="237"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="222"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="222"/>
+      <c r="AB14" s="221"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="222"/>
       <c r="AF14" s="152"/>
       <c r="AG14" s="153"/>
       <c r="AH14" s="154"/>
@@ -12993,37 +13120,37 @@
       <c r="AK14" s="101"/>
       <c r="AL14" s="101"/>
     </row>
-    <row r="15" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B15" s="237"/>
-      <c r="C15" s="238"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="245"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="239"/>
-      <c r="O15" s="239"/>
-      <c r="P15" s="239"/>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="239"/>
-      <c r="S15" s="239"/>
-      <c r="T15" s="239"/>
-      <c r="U15" s="239"/>
-      <c r="V15" s="239"/>
-      <c r="W15" s="239"/>
-      <c r="X15" s="220"/>
-      <c r="Y15" s="221"/>
-      <c r="Z15" s="220"/>
-      <c r="AA15" s="221"/>
-      <c r="AB15" s="220"/>
-      <c r="AC15" s="221"/>
-      <c r="AD15" s="220"/>
-      <c r="AE15" s="221"/>
+    <row r="15" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="235"/>
+      <c r="C15" s="236"/>
+      <c r="D15" s="236"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="236"/>
+      <c r="K15" s="236"/>
+      <c r="L15" s="236"/>
+      <c r="M15" s="236"/>
+      <c r="N15" s="237"/>
+      <c r="O15" s="237"/>
+      <c r="P15" s="237"/>
+      <c r="Q15" s="237"/>
+      <c r="R15" s="237"/>
+      <c r="S15" s="237"/>
+      <c r="T15" s="237"/>
+      <c r="U15" s="237"/>
+      <c r="V15" s="237"/>
+      <c r="W15" s="237"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="222"/>
+      <c r="Z15" s="221"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="221"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="221"/>
+      <c r="AE15" s="222"/>
       <c r="AF15" s="152"/>
       <c r="AG15" s="153"/>
       <c r="AH15" s="154"/>
@@ -13032,37 +13159,37 @@
       <c r="AK15" s="101"/>
       <c r="AL15" s="101"/>
     </row>
-    <row r="16" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B16" s="237"/>
-      <c r="C16" s="238"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="244"/>
-      <c r="G16" s="244"/>
-      <c r="H16" s="244"/>
-      <c r="I16" s="245"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="239"/>
-      <c r="O16" s="239"/>
-      <c r="P16" s="239"/>
-      <c r="Q16" s="239"/>
-      <c r="R16" s="239"/>
-      <c r="S16" s="239"/>
-      <c r="T16" s="239"/>
-      <c r="U16" s="239"/>
-      <c r="V16" s="239"/>
-      <c r="W16" s="239"/>
-      <c r="X16" s="220"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="220"/>
-      <c r="AA16" s="221"/>
-      <c r="AB16" s="220"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="220"/>
-      <c r="AE16" s="221"/>
+    <row r="16" spans="1:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="235"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="244"/>
+      <c r="F16" s="245"/>
+      <c r="G16" s="245"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="236"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="237"/>
+      <c r="T16" s="237"/>
+      <c r="U16" s="237"/>
+      <c r="V16" s="237"/>
+      <c r="W16" s="237"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="221"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="221"/>
+      <c r="AE16" s="222"/>
       <c r="AF16" s="152"/>
       <c r="AG16" s="153"/>
       <c r="AH16" s="154"/>
@@ -13071,37 +13198,37 @@
       <c r="AK16" s="101"/>
       <c r="AL16" s="101"/>
     </row>
-    <row r="17" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B17" s="237"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="243"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="244"/>
-      <c r="H17" s="244"/>
-      <c r="I17" s="245"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="239"/>
-      <c r="R17" s="239"/>
-      <c r="S17" s="239"/>
-      <c r="T17" s="239"/>
-      <c r="U17" s="239"/>
-      <c r="V17" s="239"/>
-      <c r="W17" s="239"/>
-      <c r="X17" s="220"/>
-      <c r="Y17" s="221"/>
-      <c r="Z17" s="220"/>
-      <c r="AA17" s="221"/>
-      <c r="AB17" s="220"/>
-      <c r="AC17" s="221"/>
-      <c r="AD17" s="220"/>
-      <c r="AE17" s="221"/>
+    <row r="17" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="235"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="236"/>
+      <c r="M17" s="236"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="237"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="237"/>
+      <c r="T17" s="237"/>
+      <c r="U17" s="237"/>
+      <c r="V17" s="237"/>
+      <c r="W17" s="237"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="221"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="222"/>
       <c r="AF17" s="152"/>
       <c r="AG17" s="153"/>
       <c r="AH17" s="154"/>
@@ -13110,37 +13237,37 @@
       <c r="AK17" s="101"/>
       <c r="AL17" s="101"/>
     </row>
-    <row r="18" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B18" s="237"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="244"/>
-      <c r="I18" s="245"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="239"/>
-      <c r="O18" s="239"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="239"/>
-      <c r="S18" s="239"/>
-      <c r="T18" s="239"/>
-      <c r="U18" s="239"/>
-      <c r="V18" s="239"/>
-      <c r="W18" s="239"/>
-      <c r="X18" s="220"/>
-      <c r="Y18" s="221"/>
-      <c r="Z18" s="220"/>
-      <c r="AA18" s="221"/>
-      <c r="AB18" s="220"/>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="220"/>
-      <c r="AE18" s="221"/>
+    <row r="18" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="235"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="245"/>
+      <c r="H18" s="245"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="236"/>
+      <c r="N18" s="237"/>
+      <c r="O18" s="237"/>
+      <c r="P18" s="237"/>
+      <c r="Q18" s="237"/>
+      <c r="R18" s="237"/>
+      <c r="S18" s="237"/>
+      <c r="T18" s="237"/>
+      <c r="U18" s="237"/>
+      <c r="V18" s="237"/>
+      <c r="W18" s="237"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="222"/>
       <c r="AF18" s="152"/>
       <c r="AG18" s="153"/>
       <c r="AH18" s="154"/>
@@ -13149,37 +13276,37 @@
       <c r="AK18" s="101"/>
       <c r="AL18" s="101"/>
     </row>
-    <row r="19" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B19" s="237"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="243"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="244"/>
-      <c r="H19" s="244"/>
-      <c r="I19" s="245"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="239"/>
-      <c r="P19" s="239"/>
-      <c r="Q19" s="239"/>
-      <c r="R19" s="239"/>
-      <c r="S19" s="239"/>
-      <c r="T19" s="239"/>
-      <c r="U19" s="239"/>
-      <c r="V19" s="239"/>
-      <c r="W19" s="239"/>
-      <c r="X19" s="220"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="220"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="220"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="220"/>
-      <c r="AE19" s="221"/>
+    <row r="19" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="235"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
+      <c r="H19" s="245"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="236"/>
+      <c r="K19" s="236"/>
+      <c r="L19" s="236"/>
+      <c r="M19" s="236"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="237"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="237"/>
+      <c r="T19" s="237"/>
+      <c r="U19" s="237"/>
+      <c r="V19" s="237"/>
+      <c r="W19" s="237"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="222"/>
       <c r="AF19" s="152"/>
       <c r="AG19" s="153"/>
       <c r="AH19" s="154"/>
@@ -13188,37 +13315,37 @@
       <c r="AK19" s="101"/>
       <c r="AL19" s="101"/>
     </row>
-    <row r="20" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B20" s="237"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="243"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="244"/>
-      <c r="H20" s="244"/>
-      <c r="I20" s="245"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="239"/>
-      <c r="O20" s="239"/>
-      <c r="P20" s="239"/>
-      <c r="Q20" s="239"/>
-      <c r="R20" s="239"/>
-      <c r="S20" s="239"/>
-      <c r="T20" s="239"/>
-      <c r="U20" s="239"/>
-      <c r="V20" s="239"/>
-      <c r="W20" s="239"/>
-      <c r="X20" s="220"/>
-      <c r="Y20" s="221"/>
-      <c r="Z20" s="220"/>
-      <c r="AA20" s="221"/>
-      <c r="AB20" s="220"/>
-      <c r="AC20" s="221"/>
-      <c r="AD20" s="220"/>
-      <c r="AE20" s="221"/>
+    <row r="20" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="235"/>
+      <c r="C20" s="236"/>
+      <c r="D20" s="236"/>
+      <c r="E20" s="244"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
+      <c r="H20" s="245"/>
+      <c r="I20" s="246"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="236"/>
+      <c r="L20" s="236"/>
+      <c r="M20" s="236"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="237"/>
+      <c r="Q20" s="237"/>
+      <c r="R20" s="237"/>
+      <c r="S20" s="237"/>
+      <c r="T20" s="237"/>
+      <c r="U20" s="237"/>
+      <c r="V20" s="237"/>
+      <c r="W20" s="237"/>
+      <c r="X20" s="221"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="221"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="221"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="221"/>
+      <c r="AE20" s="222"/>
       <c r="AF20" s="152"/>
       <c r="AG20" s="153"/>
       <c r="AH20" s="154"/>
@@ -13227,37 +13354,37 @@
       <c r="AK20" s="101"/>
       <c r="AL20" s="101"/>
     </row>
-    <row r="21" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="B21" s="237"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
-      <c r="I21" s="245"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
-      <c r="M21" s="238"/>
-      <c r="N21" s="239"/>
-      <c r="O21" s="239"/>
-      <c r="P21" s="239"/>
-      <c r="Q21" s="239"/>
-      <c r="R21" s="239"/>
-      <c r="S21" s="239"/>
-      <c r="T21" s="239"/>
-      <c r="U21" s="239"/>
-      <c r="V21" s="239"/>
-      <c r="W21" s="239"/>
-      <c r="X21" s="220"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="220"/>
-      <c r="AA21" s="221"/>
-      <c r="AB21" s="220"/>
-      <c r="AC21" s="221"/>
-      <c r="AD21" s="220"/>
-      <c r="AE21" s="221"/>
+    <row r="21" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="235"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="245"/>
+      <c r="H21" s="245"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="236"/>
+      <c r="L21" s="236"/>
+      <c r="M21" s="236"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="237"/>
+      <c r="Q21" s="237"/>
+      <c r="R21" s="237"/>
+      <c r="S21" s="237"/>
+      <c r="T21" s="237"/>
+      <c r="U21" s="237"/>
+      <c r="V21" s="237"/>
+      <c r="W21" s="237"/>
+      <c r="X21" s="221"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="221"/>
+      <c r="AA21" s="222"/>
+      <c r="AB21" s="221"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="221"/>
+      <c r="AE21" s="222"/>
       <c r="AF21" s="152"/>
       <c r="AG21" s="153"/>
       <c r="AH21" s="154"/>
@@ -13266,90 +13393,90 @@
       <c r="AK21" s="101"/>
       <c r="AL21" s="101"/>
     </row>
-    <row r="22" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="B22" s="248"/>
-      <c r="C22" s="249"/>
-      <c r="D22" s="249"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="249"/>
-      <c r="K22" s="249"/>
-      <c r="L22" s="249"/>
-      <c r="M22" s="249"/>
-      <c r="N22" s="250"/>
-      <c r="O22" s="250"/>
-      <c r="P22" s="250"/>
-      <c r="Q22" s="250"/>
-      <c r="R22" s="250"/>
-      <c r="S22" s="250"/>
-      <c r="T22" s="250"/>
-      <c r="U22" s="250"/>
-      <c r="V22" s="250"/>
-      <c r="W22" s="250"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="223"/>
-      <c r="Z22" s="222"/>
-      <c r="AA22" s="223"/>
-      <c r="AB22" s="222"/>
-      <c r="AC22" s="223"/>
-      <c r="AD22" s="222"/>
-      <c r="AE22" s="223"/>
+    <row r="22" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="251"/>
+      <c r="C22" s="252"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="238"/>
+      <c r="F22" s="239"/>
+      <c r="G22" s="239"/>
+      <c r="H22" s="239"/>
+      <c r="I22" s="240"/>
+      <c r="J22" s="252"/>
+      <c r="K22" s="252"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="252"/>
+      <c r="N22" s="253"/>
+      <c r="O22" s="253"/>
+      <c r="P22" s="253"/>
+      <c r="Q22" s="253"/>
+      <c r="R22" s="253"/>
+      <c r="S22" s="253"/>
+      <c r="T22" s="253"/>
+      <c r="U22" s="253"/>
+      <c r="V22" s="253"/>
+      <c r="W22" s="253"/>
+      <c r="X22" s="254"/>
+      <c r="Y22" s="255"/>
+      <c r="Z22" s="254"/>
+      <c r="AA22" s="255"/>
+      <c r="AB22" s="254"/>
+      <c r="AC22" s="255"/>
+      <c r="AD22" s="254"/>
+      <c r="AE22" s="255"/>
       <c r="AF22" s="107"/>
       <c r="AG22" s="108"/>
-      <c r="AH22" s="295"/>
+      <c r="AH22" s="160"/>
       <c r="AI22" s="158"/>
       <c r="AJ22" s="101"/>
       <c r="AK22" s="101"/>
       <c r="AL22" s="101"/>
     </row>
-    <row r="23" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B23" s="241" t="s">
+    <row r="23" spans="2:38" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="233" t="s">
         <v>231</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="255"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
-      <c r="T23" s="181"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
-      <c r="W23" s="181"/>
-      <c r="X23" s="246">
+      <c r="C23" s="234"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="243"/>
+      <c r="J23" s="234"/>
+      <c r="K23" s="234"/>
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="231">
         <f>SUM(X5:Y8)</f>
         <v>203</v>
       </c>
-      <c r="Y23" s="247"/>
-      <c r="Z23" s="257">
+      <c r="Y23" s="256"/>
+      <c r="Z23" s="219">
         <f>SUM(Z5:AA8)</f>
         <v>4530000</v>
       </c>
-      <c r="AA23" s="258"/>
-      <c r="AB23" s="246">
+      <c r="AA23" s="220"/>
+      <c r="AB23" s="231">
         <f>SUM(AB5:AC8)</f>
         <v>426</v>
       </c>
-      <c r="AC23" s="259"/>
-      <c r="AD23" s="257">
+      <c r="AC23" s="232"/>
+      <c r="AD23" s="219">
         <f>SUM(AD5:AE8)</f>
         <v>9576800</v>
       </c>
-      <c r="AE23" s="258"/>
+      <c r="AE23" s="220"/>
       <c r="AF23" s="155"/>
       <c r="AG23" s="156"/>
       <c r="AH23" s="157"/>
@@ -13358,13 +13485,152 @@
       <c r="AK23" s="101"/>
       <c r="AL23" s="101"/>
     </row>
-    <row r="24" spans="2:38" ht="12" customHeight="1">
+    <row r="24" spans="2:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF24" s="20"/>
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:W4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:W14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N15:W15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:W12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N13:W13"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:W19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:W16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:W17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="N18:W18"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:W22"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:W23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:W20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:W21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AD13:AE13"/>
@@ -13389,145 +13655,6 @@
     <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:W23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:W20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:W21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:W22"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:W19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:W16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:W17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="N18:W18"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:W10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N11:W11"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:W14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N15:W15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:W12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N13:W13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:W8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:W9"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:W6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:W7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:W4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="X13:Y13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13539,321 +13666,321 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
-    <row r="2" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
-    <row r="4" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="263" t="s">
+    <row r="3" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="281" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263" t="s">
+      <c r="B4" s="281"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263" t="s">
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="281" t="s">
         <v>93</v>
       </c>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="264" t="s">
+      <c r="L4" s="281"/>
+      <c r="M4" s="281"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="281"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="282" t="s">
         <v>94</v>
       </c>
-      <c r="R4" s="263"/>
-      <c r="S4" s="265" t="s">
+      <c r="R4" s="281"/>
+      <c r="S4" s="283" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="266"/>
-      <c r="U4" s="266"/>
-      <c r="V4" s="266"/>
-      <c r="W4" s="266"/>
-      <c r="X4" s="266"/>
-      <c r="Y4" s="266"/>
-      <c r="Z4" s="266"/>
-      <c r="AA4" s="266"/>
-      <c r="AB4" s="266"/>
-      <c r="AC4" s="266"/>
-      <c r="AD4" s="266"/>
-      <c r="AE4" s="266"/>
-      <c r="AF4" s="269" t="s">
+      <c r="T4" s="284"/>
+      <c r="U4" s="284"/>
+      <c r="V4" s="284"/>
+      <c r="W4" s="284"/>
+      <c r="X4" s="284"/>
+      <c r="Y4" s="284"/>
+      <c r="Z4" s="284"/>
+      <c r="AA4" s="284"/>
+      <c r="AB4" s="284"/>
+      <c r="AC4" s="284"/>
+      <c r="AD4" s="284"/>
+      <c r="AE4" s="284"/>
+      <c r="AF4" s="287" t="s">
         <v>139</v>
       </c>
-      <c r="AG4" s="270"/>
-      <c r="AH4" s="271"/>
-    </row>
-    <row r="5" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="AG4" s="288"/>
+      <c r="AH4" s="289"/>
+    </row>
+    <row r="5" spans="1:34" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
       <c r="F5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="162" t="s">
+      <c r="G5" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
       <c r="K5" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="L5" s="162" t="s">
+      <c r="L5" s="183" t="s">
         <v>97</v>
       </c>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="267"/>
-      <c r="T5" s="268"/>
-      <c r="U5" s="268"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="268"/>
-      <c r="X5" s="268"/>
-      <c r="Y5" s="268"/>
-      <c r="Z5" s="268"/>
-      <c r="AA5" s="268"/>
-      <c r="AB5" s="268"/>
-      <c r="AC5" s="268"/>
-      <c r="AD5" s="268"/>
-      <c r="AE5" s="268"/>
-      <c r="AF5" s="272"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="274"/>
-    </row>
-    <row r="6" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" thickTop="1">
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="285"/>
+      <c r="T5" s="286"/>
+      <c r="U5" s="286"/>
+      <c r="V5" s="286"/>
+      <c r="W5" s="286"/>
+      <c r="X5" s="286"/>
+      <c r="Y5" s="286"/>
+      <c r="Z5" s="286"/>
+      <c r="AA5" s="286"/>
+      <c r="AB5" s="286"/>
+      <c r="AC5" s="286"/>
+      <c r="AD5" s="286"/>
+      <c r="AE5" s="286"/>
+      <c r="AF5" s="290"/>
+      <c r="AG5" s="291"/>
+      <c r="AH5" s="292"/>
+    </row>
+    <row r="6" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="275" t="s">
+      <c r="B6" s="293" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="277"/>
+      <c r="C6" s="294"/>
+      <c r="D6" s="294"/>
+      <c r="E6" s="295"/>
       <c r="F6" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="168" t="s">
+      <c r="G6" s="189" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="276"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="277"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="295"/>
       <c r="K6" s="71">
         <v>10</v>
       </c>
-      <c r="L6" s="278" t="s">
+      <c r="L6" s="270" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="279"/>
-      <c r="N6" s="279"/>
-      <c r="O6" s="279"/>
-      <c r="P6" s="280"/>
-      <c r="Q6" s="278" t="s">
+      <c r="M6" s="271"/>
+      <c r="N6" s="271"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="272"/>
+      <c r="Q6" s="270" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="280"/>
-      <c r="S6" s="177" t="s">
+      <c r="R6" s="272"/>
+      <c r="S6" s="195" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="178"/>
-      <c r="U6" s="178"/>
-      <c r="V6" s="178"/>
-      <c r="W6" s="178"/>
-      <c r="X6" s="178"/>
-      <c r="Y6" s="178"/>
-      <c r="Z6" s="178"/>
-      <c r="AA6" s="178"/>
-      <c r="AB6" s="178"/>
-      <c r="AC6" s="178"/>
-      <c r="AD6" s="178"/>
-      <c r="AE6" s="178"/>
-      <c r="AF6" s="260" t="s">
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="278" t="s">
         <v>110</v>
       </c>
-      <c r="AG6" s="261"/>
-      <c r="AH6" s="262"/>
-    </row>
-    <row r="7" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG6" s="279"/>
+      <c r="AH6" s="280"/>
+    </row>
+    <row r="7" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="82"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="285"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="277"/>
       <c r="F7" s="73"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="285"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="277"/>
       <c r="K7" s="75">
         <v>20</v>
       </c>
-      <c r="L7" s="286" t="s">
+      <c r="L7" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="M7" s="287"/>
-      <c r="N7" s="287"/>
-      <c r="O7" s="287"/>
-      <c r="P7" s="288"/>
-      <c r="Q7" s="286" t="s">
+      <c r="M7" s="268"/>
+      <c r="N7" s="268"/>
+      <c r="O7" s="268"/>
+      <c r="P7" s="269"/>
+      <c r="Q7" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="288"/>
-      <c r="S7" s="159" t="s">
+      <c r="R7" s="269"/>
+      <c r="S7" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="281" t="s">
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="AG7" s="282"/>
-      <c r="AH7" s="221"/>
-    </row>
-    <row r="8" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG7" s="263"/>
+      <c r="AH7" s="222"/>
+    </row>
+    <row r="8" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="82"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="285"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="276"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="277"/>
       <c r="F8" s="73"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="285"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="277"/>
       <c r="K8" s="75">
         <v>30</v>
       </c>
-      <c r="L8" s="286" t="s">
+      <c r="L8" s="267" t="s">
         <v>159</v>
       </c>
-      <c r="M8" s="287"/>
-      <c r="N8" s="287"/>
-      <c r="O8" s="287"/>
-      <c r="P8" s="288"/>
-      <c r="Q8" s="286" t="s">
+      <c r="M8" s="268"/>
+      <c r="N8" s="268"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="269"/>
+      <c r="Q8" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="R8" s="288"/>
-      <c r="S8" s="159" t="s">
+      <c r="R8" s="269"/>
+      <c r="S8" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="281" t="s">
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="166"/>
+      <c r="W8" s="166"/>
+      <c r="X8" s="166"/>
+      <c r="Y8" s="166"/>
+      <c r="Z8" s="166"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="166"/>
+      <c r="AC8" s="166"/>
+      <c r="AD8" s="166"/>
+      <c r="AE8" s="166"/>
+      <c r="AF8" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="AG8" s="282"/>
-      <c r="AH8" s="221"/>
-    </row>
-    <row r="9" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="222"/>
+    </row>
+    <row r="9" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="82"/>
-      <c r="B9" s="283"/>
-      <c r="C9" s="284"/>
-      <c r="D9" s="284"/>
-      <c r="E9" s="285"/>
+      <c r="B9" s="275"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="277"/>
       <c r="F9" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="190" t="s">
+      <c r="G9" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="292"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="266"/>
       <c r="K9" s="75">
         <v>10</v>
       </c>
-      <c r="L9" s="286" t="s">
+      <c r="L9" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="M9" s="287"/>
-      <c r="N9" s="287"/>
-      <c r="O9" s="287"/>
-      <c r="P9" s="288"/>
-      <c r="Q9" s="286" t="s">
+      <c r="M9" s="268"/>
+      <c r="N9" s="268"/>
+      <c r="O9" s="268"/>
+      <c r="P9" s="269"/>
+      <c r="Q9" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="288"/>
-      <c r="S9" s="159" t="s">
+      <c r="R9" s="269"/>
+      <c r="S9" s="165" t="s">
         <v>162</v>
       </c>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="281" t="s">
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="166"/>
+      <c r="W9" s="166"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="166"/>
+      <c r="AF9" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" s="289"/>
-      <c r="AH9" s="290"/>
-    </row>
-    <row r="10" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG9" s="273"/>
+      <c r="AH9" s="274"/>
+    </row>
+    <row r="10" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="82"/>
-      <c r="B10" s="283"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="285"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="277"/>
       <c r="F10" s="85" t="s">
         <v>155</v>
       </c>
@@ -13877,28 +14004,28 @@
         <v>99</v>
       </c>
       <c r="R10" s="78"/>
-      <c r="S10" s="159" t="s">
+      <c r="S10" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="281" t="s">
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="166"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="AG10" s="289"/>
-      <c r="AH10" s="290"/>
-    </row>
-    <row r="11" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG10" s="273"/>
+      <c r="AH10" s="274"/>
+    </row>
+    <row r="11" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="82"/>
       <c r="B11" s="100"/>
       <c r="C11" s="101"/>
@@ -13923,33 +14050,33 @@
         <v>99</v>
       </c>
       <c r="R11" s="91"/>
-      <c r="S11" s="159" t="s">
+      <c r="S11" s="165" t="s">
         <v>168</v>
       </c>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="161"/>
-      <c r="AF11" s="281" t="s">
+      <c r="T11" s="166"/>
+      <c r="U11" s="166"/>
+      <c r="V11" s="166"/>
+      <c r="W11" s="166"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="166"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
+      <c r="AD11" s="166"/>
+      <c r="AE11" s="167"/>
+      <c r="AF11" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="AG11" s="282"/>
-      <c r="AH11" s="221"/>
-    </row>
-    <row r="12" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG11" s="263"/>
+      <c r="AH11" s="222"/>
+    </row>
+    <row r="12" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="82"/>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284"/>
-      <c r="D12" s="284"/>
-      <c r="E12" s="285"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="276"/>
+      <c r="D12" s="276"/>
+      <c r="E12" s="277"/>
       <c r="F12" s="85" t="s">
         <v>165</v>
       </c>
@@ -13962,44 +14089,44 @@
       <c r="K12" s="88">
         <v>10</v>
       </c>
-      <c r="L12" s="286" t="s">
+      <c r="L12" s="267" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="288"/>
-      <c r="Q12" s="286" t="s">
+      <c r="M12" s="268"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="269"/>
+      <c r="Q12" s="267" t="s">
         <v>100</v>
       </c>
-      <c r="R12" s="288"/>
-      <c r="S12" s="159" t="s">
+      <c r="R12" s="269"/>
+      <c r="S12" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="161"/>
-      <c r="AF12" s="281" t="s">
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="166"/>
+      <c r="W12" s="166"/>
+      <c r="X12" s="166"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="166"/>
+      <c r="AA12" s="166"/>
+      <c r="AB12" s="166"/>
+      <c r="AC12" s="166"/>
+      <c r="AD12" s="166"/>
+      <c r="AE12" s="167"/>
+      <c r="AF12" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="AG12" s="289"/>
-      <c r="AH12" s="290"/>
-    </row>
-    <row r="13" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG12" s="273"/>
+      <c r="AH12" s="274"/>
+    </row>
+    <row r="13" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="82"/>
-      <c r="B13" s="283"/>
-      <c r="C13" s="284"/>
-      <c r="D13" s="284"/>
-      <c r="E13" s="285"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="276"/>
+      <c r="E13" s="277"/>
       <c r="F13" s="86"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
@@ -14019,83 +14146,83 @@
         <v>99</v>
       </c>
       <c r="R13" s="91"/>
-      <c r="S13" s="159" t="s">
+      <c r="S13" s="165" t="s">
         <v>117</v>
       </c>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="281" t="s">
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166"/>
+      <c r="W13" s="166"/>
+      <c r="X13" s="166"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="166"/>
+      <c r="AB13" s="166"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="167"/>
+      <c r="AF13" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="AG13" s="289"/>
-      <c r="AH13" s="290"/>
-    </row>
-    <row r="14" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG13" s="273"/>
+      <c r="AH13" s="274"/>
+    </row>
+    <row r="14" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="82"/>
-      <c r="B14" s="283"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="284"/>
-      <c r="E14" s="285"/>
+      <c r="B14" s="275"/>
+      <c r="C14" s="276"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="277"/>
       <c r="F14" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="190" t="s">
+      <c r="G14" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="291"/>
-      <c r="I14" s="291"/>
-      <c r="J14" s="292"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="266"/>
       <c r="K14" s="88">
         <v>10</v>
       </c>
-      <c r="L14" s="286" t="s">
+      <c r="L14" s="267" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="288"/>
-      <c r="Q14" s="286" t="s">
+      <c r="M14" s="268"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="269"/>
+      <c r="Q14" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="R14" s="288"/>
-      <c r="S14" s="159" t="s">
+      <c r="R14" s="269"/>
+      <c r="S14" s="165" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
-      <c r="AC14" s="160"/>
-      <c r="AD14" s="160"/>
-      <c r="AE14" s="160"/>
-      <c r="AF14" s="281" t="s">
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
+      <c r="AA14" s="166"/>
+      <c r="AB14" s="166"/>
+      <c r="AC14" s="166"/>
+      <c r="AD14" s="166"/>
+      <c r="AE14" s="166"/>
+      <c r="AF14" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="AG14" s="289"/>
-      <c r="AH14" s="290"/>
-    </row>
-    <row r="15" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG14" s="273"/>
+      <c r="AH14" s="274"/>
+    </row>
+    <row r="15" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="82"/>
-      <c r="B15" s="283"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="284"/>
-      <c r="E15" s="285"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="277"/>
       <c r="F15" s="86"/>
       <c r="G15" s="100"/>
       <c r="H15" s="101"/>
@@ -14115,33 +14242,33 @@
         <v>100</v>
       </c>
       <c r="R15" s="91"/>
-      <c r="S15" s="159" t="s">
+      <c r="S15" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="161"/>
-      <c r="AF15" s="281" t="s">
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="166"/>
+      <c r="W15" s="166"/>
+      <c r="X15" s="166"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="166"/>
+      <c r="AB15" s="166"/>
+      <c r="AC15" s="166"/>
+      <c r="AD15" s="166"/>
+      <c r="AE15" s="167"/>
+      <c r="AF15" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="AG15" s="289"/>
-      <c r="AH15" s="290"/>
-    </row>
-    <row r="16" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG15" s="273"/>
+      <c r="AH15" s="274"/>
+    </row>
+    <row r="16" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="83"/>
-      <c r="B16" s="278"/>
-      <c r="C16" s="279"/>
-      <c r="D16" s="279"/>
-      <c r="E16" s="280"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="272"/>
       <c r="F16" s="86"/>
       <c r="G16" s="87"/>
       <c r="H16" s="101"/>
@@ -14161,143 +14288,174 @@
         <v>100</v>
       </c>
       <c r="R16" s="91"/>
-      <c r="S16" s="159" t="s">
+      <c r="S16" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="281" t="s">
+      <c r="T16" s="166"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="166"/>
+      <c r="Y16" s="166"/>
+      <c r="Z16" s="166"/>
+      <c r="AA16" s="166"/>
+      <c r="AB16" s="166"/>
+      <c r="AC16" s="166"/>
+      <c r="AD16" s="166"/>
+      <c r="AE16" s="167"/>
+      <c r="AF16" s="262" t="s">
         <v>110</v>
       </c>
-      <c r="AG16" s="289"/>
-      <c r="AH16" s="290"/>
-    </row>
-    <row r="17" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG16" s="273"/>
+      <c r="AH16" s="274"/>
+    </row>
+    <row r="17" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="293" t="s">
+      <c r="B17" s="264" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="292"/>
+      <c r="C17" s="265"/>
+      <c r="D17" s="265"/>
+      <c r="E17" s="266"/>
       <c r="F17" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="293" t="s">
+      <c r="G17" s="264" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="291"/>
-      <c r="I17" s="291"/>
-      <c r="J17" s="292"/>
+      <c r="H17" s="265"/>
+      <c r="I17" s="265"/>
+      <c r="J17" s="266"/>
       <c r="K17" s="75">
         <v>10</v>
       </c>
-      <c r="L17" s="286" t="s">
+      <c r="L17" s="267" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="287"/>
-      <c r="N17" s="287"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="288"/>
-      <c r="Q17" s="286" t="s">
+      <c r="M17" s="268"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
+      <c r="P17" s="269"/>
+      <c r="Q17" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="R17" s="288"/>
-      <c r="S17" s="159" t="s">
+      <c r="R17" s="269"/>
+      <c r="S17" s="165" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="281" t="s">
+      <c r="T17" s="166"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="166"/>
+      <c r="Y17" s="166"/>
+      <c r="Z17" s="166"/>
+      <c r="AA17" s="166"/>
+      <c r="AB17" s="166"/>
+      <c r="AC17" s="166"/>
+      <c r="AD17" s="166"/>
+      <c r="AE17" s="166"/>
+      <c r="AF17" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="AG17" s="282"/>
-      <c r="AH17" s="221"/>
-    </row>
-    <row r="18" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1">
+      <c r="AG17" s="263"/>
+      <c r="AH17" s="222"/>
+    </row>
+    <row r="18" spans="1:34" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="83"/>
-      <c r="B18" s="278"/>
-      <c r="C18" s="279"/>
-      <c r="D18" s="279"/>
-      <c r="E18" s="280"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="272"/>
       <c r="F18" s="71"/>
-      <c r="G18" s="278"/>
-      <c r="H18" s="279"/>
-      <c r="I18" s="279"/>
-      <c r="J18" s="280"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="271"/>
+      <c r="I18" s="271"/>
+      <c r="J18" s="272"/>
       <c r="K18" s="75">
         <v>20</v>
       </c>
-      <c r="L18" s="286" t="s">
+      <c r="L18" s="267" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="287"/>
-      <c r="N18" s="287"/>
-      <c r="O18" s="287"/>
-      <c r="P18" s="288"/>
-      <c r="Q18" s="286" t="s">
+      <c r="M18" s="268"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="269"/>
+      <c r="Q18" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="R18" s="288"/>
-      <c r="S18" s="159" t="s">
+      <c r="R18" s="269"/>
+      <c r="S18" s="165" t="s">
         <v>158</v>
       </c>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="281" t="s">
+      <c r="T18" s="166"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="166"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="166"/>
+      <c r="Y18" s="166"/>
+      <c r="Z18" s="166"/>
+      <c r="AA18" s="166"/>
+      <c r="AB18" s="166"/>
+      <c r="AC18" s="166"/>
+      <c r="AD18" s="166"/>
+      <c r="AE18" s="166"/>
+      <c r="AF18" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="AG18" s="282"/>
-      <c r="AH18" s="221"/>
-    </row>
-    <row r="19" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
-    <row r="20" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1"/>
+      <c r="AG18" s="263"/>
+      <c r="AH18" s="222"/>
+    </row>
+    <row r="19" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:34" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:AE18"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="S4:AE5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="AF4:AH5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:AE8"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:AE9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="S12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="S10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="S11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="AF13:AH13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="S14:AE14"/>
@@ -14313,49 +14471,18 @@
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="S12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="S10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="S11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:AE9"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:AE8"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="S4:AE5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:AE6"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:AE18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
